--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADC4C2-A29C-3647-8A2B-B2F11A3B8959}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B8F8B-7365-9C4F-A752-2F4B66AC360F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="120">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>5月16日</t>
+  </si>
+  <si>
+    <t>5月27日</t>
   </si>
 </sst>
 </file>
@@ -827,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -841,7 +844,7 @@
     <col min="13" max="246" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -878,8 +881,11 @@
       <c r="L1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -916,8 +922,11 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -954,8 +963,11 @@
       <c r="L3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -992,8 +1004,11 @@
       <c r="L4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1030,8 +1045,11 @@
       <c r="L5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0.23</v>
       </c>
@@ -1068,8 +1086,11 @@
       <c r="L6">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1106,8 +1127,11 @@
       <c r="L7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1144,8 +1168,11 @@
       <c r="L8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -1182,8 +1209,11 @@
       <c r="L9">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1220,8 +1250,11 @@
       <c r="L10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1258,8 +1291,11 @@
       <c r="L11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1296,8 +1332,11 @@
       <c r="L12">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1334,8 +1373,11 @@
       <c r="L13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1372,8 +1414,11 @@
       <c r="L14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2.11</v>
       </c>
@@ -1410,8 +1455,11 @@
       <c r="L15">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1448,8 +1496,11 @@
       <c r="L16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1486,8 +1537,11 @@
       <c r="L17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>28.4</v>
       </c>
@@ -1524,8 +1578,11 @@
       <c r="L18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1562,8 +1619,11 @@
       <c r="L19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1600,8 +1660,11 @@
       <c r="L20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1638,8 +1701,11 @@
       <c r="L21">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1676,8 +1742,11 @@
       <c r="L22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1714,8 +1783,11 @@
       <c r="L23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1752,8 +1824,11 @@
       <c r="L24">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1790,8 +1865,11 @@
       <c r="L25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1828,8 +1906,11 @@
       <c r="L26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1947,11 @@
       <c r="L27">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1904,8 +1988,11 @@
       <c r="L28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1942,8 +2029,11 @@
       <c r="L29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>54</v>
       </c>
@@ -1980,8 +2070,11 @@
       <c r="L30">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2018,8 +2111,11 @@
       <c r="L31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2056,8 +2152,11 @@
       <c r="L32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>3.07</v>
       </c>
@@ -2094,8 +2193,11 @@
       <c r="L33">
         <v>53.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2132,8 +2234,11 @@
       <c r="L34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2170,8 +2275,11 @@
       <c r="L35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>13.8</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="L36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2284,8 +2398,11 @@
       <c r="L38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>49.6</v>
       </c>
@@ -2322,8 +2439,11 @@
       <c r="L39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2360,8 +2480,11 @@
       <c r="L40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2398,8 +2521,11 @@
       <c r="L41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -2436,8 +2562,11 @@
       <c r="L42">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2474,8 +2603,11 @@
       <c r="L43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2512,8 +2644,11 @@
       <c r="L44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>1.22</v>
       </c>
@@ -2550,8 +2685,11 @@
       <c r="L45">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2588,8 +2726,11 @@
       <c r="L46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2626,8 +2767,11 @@
       <c r="L47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>30.3</v>
       </c>
@@ -2664,8 +2808,11 @@
       <c r="L48">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -2702,8 +2849,11 @@
       <c r="L49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2740,8 +2890,11 @@
       <c r="L50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="23">
         <v>0.5</v>
       </c>
@@ -2778,8 +2931,11 @@
       <c r="L51">
         <v>29.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2816,8 +2972,11 @@
       <c r="L52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2854,8 +3013,11 @@
       <c r="L53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>4.5</v>
       </c>
@@ -2892,8 +3054,11 @@
       <c r="L54">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -2930,8 +3095,11 @@
       <c r="L55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -2968,8 +3136,11 @@
       <c r="L56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>99.7</v>
       </c>
@@ -3006,8 +3177,11 @@
       <c r="L57">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -3044,8 +3218,11 @@
       <c r="L58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3082,8 +3259,11 @@
       <c r="L59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>0.7</v>
       </c>
@@ -3120,8 +3300,11 @@
       <c r="L60">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3158,8 +3341,11 @@
       <c r="L61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -3196,8 +3382,11 @@
       <c r="L62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>0.17</v>
       </c>
@@ -3234,8 +3423,11 @@
       <c r="L63">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3272,8 +3464,11 @@
       <c r="L64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -3310,8 +3505,11 @@
       <c r="L65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>2.2999999999999998</v>
       </c>
@@ -3348,8 +3546,11 @@
       <c r="L66">
         <v>320</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3386,8 +3587,11 @@
       <c r="L67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3424,8 +3628,11 @@
       <c r="L68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>0.16</v>
       </c>
@@ -3462,8 +3669,11 @@
       <c r="L69">
         <v>110</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -3500,8 +3710,11 @@
       <c r="L70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -3538,8 +3751,11 @@
       <c r="L71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>5.18</v>
       </c>
@@ -3576,8 +3792,11 @@
       <c r="L72">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -3614,8 +3833,11 @@
       <c r="L73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -3638,7 +3860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>30.6</v>
       </c>
@@ -3661,7 +3883,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3684,22 +3906,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>92</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B8F8B-7365-9C4F-A752-2F4B66AC360F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFE449-73D0-C648-8F6F-8B40015CA25C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="107">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -343,45 +343,6 @@
   </si>
   <si>
     <t>时间</t>
-  </si>
-  <si>
-    <t>1月22日</t>
-  </si>
-  <si>
-    <t>1月26日</t>
-  </si>
-  <si>
-    <t>1月27日</t>
-  </si>
-  <si>
-    <t>1月28日</t>
-  </si>
-  <si>
-    <t>1月29日</t>
-  </si>
-  <si>
-    <t>1月30日</t>
-  </si>
-  <si>
-    <t>2月6日</t>
-  </si>
-  <si>
-    <t>2月9日</t>
-  </si>
-  <si>
-    <t>3月9日</t>
-  </si>
-  <si>
-    <t>4月5日</t>
-  </si>
-  <si>
-    <t>4月10日</t>
-  </si>
-  <si>
-    <t>5月16日</t>
-  </si>
-  <si>
-    <t>5月27日</t>
   </si>
 </sst>
 </file>
@@ -421,9 +382,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -514,6 +472,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -845,44 +806,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
+      <c r="A1" s="31">
+        <v>44218</v>
+      </c>
+      <c r="B1" s="31">
+        <v>44222</v>
+      </c>
+      <c r="C1" s="31">
+        <v>44223</v>
+      </c>
+      <c r="D1" s="31">
+        <v>44224</v>
+      </c>
+      <c r="E1" s="31">
+        <v>44225</v>
+      </c>
+      <c r="F1" s="31">
+        <v>44226</v>
+      </c>
+      <c r="G1" s="31">
+        <v>44233</v>
+      </c>
+      <c r="H1" s="31">
+        <v>44236</v>
+      </c>
+      <c r="I1" s="31">
+        <v>44264</v>
+      </c>
+      <c r="J1" s="31">
+        <v>44291</v>
+      </c>
+      <c r="K1" s="31">
+        <v>44296</v>
+      </c>
+      <c r="L1" s="31">
+        <v>44332</v>
+      </c>
+      <c r="M1" s="31">
+        <v>44343</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -930,16 +891,16 @@
       <c r="A3">
         <v>0.05</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1056,10 +1017,10 @@
       <c r="B6">
         <v>9.1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -1185,7 +1146,7 @@
       <c r="D9">
         <v>2.12</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="F9">
@@ -1308,7 +1269,7 @@
       <c r="D12">
         <v>30.4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>44</v>
       </c>
       <c r="F12">
@@ -1320,7 +1281,7 @@
       <c r="H12">
         <v>36.6</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>22</v>
       </c>
       <c r="J12">
@@ -1569,7 +1530,7 @@
       <c r="I18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>18</v>
       </c>
       <c r="K18">
@@ -1692,7 +1653,7 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>30</v>
       </c>
       <c r="K21">
@@ -1929,7 +1890,7 @@
       <c r="F27">
         <v>3.19</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>3</v>
       </c>
       <c r="H27">
@@ -2409,10 +2370,10 @@
       <c r="B39">
         <v>0.27</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>0.3</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>0.3</v>
       </c>
       <c r="E39">
@@ -2652,16 +2613,16 @@
       <c r="A45">
         <v>1.22</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="19">
         <v>0</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="18">
         <v>0</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17">
         <v>0</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>0</v>
       </c>
       <c r="F45">
@@ -2673,7 +2634,7 @@
       <c r="H45">
         <v>0.1</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="15">
         <v>0.2</v>
       </c>
       <c r="J45">
@@ -2796,7 +2757,7 @@
       <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="20">
         <v>3</v>
       </c>
       <c r="J48">
@@ -2895,7 +2856,7 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>0.5</v>
       </c>
       <c r="B51">
@@ -2910,7 +2871,7 @@
       <c r="E51">
         <v>0.09</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <v>0</v>
       </c>
       <c r="G51">
@@ -3033,7 +2994,7 @@
       <c r="E54">
         <v>1.7</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <v>0</v>
       </c>
       <c r="G54">
@@ -3153,10 +3114,10 @@
       <c r="D57">
         <v>33.200000000000003</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="26">
         <v>29</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="25">
         <v>33</v>
       </c>
       <c r="G57">
@@ -3168,7 +3129,7 @@
       <c r="I57">
         <v>4.67</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="24">
         <v>4.5</v>
       </c>
       <c r="K57">
@@ -3288,7 +3249,7 @@
       <c r="H60">
         <v>113</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="27">
         <v>70</v>
       </c>
       <c r="J60">
@@ -3651,7 +3612,7 @@
       <c r="F69">
         <v>34.5</v>
       </c>
-      <c r="G69" s="29">
+      <c r="G69" s="28">
         <v>106</v>
       </c>
       <c r="H69">
@@ -3774,7 +3735,7 @@
       <c r="F72">
         <v>333</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="29">
         <v>5.6</v>
       </c>
       <c r="H72">
@@ -3879,7 +3840,7 @@
       <c r="F75">
         <v>4.7300000000000004</v>
       </c>
-      <c r="H75" s="31">
+      <c r="H75" s="30">
         <v>6.1</v>
       </c>
     </row>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFE449-73D0-C648-8F6F-8B40015CA25C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBAB8AE-AC2D-E240-83AB-B114B8C4915D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="107">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -791,21 +791,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
     <col min="2" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="246" width="11" customWidth="1"/>
+    <col min="12" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="246" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="31">
         <v>44218</v>
       </c>
@@ -845,8 +845,11 @@
       <c r="M1" s="31">
         <v>44343</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="31">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -886,8 +889,11 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0.05</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="M3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -968,8 +977,11 @@
       <c r="M4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1009,8 +1021,11 @@
       <c r="M5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0.23</v>
       </c>
@@ -1050,8 +1065,11 @@
       <c r="M6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1091,8 +1109,11 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1132,8 +1153,11 @@
       <c r="M8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -1173,8 +1197,11 @@
       <c r="M9">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1214,8 +1241,11 @@
       <c r="M10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1255,8 +1285,11 @@
       <c r="M11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="M12">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1337,8 +1373,11 @@
       <c r="M13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1378,8 +1417,11 @@
       <c r="M14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2.11</v>
       </c>
@@ -1419,8 +1461,11 @@
       <c r="M15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1460,8 +1505,11 @@
       <c r="M16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1501,8 +1549,11 @@
       <c r="M17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>28.4</v>
       </c>
@@ -1542,8 +1593,11 @@
       <c r="M18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1583,8 +1637,11 @@
       <c r="M19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1624,8 +1681,11 @@
       <c r="M20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1665,8 +1725,11 @@
       <c r="M21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1706,8 +1769,11 @@
       <c r="M22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1747,8 +1813,11 @@
       <c r="M23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1788,8 +1857,11 @@
       <c r="M24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1829,8 +1901,11 @@
       <c r="M25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1870,8 +1945,11 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1911,8 +1989,11 @@
       <c r="M27">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1952,8 +2033,11 @@
       <c r="M28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1993,8 +2077,11 @@
       <c r="M29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>54</v>
       </c>
@@ -2034,8 +2121,11 @@
       <c r="M30">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2075,8 +2165,11 @@
       <c r="M31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2116,8 +2209,11 @@
       <c r="M32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>3.07</v>
       </c>
@@ -2157,8 +2253,11 @@
       <c r="M33">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2198,8 +2297,11 @@
       <c r="M34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2239,8 +2341,11 @@
       <c r="M35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>13.8</v>
       </c>
@@ -2280,8 +2385,11 @@
       <c r="M36">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -2321,8 +2429,11 @@
       <c r="M37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>49.6</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="M39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2444,8 +2561,11 @@
       <c r="M40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2485,8 +2605,11 @@
       <c r="M41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -2526,8 +2649,11 @@
       <c r="M42">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -2567,8 +2693,11 @@
       <c r="M43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2608,8 +2737,11 @@
       <c r="M44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1.22</v>
       </c>
@@ -2649,8 +2781,11 @@
       <c r="M45">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2690,8 +2825,11 @@
       <c r="M46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2731,8 +2869,11 @@
       <c r="M47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>30.3</v>
       </c>
@@ -2772,8 +2913,11 @@
       <c r="M48">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -2813,8 +2957,11 @@
       <c r="M49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2854,8 +3001,11 @@
       <c r="M50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="22">
         <v>0.5</v>
       </c>
@@ -2895,8 +3045,11 @@
       <c r="M51">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -2936,8 +3089,11 @@
       <c r="M52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -2977,8 +3133,11 @@
       <c r="M53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>4.5</v>
       </c>
@@ -3018,8 +3177,11 @@
       <c r="M54">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3059,8 +3221,11 @@
       <c r="M55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3100,8 +3265,11 @@
       <c r="M56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>99.7</v>
       </c>
@@ -3141,8 +3309,11 @@
       <c r="M57">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -3182,8 +3353,11 @@
       <c r="M58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3223,8 +3397,11 @@
       <c r="M59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>0.7</v>
       </c>
@@ -3264,8 +3441,11 @@
       <c r="M60">
         <v>69.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3305,8 +3485,11 @@
       <c r="M61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -3346,8 +3529,11 @@
       <c r="M62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>0.17</v>
       </c>
@@ -3387,8 +3573,11 @@
       <c r="M63">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3428,8 +3617,11 @@
       <c r="M64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -3469,8 +3661,11 @@
       <c r="M65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>2.2999999999999998</v>
       </c>
@@ -3510,8 +3705,11 @@
       <c r="M66">
         <v>322</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -3551,8 +3749,11 @@
       <c r="M67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3592,8 +3793,11 @@
       <c r="M68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>0.16</v>
       </c>
@@ -3633,8 +3837,11 @@
       <c r="M69">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -3674,8 +3881,11 @@
       <c r="M70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -3715,8 +3925,11 @@
       <c r="M71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>5.18</v>
       </c>
@@ -3756,8 +3969,11 @@
       <c r="M72">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -3797,8 +4013,11 @@
       <c r="M73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -3821,7 +4040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>30.6</v>
       </c>
@@ -3844,7 +4063,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3867,22 +4086,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>92</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBAB8AE-AC2D-E240-83AB-B114B8C4915D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D2FE2-9AEF-4549-B5B3-5166A2BEF71F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="55">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -181,162 +181,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>嗜碱性粒细胞绝对值(BASO#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>0～0.07</t>
-  </si>
-  <si>
-    <t>单核细胞绝对值(MONO#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>0.25～0.95</t>
-  </si>
-  <si>
-    <t>4.2～15.2</t>
-  </si>
-  <si>
-    <t>平均血小板体积(MPV)(fL)</t>
-  </si>
-  <si>
-    <t>9.1～12.1</t>
-  </si>
-  <si>
-    <t>中性粒细胞绝对值(NEUT#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>1.8～8.89</t>
-  </si>
-  <si>
-    <t>0.17～0.39</t>
-  </si>
-  <si>
-    <t>血小板体积分布宽度(PDW)(fL)</t>
-  </si>
-  <si>
-    <t>9.9～16.1</t>
-  </si>
-  <si>
-    <t>大血小板比率(P-LCR)(%)</t>
-  </si>
-  <si>
-    <t>17.5～42.3</t>
-  </si>
-  <si>
-    <t>红细胞数(RBC)(10^12/L)</t>
-  </si>
-  <si>
-    <t>红细胞体积分布宽度-CV(RDW-CV)(%)</t>
-  </si>
-  <si>
-    <t>11.5～16.5</t>
-  </si>
-  <si>
-    <t>红细胞体积分布宽度-SD(RDW-SD)(fL)</t>
-  </si>
-  <si>
-    <t>37～54</t>
-  </si>
-  <si>
-    <t>网织红细胞绝对值(RET#)(10^12/L)</t>
-  </si>
-  <si>
-    <t>0.017～0.0701</t>
-  </si>
-  <si>
-    <t>网织红细胞百分比(RET%)(%)</t>
-  </si>
-  <si>
-    <t>0.43～1.36</t>
-  </si>
-  <si>
-    <t>网织红细胞血红蛋白含量(RET-He)(pg)</t>
-  </si>
-  <si>
-    <t>32.1～38.8</t>
-  </si>
-  <si>
-    <t>网织红细胞生成指数(RPI)</t>
-  </si>
-  <si>
-    <t>0.2～1.5</t>
-  </si>
-  <si>
-    <t>中荧光强度网织红细胞比率(MFR)(%)</t>
-  </si>
-  <si>
-    <t>1.6～10.5</t>
-  </si>
-  <si>
-    <t>0.1～1.2</t>
-  </si>
-  <si>
-    <t>嗜酸性粒细胞绝对值(EO#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>0.01～0.59</t>
-  </si>
-  <si>
-    <t>0.2～7.6</t>
-  </si>
-  <si>
-    <t>红细胞碎片绝对值(FRC#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>0～0.12</t>
-  </si>
-  <si>
-    <t>红细胞碎片百分比(FRC%)(%)</t>
-  </si>
-  <si>
-    <t>0～0.25</t>
-  </si>
-  <si>
-    <t>高荧光强度网织红细胞比率(HFR)(%)</t>
-  </si>
-  <si>
-    <t>0～1.7</t>
-  </si>
-  <si>
-    <t>血红蛋白浓度(HGB)(g/L)</t>
-  </si>
-  <si>
-    <t>幼稚粒细胞绝对值(IG#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>0～0.06</t>
-  </si>
-  <si>
-    <t>幼稚粒细胞百分比(IG%)(%)</t>
-  </si>
-  <si>
-    <t>0～0.6</t>
-  </si>
-  <si>
-    <t>未成熟网织红细胞比率(IRF)(%)</t>
-  </si>
-  <si>
-    <t>低荧光强度网织红细胞比率(LFR)(%)</t>
-  </si>
-  <si>
-    <t>89.9～98.4</t>
-  </si>
-  <si>
-    <t>淋巴细胞绝对值(LYMPH#)(10^9/L)</t>
-  </si>
-  <si>
-    <t>1.26～3.35</t>
-  </si>
-  <si>
-    <t>平均红细胞血红蛋白含量(MCH)(pg)</t>
-  </si>
-  <si>
-    <t>平均红细胞血红蛋白浓度(MCHC)(g/L)</t>
-  </si>
-  <si>
-    <t>白细胞计数(WBC)(10^9/L)</t>
   </si>
   <si>
     <t>杜子期血常规</t>
@@ -380,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,12 +235,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -426,9 +264,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,12 +274,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -791,67 +620,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="246" width="11" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="31">
+    <row r="1" spans="1:13">
+      <c r="A1" s="26">
         <v>44218</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="26">
         <v>44222</v>
       </c>
-      <c r="C1" s="31">
-        <v>44223</v>
-      </c>
-      <c r="D1" s="31">
+      <c r="C1" s="26">
         <v>44224</v>
       </c>
-      <c r="E1" s="31">
+      <c r="D1" s="26">
         <v>44225</v>
       </c>
-      <c r="F1" s="31">
+      <c r="E1" s="26">
         <v>44226</v>
       </c>
-      <c r="G1" s="31">
+      <c r="F1" s="26">
         <v>44233</v>
       </c>
-      <c r="H1" s="31">
+      <c r="G1" s="26">
         <v>44236</v>
       </c>
-      <c r="I1" s="31">
+      <c r="H1" s="26">
         <v>44264</v>
       </c>
-      <c r="J1" s="31">
+      <c r="I1" s="26">
         <v>44291</v>
       </c>
-      <c r="K1" s="31">
+      <c r="J1" s="26">
         <v>44296</v>
       </c>
-      <c r="L1" s="31">
+      <c r="K1" s="26">
         <v>44332</v>
       </c>
-      <c r="M1" s="31">
+      <c r="L1" s="26">
         <v>44343</v>
       </c>
-      <c r="N1" s="31">
+      <c r="M1" s="26">
         <v>44352</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -889,28 +716,25 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>0.05</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3">
+        <v>0.02</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
         <v>0.01</v>
@@ -919,13 +743,13 @@
         <v>0.01</v>
       </c>
       <c r="I3">
+        <v>0.03</v>
+      </c>
+      <c r="J3">
+        <v>0.02</v>
+      </c>
+      <c r="K3">
         <v>0.01</v>
-      </c>
-      <c r="J3">
-        <v>0.03</v>
-      </c>
-      <c r="K3">
-        <v>0.02</v>
       </c>
       <c r="L3">
         <v>0.01</v>
@@ -933,13 +757,10 @@
       <c r="M3">
         <v>0.01</v>
       </c>
-      <c r="N3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -977,13 +798,10 @@
       <c r="M4" t="s">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1021,57 +839,51 @@
       <c r="M5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>0.23</v>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
       <c r="B6">
         <v>9.1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="F6">
+      <c r="E6">
         <v>12.8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>9.5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
+      <c r="I6">
+        <v>10.3</v>
+      </c>
       <c r="J6">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="K6">
-        <v>11.3</v>
-      </c>
-      <c r="L6">
         <v>11.2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>48</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1109,13 +921,10 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1153,13 +962,10 @@
       <c r="M8" t="s">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
-        <v>3.1</v>
+        <v>2.11</v>
       </c>
       <c r="B9">
         <v>1.46</v>
@@ -1167,43 +973,40 @@
       <c r="C9">
         <v>2.12</v>
       </c>
-      <c r="D9">
-        <v>2.12</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="5">
         <v>2.2999999999999998</v>
       </c>
+      <c r="E9">
+        <v>2.83</v>
+      </c>
       <c r="F9">
-        <v>2.83</v>
+        <v>0.97</v>
       </c>
       <c r="G9">
-        <v>0.97</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H9">
-        <v>2.2200000000000002</v>
+        <v>1.46</v>
       </c>
       <c r="I9">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="J9">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="K9">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="L9">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="M9">
-        <v>1.59</v>
-      </c>
-      <c r="N9">
         <v>1.23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1241,13 +1044,10 @@
       <c r="M10" t="s">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1285,13 +1085,10 @@
       <c r="M11" t="s">
         <v>6</v>
       </c>
-      <c r="N11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>48</v>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>28.4</v>
       </c>
       <c r="B12">
         <v>24.1</v>
@@ -1299,43 +1096,40 @@
       <c r="C12">
         <v>30.4</v>
       </c>
-      <c r="D12">
-        <v>30.4</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="7">
         <v>44</v>
       </c>
+      <c r="E12">
+        <v>59.9</v>
+      </c>
       <c r="F12">
-        <v>59.9</v>
+        <v>17.2</v>
       </c>
       <c r="G12">
-        <v>17.2</v>
-      </c>
-      <c r="H12">
         <v>36.6</v>
       </c>
-      <c r="I12" s="8">
+      <c r="H12" s="6">
         <v>22</v>
       </c>
+      <c r="I12">
+        <v>20.5</v>
+      </c>
       <c r="J12">
-        <v>20.5</v>
+        <v>28.5</v>
       </c>
       <c r="K12">
-        <v>28.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L12">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="M12">
-        <v>23.7</v>
-      </c>
-      <c r="N12">
         <v>21.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1373,13 +1167,10 @@
       <c r="M13" t="s">
         <v>7</v>
       </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1417,13 +1208,10 @@
       <c r="M14" t="s">
         <v>8</v>
       </c>
-      <c r="N14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>2.11</v>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0.05</v>
@@ -1431,43 +1219,40 @@
       <c r="C15">
         <v>0.08</v>
       </c>
-      <c r="D15">
-        <v>0.08</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>0.11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="H15">
+      <c r="G15">
         <v>0.06</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>48</v>
       </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
       <c r="J15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K15">
         <v>0.06</v>
       </c>
-      <c r="K15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15">
         <v>0.06</v>
       </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1505,13 +1290,10 @@
       <c r="M16" t="s">
         <v>9</v>
       </c>
-      <c r="N16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1549,13 +1331,10 @@
       <c r="M17" t="s">
         <v>10</v>
       </c>
-      <c r="N17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
-        <v>28.4</v>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18">
         <v>11.4</v>
@@ -1563,43 +1342,40 @@
       <c r="C18">
         <v>16.7</v>
       </c>
-      <c r="D18">
-        <v>16.7</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="F18">
+      <c r="E18">
         <v>13.4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>16.399999999999999</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="10">
+      <c r="I18" s="8">
         <v>18</v>
       </c>
+      <c r="J18">
+        <v>14.6</v>
+      </c>
       <c r="K18">
-        <v>14.6</v>
-      </c>
-      <c r="L18">
         <v>16</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
         <v>48</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1637,13 +1413,10 @@
       <c r="M19" t="s">
         <v>11</v>
       </c>
-      <c r="N19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1681,13 +1454,10 @@
       <c r="M20" t="s">
         <v>12</v>
       </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>20.100000000000001</v>
@@ -1695,43 +1465,40 @@
       <c r="C21">
         <v>31.1</v>
       </c>
-      <c r="D21">
-        <v>31.1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="F21">
+      <c r="E21">
         <v>42.7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="H21">
+      <c r="G21">
         <v>29.5</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="11">
+      <c r="I21" s="9">
         <v>30</v>
       </c>
+      <c r="J21">
+        <v>35.700000000000003</v>
+      </c>
       <c r="K21">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L21">
         <v>36.5</v>
       </c>
-      <c r="M21" t="s">
+      <c r="L21" t="s">
         <v>48</v>
       </c>
-      <c r="N21">
+      <c r="M21">
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1769,13 +1536,10 @@
       <c r="M22" t="s">
         <v>13</v>
       </c>
-      <c r="N22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1813,13 +1577,10 @@
       <c r="M23" t="s">
         <v>14</v>
       </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>48</v>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>54</v>
       </c>
       <c r="B24">
         <v>58</v>
@@ -1828,42 +1589,39 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F24">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="H24">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I24">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>29</v>
-      </c>
-      <c r="N24">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1901,13 +1659,10 @@
       <c r="M25" t="s">
         <v>15</v>
       </c>
-      <c r="N25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -1945,13 +1700,10 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-      <c r="N26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>48</v>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>3.07</v>
       </c>
       <c r="B27">
         <v>3.07</v>
@@ -1960,42 +1712,39 @@
         <v>3.19</v>
       </c>
       <c r="D27">
+        <v>2.98</v>
+      </c>
+      <c r="E27">
         <v>3.19</v>
       </c>
-      <c r="E27">
-        <v>2.98</v>
-      </c>
-      <c r="F27">
-        <v>3.19</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="10">
         <v>3</v>
       </c>
+      <c r="G27">
+        <v>3.43</v>
+      </c>
       <c r="H27">
-        <v>3.43</v>
+        <v>3.02</v>
       </c>
       <c r="I27">
-        <v>3.02</v>
+        <v>2.68</v>
       </c>
       <c r="J27">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="K27">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="L27">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="M27">
-        <v>2.81</v>
-      </c>
-      <c r="N27">
         <v>2.61</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -2033,13 +1782,10 @@
       <c r="M28" t="s">
         <v>17</v>
       </c>
-      <c r="N28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -2077,13 +1823,10 @@
       <c r="M29" t="s">
         <v>18</v>
       </c>
-      <c r="N29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
-        <v>54</v>
+        <v>13.8</v>
       </c>
       <c r="B30">
         <v>13.9</v>
@@ -2092,42 +1835,39 @@
         <v>13.3</v>
       </c>
       <c r="D30">
+        <v>13.9</v>
+      </c>
+      <c r="E30">
+        <v>14.3</v>
+      </c>
+      <c r="F30">
         <v>13.3</v>
       </c>
-      <c r="E30">
+      <c r="G30">
+        <v>13.2</v>
+      </c>
+      <c r="H30">
         <v>13.9</v>
       </c>
-      <c r="F30">
-        <v>14.3</v>
-      </c>
-      <c r="G30">
-        <v>13.3</v>
-      </c>
-      <c r="H30">
-        <v>13.2</v>
-      </c>
       <c r="I30">
+        <v>15.1</v>
+      </c>
+      <c r="J30">
+        <v>14.8</v>
+      </c>
+      <c r="K30">
         <v>13.9</v>
       </c>
-      <c r="J30">
-        <v>15.1</v>
-      </c>
-      <c r="K30">
-        <v>14.8</v>
-      </c>
       <c r="L30">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="M30">
-        <v>13.7</v>
-      </c>
-      <c r="N30">
         <v>13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -2165,13 +1905,10 @@
       <c r="M31" t="s">
         <v>19</v>
       </c>
-      <c r="N31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2209,13 +1946,10 @@
       <c r="M32" t="s">
         <v>20</v>
       </c>
-      <c r="N32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>3.07</v>
+        <v>49.6</v>
       </c>
       <c r="B33">
         <v>51.9</v>
@@ -2224,42 +1958,39 @@
         <v>52.1</v>
       </c>
       <c r="D33">
-        <v>52.1</v>
+        <v>48.7</v>
       </c>
       <c r="E33">
-        <v>48.7</v>
+        <v>53.4</v>
       </c>
       <c r="F33">
-        <v>53.4</v>
+        <v>50.1</v>
       </c>
       <c r="G33">
-        <v>50.1</v>
+        <v>51.8</v>
       </c>
       <c r="H33">
-        <v>51.8</v>
+        <v>49.4</v>
       </c>
       <c r="I33">
-        <v>49.4</v>
+        <v>56.5</v>
       </c>
       <c r="J33">
-        <v>56.5</v>
+        <v>54.7</v>
       </c>
       <c r="K33">
-        <v>54.7</v>
+        <v>53.7</v>
       </c>
       <c r="L33">
-        <v>53.7</v>
+        <v>51.2</v>
       </c>
       <c r="M33">
-        <v>51.2</v>
-      </c>
-      <c r="N33">
         <v>51.7</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -2297,13 +2028,10 @@
       <c r="M34" t="s">
         <v>21</v>
       </c>
-      <c r="N34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2341,13 +2069,10 @@
       <c r="M35" t="s">
         <v>22</v>
       </c>
-      <c r="N35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
-        <v>13.8</v>
+        <v>3.1</v>
       </c>
       <c r="B36">
         <v>4.5</v>
@@ -2356,42 +2081,39 @@
         <v>4.3</v>
       </c>
       <c r="D36">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="E36">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="F36">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="G36">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H36">
-        <v>6.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I36">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="J36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
         <v>4.5</v>
       </c>
-      <c r="K36">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
       <c r="M36">
-        <v>4.5</v>
-      </c>
-      <c r="N36">
         <v>4.8</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2429,13 +2151,10 @@
       <c r="M37" t="s">
         <v>23</v>
       </c>
-      <c r="N37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2473,57 +2192,51 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-      <c r="N38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
-        <v>49.6</v>
+        <v>0.23</v>
       </c>
       <c r="B39">
         <v>0.27</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>0.3</v>
       </c>
-      <c r="D39" s="13">
-        <v>0.3</v>
+      <c r="D39">
+        <v>0.28999999999999998</v>
       </c>
       <c r="E39">
         <v>0.28999999999999998</v>
       </c>
       <c r="F39">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="G39">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="H39">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I39">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J39">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="K39">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L39">
         <v>0.3</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
-      </c>
-      <c r="N39">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2561,13 +2274,10 @@
       <c r="M40" t="s">
         <v>25</v>
       </c>
-      <c r="N40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -2582,13 +2292,13 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
         <v>44</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>44</v>
       </c>
       <c r="I41" t="s">
         <v>26</v>
@@ -2605,13 +2315,10 @@
       <c r="M41" t="s">
         <v>26</v>
       </c>
-      <c r="N41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
-        <v>3.7499999999999999E-2</v>
+        <v>99.7</v>
       </c>
       <c r="B42">
         <v>102.9</v>
@@ -2620,42 +2327,39 @@
         <v>103.8</v>
       </c>
       <c r="D42">
-        <v>103.8</v>
+        <v>97.3</v>
       </c>
       <c r="E42">
-        <v>97.3</v>
+        <v>103.4</v>
       </c>
       <c r="F42">
-        <v>103.4</v>
+        <v>0.2</v>
       </c>
       <c r="G42">
-        <v>0.2</v>
+        <v>104.4</v>
       </c>
       <c r="H42">
-        <v>104.4</v>
+        <v>0.1</v>
       </c>
       <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42">
         <v>0.1</v>
-      </c>
-      <c r="J42">
-        <v>0.5</v>
-      </c>
-      <c r="K42">
-        <v>0.3</v>
       </c>
       <c r="L42">
         <v>0.1</v>
       </c>
       <c r="M42">
-        <v>0.1</v>
-      </c>
-      <c r="N42">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -2670,13 +2374,13 @@
         <v>45</v>
       </c>
       <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
         <v>45</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>45</v>
       </c>
       <c r="I43" t="s">
         <v>27</v>
@@ -2693,13 +2397,10 @@
       <c r="M43" t="s">
         <v>27</v>
       </c>
-      <c r="N43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -2714,13 +2415,13 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
         <v>26</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>26</v>
       </c>
       <c r="I44" t="s">
         <v>28</v>
@@ -2737,57 +2438,51 @@
       <c r="M44" t="s">
         <v>28</v>
       </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45">
-        <v>1.22</v>
-      </c>
-      <c r="B45" s="19">
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="B45" s="15">
         <v>0</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="14">
         <v>0</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="13">
         <v>0</v>
       </c>
-      <c r="E45" s="16">
-        <v>0</v>
+      <c r="E45">
+        <v>0.4</v>
       </c>
       <c r="F45">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="G45">
-        <v>0.16</v>
-      </c>
-      <c r="H45">
         <v>0.1</v>
       </c>
-      <c r="I45" s="15">
+      <c r="H45" s="12">
         <v>0.2</v>
       </c>
+      <c r="I45">
+        <v>0.17</v>
+      </c>
       <c r="J45">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="K45">
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L45">
-        <v>0.28999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="M45">
-        <v>0.13</v>
-      </c>
-      <c r="N45">
         <v>0.09</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -2802,13 +2497,13 @@
         <v>27</v>
       </c>
       <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>29</v>
-      </c>
-      <c r="H46" t="s">
-        <v>27</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
@@ -2825,13 +2520,10 @@
       <c r="M46" t="s">
         <v>29</v>
       </c>
-      <c r="N46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -2846,13 +2538,13 @@
         <v>49</v>
       </c>
       <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
         <v>49</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>30</v>
-      </c>
-      <c r="H47" t="s">
-        <v>49</v>
       </c>
       <c r="I47" t="s">
         <v>30</v>
@@ -2869,13 +2561,10 @@
       <c r="M47" t="s">
         <v>30</v>
       </c>
-      <c r="N47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48">
-        <v>30.3</v>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>52</v>
       </c>
       <c r="B48">
         <v>0.86</v>
@@ -2883,43 +2572,40 @@
       <c r="C48" t="s">
         <v>50</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48">
+        <v>0.88</v>
+      </c>
+      <c r="E48">
+        <v>1.45</v>
+      </c>
+      <c r="F48">
+        <v>2.9</v>
+      </c>
+      <c r="G48" t="s">
         <v>50</v>
       </c>
-      <c r="E48">
-        <v>0.88</v>
-      </c>
-      <c r="F48">
-        <v>1.45</v>
-      </c>
-      <c r="G48">
-        <v>2.9</v>
-      </c>
-      <c r="H48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="20">
+      <c r="H48" s="16">
         <v>3</v>
       </c>
+      <c r="I48">
+        <v>2.7</v>
+      </c>
       <c r="J48">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="K48">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L48">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="M48">
-        <v>1.9</v>
-      </c>
-      <c r="N48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -2934,13 +2620,13 @@
         <v>51</v>
       </c>
       <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>31</v>
-      </c>
-      <c r="H49" t="s">
-        <v>51</v>
       </c>
       <c r="I49" t="s">
         <v>31</v>
@@ -2957,13 +2643,10 @@
       <c r="M49" t="s">
         <v>31</v>
       </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -2978,13 +2661,13 @@
         <v>28</v>
       </c>
       <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
         <v>28</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>32</v>
-      </c>
-      <c r="H50" t="s">
-        <v>28</v>
       </c>
       <c r="I50" t="s">
         <v>32</v>
@@ -3001,13 +2684,10 @@
       <c r="M50" t="s">
         <v>32</v>
       </c>
-      <c r="N50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="22">
-        <v>0.5</v>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>0.17</v>
       </c>
       <c r="B51">
         <v>0.19</v>
@@ -3016,42 +2696,39 @@
         <v>0.21</v>
       </c>
       <c r="D51">
-        <v>0.21</v>
-      </c>
-      <c r="E51">
         <v>0.09</v>
       </c>
-      <c r="F51" s="21">
+      <c r="E51" s="17">
         <v>0</v>
       </c>
+      <c r="F51">
+        <v>31.8</v>
+      </c>
       <c r="G51">
-        <v>31.8</v>
+        <v>0.04</v>
       </c>
       <c r="H51">
-        <v>0.04</v>
+        <v>30.6</v>
       </c>
       <c r="I51">
-        <v>30.6</v>
+        <v>28.3</v>
       </c>
       <c r="J51">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="K51">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="L51">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="M51">
-        <v>30.1</v>
-      </c>
-      <c r="N51">
         <v>29.1</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -3066,13 +2743,13 @@
         <v>29</v>
       </c>
       <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
         <v>29</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>33</v>
-      </c>
-      <c r="H52" t="s">
-        <v>29</v>
       </c>
       <c r="I52" t="s">
         <v>33</v>
@@ -3089,13 +2766,10 @@
       <c r="M52" t="s">
         <v>33</v>
       </c>
-      <c r="N52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
@@ -3110,13 +2784,13 @@
         <v>30</v>
       </c>
       <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>30</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>34</v>
-      </c>
-      <c r="H53" t="s">
-        <v>30</v>
       </c>
       <c r="I53" t="s">
         <v>34</v>
@@ -3133,13 +2807,10 @@
       <c r="M53" t="s">
         <v>34</v>
       </c>
-      <c r="N53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B54">
         <v>3.1</v>
@@ -3148,42 +2819,39 @@
         <v>2.9</v>
       </c>
       <c r="D54">
-        <v>2.9</v>
-      </c>
-      <c r="E54">
         <v>1.7</v>
       </c>
-      <c r="F54" s="23">
+      <c r="E54" s="18">
         <v>0</v>
       </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
       <c r="G54">
+        <v>0.6</v>
+      </c>
+      <c r="H54">
         <v>100</v>
       </c>
-      <c r="H54">
-        <v>0.6</v>
-      </c>
       <c r="I54">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J54">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L54">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M54">
-        <v>97</v>
-      </c>
-      <c r="N54">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>31</v>
@@ -3198,13 +2866,13 @@
         <v>31</v>
       </c>
       <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>35</v>
-      </c>
-      <c r="H55" t="s">
-        <v>31</v>
       </c>
       <c r="I55" t="s">
         <v>35</v>
@@ -3221,13 +2889,10 @@
       <c r="M55" t="s">
         <v>35</v>
       </c>
-      <c r="N55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
@@ -3242,13 +2907,13 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
         <v>32</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>32</v>
       </c>
       <c r="I56" t="s">
         <v>36</v>
@@ -3265,13 +2930,10 @@
       <c r="M56" t="s">
         <v>36</v>
       </c>
-      <c r="N56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
-        <v>99.7</v>
+        <v>30.6</v>
       </c>
       <c r="B57">
         <v>31.6</v>
@@ -3279,43 +2941,40 @@
       <c r="C57">
         <v>33.200000000000003</v>
       </c>
-      <c r="D57">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E57" s="26">
+      <c r="D57" s="21">
         <v>29</v>
       </c>
-      <c r="F57" s="25">
+      <c r="E57" s="20">
         <v>33</v>
       </c>
+      <c r="F57">
+        <v>4.1100000000000003</v>
+      </c>
       <c r="G57">
-        <v>4.1100000000000003</v>
+        <v>35.9</v>
       </c>
       <c r="H57">
-        <v>35.9</v>
-      </c>
-      <c r="I57">
         <v>4.67</v>
       </c>
-      <c r="J57" s="24">
+      <c r="I57" s="19">
         <v>4.5</v>
       </c>
+      <c r="J57">
+        <v>4.0599999999999996</v>
+      </c>
       <c r="K57">
-        <v>4.0599999999999996</v>
+        <v>5.47</v>
       </c>
       <c r="L57">
-        <v>5.47</v>
+        <v>4.7</v>
       </c>
       <c r="M57">
-        <v>4.7</v>
-      </c>
-      <c r="N57">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -3330,13 +2989,13 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
         <v>33</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>37</v>
-      </c>
-      <c r="H58" t="s">
-        <v>33</v>
       </c>
       <c r="I58" t="s">
         <v>37</v>
@@ -3353,13 +3012,10 @@
       <c r="M58" t="s">
         <v>37</v>
       </c>
-      <c r="N58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
         <v>34</v>
@@ -3374,13 +3030,13 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s">
         <v>34</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>38</v>
-      </c>
-      <c r="H59" t="s">
-        <v>34</v>
       </c>
       <c r="I59" t="s">
         <v>38</v>
@@ -3397,13 +3053,10 @@
       <c r="M59" t="s">
         <v>38</v>
       </c>
-      <c r="N59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
-        <v>0.7</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>103</v>
@@ -3412,42 +3065,39 @@
         <v>107</v>
       </c>
       <c r="D60">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E60">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F60">
-        <v>110</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="G60">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H60">
         <v>113</v>
       </c>
-      <c r="I60" s="27">
+      <c r="H60" s="22">
         <v>70</v>
       </c>
+      <c r="I60">
+        <v>71.8</v>
+      </c>
       <c r="J60">
-        <v>71.8</v>
+        <v>65.8</v>
       </c>
       <c r="K60">
-        <v>65.8</v>
+        <v>72.5</v>
       </c>
       <c r="L60">
-        <v>72.5</v>
+        <v>69.8</v>
       </c>
       <c r="M60">
-        <v>69.8</v>
-      </c>
-      <c r="N60">
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -3462,13 +3112,13 @@
         <v>35</v>
       </c>
       <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s">
         <v>35</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>39</v>
-      </c>
-      <c r="H61" t="s">
-        <v>35</v>
       </c>
       <c r="I61" t="s">
         <v>39</v>
@@ -3485,13 +3135,10 @@
       <c r="M61" t="s">
         <v>39</v>
       </c>
-      <c r="N61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -3506,13 +3153,13 @@
         <v>36</v>
       </c>
       <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
         <v>36</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>40</v>
-      </c>
-      <c r="H62" t="s">
-        <v>36</v>
       </c>
       <c r="I62" t="s">
         <v>40</v>
@@ -3529,13 +3176,10 @@
       <c r="M62" t="s">
         <v>40</v>
       </c>
-      <c r="N62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
-        <v>0.17</v>
+        <v>4.72</v>
       </c>
       <c r="B63">
         <v>4.1399999999999997</v>
@@ -3544,42 +3188,39 @@
         <v>4.34</v>
       </c>
       <c r="D63">
-        <v>4.34</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E63">
-        <v>2.5499999999999998</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="F63">
-        <v>1.5899999999999999</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="G63">
-        <v>33.299999999999997</v>
+        <v>3.45</v>
       </c>
       <c r="H63">
-        <v>3.45</v>
+        <v>33.1</v>
       </c>
       <c r="I63">
-        <v>33.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="J63">
-        <v>34.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="K63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L63">
         <v>34.5</v>
       </c>
-      <c r="L63">
-        <v>35.200000000000003</v>
-      </c>
       <c r="M63">
-        <v>34.5</v>
-      </c>
-      <c r="N63">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -3594,13 +3235,13 @@
         <v>37</v>
       </c>
       <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
         <v>37</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>41</v>
-      </c>
-      <c r="H64" t="s">
-        <v>37</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
@@ -3617,13 +3258,10 @@
       <c r="M64" t="s">
         <v>41</v>
       </c>
-      <c r="N64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -3638,13 +3276,13 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
         <v>38</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>42</v>
-      </c>
-      <c r="H65" t="s">
-        <v>38</v>
       </c>
       <c r="I65" t="s">
         <v>42</v>
@@ -3661,13 +3299,10 @@
       <c r="M65" t="s">
         <v>42</v>
       </c>
-      <c r="N65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
-        <v>2.2999999999999998</v>
+        <v>63.7</v>
       </c>
       <c r="B66">
         <v>68.3</v>
@@ -3676,42 +3311,39 @@
         <v>62.4</v>
       </c>
       <c r="D66">
-        <v>62.4</v>
+        <v>48.8</v>
       </c>
       <c r="E66">
-        <v>48.8</v>
+        <v>33.6</v>
       </c>
       <c r="F66">
-        <v>33.6</v>
+        <v>314</v>
       </c>
       <c r="G66">
-        <v>314</v>
+        <v>56.5</v>
       </c>
       <c r="H66">
-        <v>56.5</v>
+        <v>327</v>
       </c>
       <c r="I66">
+        <v>325</v>
+      </c>
+      <c r="J66">
         <v>327</v>
       </c>
-      <c r="J66">
-        <v>325</v>
-      </c>
       <c r="K66">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L66">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M66">
-        <v>322</v>
-      </c>
-      <c r="N66">
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
@@ -3726,13 +3358,13 @@
         <v>39</v>
       </c>
       <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
         <v>39</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>43</v>
-      </c>
-      <c r="H67" t="s">
-        <v>39</v>
       </c>
       <c r="I67" t="s">
         <v>43</v>
@@ -3749,13 +3381,10 @@
       <c r="M67" t="s">
         <v>43</v>
       </c>
-      <c r="N67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3770,13 +3399,13 @@
         <v>40</v>
       </c>
       <c r="F68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>44</v>
-      </c>
-      <c r="H68" t="s">
-        <v>40</v>
       </c>
       <c r="I68" t="s">
         <v>44</v>
@@ -3793,13 +3422,10 @@
       <c r="M68" t="s">
         <v>44</v>
       </c>
-      <c r="N68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69">
-        <v>0.16</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="B69">
         <v>33.6</v>
@@ -3808,42 +3434,39 @@
         <v>33.5</v>
       </c>
       <c r="D69">
-        <v>33.5</v>
+        <v>34.6</v>
       </c>
       <c r="E69">
-        <v>34.6</v>
-      </c>
-      <c r="F69">
         <v>34.5</v>
       </c>
-      <c r="G69" s="28">
+      <c r="F69" s="23">
         <v>106</v>
       </c>
+      <c r="G69">
+        <v>33.1</v>
+      </c>
       <c r="H69">
-        <v>33.1</v>
+        <v>101.3</v>
       </c>
       <c r="I69">
-        <v>101.3</v>
+        <v>105.6</v>
       </c>
       <c r="J69">
-        <v>105.6</v>
+        <v>105.3</v>
       </c>
       <c r="K69">
-        <v>105.3</v>
+        <v>110</v>
       </c>
       <c r="L69">
-        <v>110</v>
+        <v>107.1</v>
       </c>
       <c r="M69">
-        <v>107.1</v>
-      </c>
-      <c r="N69">
         <v>111.5</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>41</v>
@@ -3858,13 +3481,13 @@
         <v>41</v>
       </c>
       <c r="F70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" t="s">
         <v>41</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>45</v>
-      </c>
-      <c r="H70" t="s">
-        <v>41</v>
       </c>
       <c r="I70" t="s">
         <v>45</v>
@@ -3881,13 +3504,10 @@
       <c r="M70" t="s">
         <v>45</v>
       </c>
-      <c r="N70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
         <v>42</v>
@@ -3902,13 +3522,13 @@
         <v>42</v>
       </c>
       <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" t="s">
         <v>42</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>46</v>
-      </c>
-      <c r="H71" t="s">
-        <v>42</v>
       </c>
       <c r="I71" t="s">
         <v>46</v>
@@ -3925,13 +3545,10 @@
       <c r="M71" t="s">
         <v>46</v>
       </c>
-      <c r="N71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72">
-        <v>5.18</v>
+        <v>324</v>
       </c>
       <c r="B72">
         <v>326</v>
@@ -3940,42 +3557,39 @@
         <v>323</v>
       </c>
       <c r="D72">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="E72">
-        <v>355</v>
-      </c>
-      <c r="F72">
         <v>333</v>
       </c>
-      <c r="G72" s="29">
+      <c r="F72" s="24">
         <v>5.6</v>
       </c>
+      <c r="G72">
+        <v>316</v>
+      </c>
       <c r="H72">
-        <v>316</v>
+        <v>6.67</v>
       </c>
       <c r="I72">
-        <v>6.67</v>
+        <v>6.27</v>
       </c>
       <c r="J72">
-        <v>6.27</v>
+        <v>6.17</v>
       </c>
       <c r="K72">
-        <v>6.17</v>
+        <v>7.55</v>
       </c>
       <c r="L72">
-        <v>7.55</v>
+        <v>6.73</v>
       </c>
       <c r="M72">
-        <v>6.73</v>
-      </c>
-      <c r="N72">
         <v>5.84</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
         <v>43</v>
@@ -3990,13 +3604,13 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s">
         <v>43</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>47</v>
-      </c>
-      <c r="H73" t="s">
-        <v>43</v>
       </c>
       <c r="I73" t="s">
         <v>47</v>
@@ -4013,13 +3627,10 @@
       <c r="M73" t="s">
         <v>47</v>
       </c>
-      <c r="N73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -4033,16 +3644,13 @@
       <c r="E74" t="s">
         <v>46</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>46</v>
       </c>
-      <c r="H74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75">
-        <v>30.6</v>
+        <v>7.41</v>
       </c>
       <c r="B75">
         <v>6.06</v>
@@ -4051,21 +3659,18 @@
         <v>6.97</v>
       </c>
       <c r="D75">
-        <v>6.97</v>
+        <v>5.23</v>
       </c>
       <c r="E75">
-        <v>5.23</v>
-      </c>
-      <c r="F75">
         <v>4.7300000000000004</v>
       </c>
-      <c r="H75" s="30">
+      <c r="G75" s="25">
         <v>6.1</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>47</v>
@@ -4079,175 +3684,7 @@
       <c r="E76" t="s">
         <v>47</v>
       </c>
-      <c r="F76" t="s">
-        <v>47</v>
-      </c>
-      <c r="H76" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>7.41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="G76" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4273,12 +3710,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.182.70.198\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8D2FE2-9AEF-4549-B5B3-5166A2BEF71F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08C847-1363-438E-AC5B-F7295A61E17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="55">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -194,12 +194,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,22 +243,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -264,37 +270,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -620,22 +626,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="K59" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="245" width="11" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -675,8 +682,11 @@
       <c r="M1" s="26">
         <v>44352</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="26">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -716,8 +726,11 @@
       <c r="M2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -757,8 +770,11 @@
       <c r="M3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -798,8 +814,11 @@
       <c r="M4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -839,8 +858,11 @@
       <c r="M5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -880,8 +902,11 @@
       <c r="M6">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -921,8 +946,11 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -962,8 +990,11 @@
       <c r="M8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -1003,8 +1034,11 @@
       <c r="M9">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1044,8 +1078,11 @@
       <c r="M10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1122,11 @@
       <c r="M11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -1126,8 +1166,11 @@
       <c r="M12">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1167,8 +1210,11 @@
       <c r="M13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1208,8 +1254,11 @@
       <c r="M14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1249,8 +1298,11 @@
       <c r="M15">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1290,8 +1342,11 @@
       <c r="M16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1386,11 @@
       <c r="M17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1372,8 +1430,11 @@
       <c r="M18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1474,11 @@
       <c r="M19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1454,8 +1518,11 @@
       <c r="M20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1495,8 +1562,11 @@
       <c r="M21">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1536,8 +1606,11 @@
       <c r="M22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1577,8 +1650,11 @@
       <c r="M23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>54</v>
       </c>
@@ -1618,8 +1694,11 @@
       <c r="M24">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1659,8 +1738,11 @@
       <c r="M25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1700,8 +1782,11 @@
       <c r="M26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -1741,8 +1826,11 @@
       <c r="M27">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1782,8 +1870,11 @@
       <c r="M28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1823,8 +1914,11 @@
       <c r="M29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -1864,8 +1958,11 @@
       <c r="M30">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1905,8 +2002,11 @@
       <c r="M31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1946,8 +2046,11 @@
       <c r="M32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -1987,8 +2090,11 @@
       <c r="M33">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2028,8 +2134,11 @@
       <c r="M34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2069,8 +2178,11 @@
       <c r="M35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -2110,8 +2222,11 @@
       <c r="M36">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2151,8 +2266,11 @@
       <c r="M37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2310,11 @@
       <c r="M38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -2233,8 +2354,11 @@
       <c r="M39">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -2274,8 +2398,11 @@
       <c r="M40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2315,8 +2442,11 @@
       <c r="M41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -2356,8 +2486,11 @@
       <c r="M42">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2397,8 +2530,11 @@
       <c r="M43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2438,8 +2574,11 @@
       <c r="M44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -2479,8 +2618,11 @@
       <c r="M45">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2520,8 +2662,11 @@
       <c r="M46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2561,8 +2706,11 @@
       <c r="M47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2602,8 +2750,11 @@
       <c r="M48">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2643,8 +2794,11 @@
       <c r="M49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2684,8 +2838,11 @@
       <c r="M50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -2725,8 +2882,11 @@
       <c r="M51">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2766,8 +2926,11 @@
       <c r="M52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2807,8 +2970,11 @@
       <c r="M53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -2848,8 +3014,11 @@
       <c r="M54">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2889,8 +3058,11 @@
       <c r="M55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -2930,8 +3102,11 @@
       <c r="M56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -2971,8 +3146,11 @@
       <c r="M57">
         <v>4.2300000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3012,8 +3190,11 @@
       <c r="M58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3053,8 +3234,11 @@
       <c r="M59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>99</v>
       </c>
@@ -3094,8 +3278,11 @@
       <c r="M60">
         <v>72.400000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -3135,8 +3322,11 @@
       <c r="M61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3176,8 +3366,11 @@
       <c r="M62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -3217,8 +3410,11 @@
       <c r="M63">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3258,8 +3454,11 @@
       <c r="M64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3299,8 +3498,11 @@
       <c r="M65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -3340,8 +3542,11 @@
       <c r="M66">
         <v>323</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3381,8 +3586,11 @@
       <c r="M67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -3422,8 +3630,11 @@
       <c r="M68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -3463,8 +3674,11 @@
       <c r="M69">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69">
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3504,8 +3718,11 @@
       <c r="M70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -3545,8 +3762,11 @@
       <c r="M71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>324</v>
       </c>
@@ -3586,8 +3806,11 @@
       <c r="M72">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -3627,8 +3850,11 @@
       <c r="M73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -3648,7 +3874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -3668,7 +3894,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3915,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3701,30 +3929,32 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3734,11 +3964,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.182.70.198\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08C847-1363-438E-AC5B-F7295A61E17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E8030-ACCB-AC4A-BA0F-6BBFC3ED20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="104">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -187,6 +187,868 @@
   </si>
   <si>
     <t>时间</t>
+  </si>
+  <si>
+    <r>
+      <t>嗜碱性粒细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(BASO#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血小板平均体积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MPV)(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性粒细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEUT#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中性粒细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NEUT%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血小板压积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PCT)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血小板分布宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PDW)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大血小板比率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(P-LCR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血小板总数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PLT)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(RBC)(10^12/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红细胞分布宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>CV(RDW-CV)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>16.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红细胞分布宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>-SD(RDW-SD)(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单核细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MONO%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>单核细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MONO#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均红细胞体积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MCV)(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>嗜碱性粒细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(BASO%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反应蛋白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(CRP)(mg/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>嗜酸性粒细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(EO#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>嗜酸性粒细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(EO%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>红细胞压积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(HCT)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>血红蛋白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(HGB)(g/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>170</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>淋巴细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(LYMPH#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>淋巴细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(LYMPH%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均血红蛋白含量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MCH)(pg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均血红蛋白浓度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MCHC)(g/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>370</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>白细胞数目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(WBC)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -194,9 +1056,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -205,6 +1067,17 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -230,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,22 +1116,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -270,37 +1143,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -310,6 +1183,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,23 +1505,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K59" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="245" width="11" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -685,8 +1565,11 @@
       <c r="N1" s="26">
         <v>44366</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="26">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -729,8 +1612,11 @@
       <c r="N2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -773,8 +1659,11 @@
       <c r="N3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -817,8 +1706,11 @@
       <c r="N4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -861,8 +1753,11 @@
       <c r="N5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -905,8 +1800,11 @@
       <c r="N6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="28">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -949,8 +1847,11 @@
       <c r="N7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -993,8 +1894,11 @@
       <c r="N8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -1037,8 +1941,11 @@
       <c r="N9">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1081,8 +1988,11 @@
       <c r="N10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1125,8 +2035,11 @@
       <c r="N11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -1169,8 +2082,11 @@
       <c r="N12">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="28">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +2129,11 @@
       <c r="N13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1257,8 +2176,11 @@
       <c r="N14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1301,8 +2223,11 @@
       <c r="N15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1345,8 +2270,11 @@
       <c r="N16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1389,8 +2317,11 @@
       <c r="N17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1433,8 +2364,11 @@
       <c r="N18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="28">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1477,8 +2411,11 @@
       <c r="N19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1521,8 +2458,11 @@
       <c r="N20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1565,8 +2505,11 @@
       <c r="N21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="28">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1609,8 +2552,11 @@
       <c r="N22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1653,8 +2599,11 @@
       <c r="N23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16">
       <c r="A24">
         <v>54</v>
       </c>
@@ -1697,8 +2646,11 @@
       <c r="N24">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1741,8 +2693,11 @@
       <c r="N25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1785,8 +2740,11 @@
       <c r="N26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -1829,8 +2787,11 @@
       <c r="N27">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="28">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1873,8 +2834,11 @@
       <c r="N28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1917,8 +2881,11 @@
       <c r="N29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -1961,8 +2928,11 @@
       <c r="N30">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="28">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2005,8 +2975,11 @@
       <c r="N31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2049,8 +3022,11 @@
       <c r="N32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -2093,8 +3069,11 @@
       <c r="N33">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="28">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2137,8 +3116,11 @@
       <c r="N34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +3163,11 @@
       <c r="N35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -2225,8 +3210,11 @@
       <c r="N36">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="28">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2269,8 +3257,11 @@
       <c r="N37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2313,8 +3304,11 @@
       <c r="N38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -2357,8 +3351,11 @@
       <c r="N39">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -2401,8 +3398,11 @@
       <c r="N40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2445,8 +3445,11 @@
       <c r="N41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -2489,8 +3492,11 @@
       <c r="N42">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="28">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2533,8 +3539,11 @@
       <c r="N43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2577,8 +3586,11 @@
       <c r="N44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -2621,8 +3633,11 @@
       <c r="N45">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -2665,8 +3680,11 @@
       <c r="N46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2709,8 +3727,11 @@
       <c r="N47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2753,8 +3774,11 @@
       <c r="N48">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="28">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2797,8 +3821,11 @@
       <c r="N49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2841,8 +3868,11 @@
       <c r="N50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="16">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -2885,8 +3915,11 @@
       <c r="N51">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -2929,8 +3962,11 @@
       <c r="N52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2973,8 +4009,11 @@
       <c r="N53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="16">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -3017,8 +4056,11 @@
       <c r="N54">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="28">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -3061,8 +4103,11 @@
       <c r="N55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -3105,8 +4150,11 @@
       <c r="N56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="16">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -3149,8 +4197,11 @@
       <c r="N57">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="28">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -3193,8 +4244,11 @@
       <c r="N58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3237,8 +4291,11 @@
       <c r="N59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="16">
       <c r="A60">
         <v>99</v>
       </c>
@@ -3281,8 +4338,11 @@
       <c r="N60">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -3325,8 +4385,11 @@
       <c r="N61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3369,8 +4432,11 @@
       <c r="N62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -3413,8 +4479,11 @@
       <c r="N63">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="28">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -3457,8 +4526,11 @@
       <c r="N64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -3501,8 +4573,11 @@
       <c r="N65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="16">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -3545,8 +4620,11 @@
       <c r="N66">
         <v>319</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="28">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3589,8 +4667,11 @@
       <c r="N67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -3633,8 +4714,11 @@
       <c r="N68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="16">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -3677,8 +4761,11 @@
       <c r="N69">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="28">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -3721,8 +4808,11 @@
       <c r="N70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -3765,8 +4855,11 @@
       <c r="N71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="16">
       <c r="A72">
         <v>324</v>
       </c>
@@ -3809,8 +4902,11 @@
       <c r="N72">
         <v>6.82</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="28">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -3853,8 +4949,11 @@
       <c r="N73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -3873,8 +4972,11 @@
       <c r="G74" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -3893,8 +4995,11 @@
       <c r="G75" s="25">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="28">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3912,6 +5017,9 @@
       </c>
       <c r="G76" t="s">
         <v>47</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3929,24 +5037,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +5072,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E8030-ACCB-AC4A-BA0F-6BBFC3ED20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1B934-32D2-034D-A846-34E42AF724C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="105">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1049,6 +1049,9 @@
       </rPr>
       <t>10</t>
     </r>
+  </si>
+  <si>
+    <t>40～60</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -1522,7 +1525,7 @@
     <col min="15" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1568,8 +1571,11 @@
       <c r="O1" s="26">
         <v>44384</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="19">
+      <c r="P1" s="26">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1615,8 +1621,11 @@
       <c r="O2" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16">
+      <c r="P2" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1662,8 +1671,11 @@
       <c r="O3" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="19">
+      <c r="P3" s="27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1709,8 +1721,11 @@
       <c r="O4" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="19">
+      <c r="P4" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1756,8 +1771,11 @@
       <c r="O5" s="27" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16">
+      <c r="P5" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1803,8 +1821,11 @@
       <c r="O6" s="28">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="19">
+      <c r="P6" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1850,8 +1871,11 @@
       <c r="O7" s="28" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="19">
+      <c r="P7" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1897,8 +1921,11 @@
       <c r="O8" s="27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="16">
+      <c r="P8" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -1944,8 +1971,11 @@
       <c r="O9" s="28">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="19">
+      <c r="P9" s="27">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1991,8 +2021,11 @@
       <c r="O10" s="28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="19">
+      <c r="P10" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2038,8 +2071,11 @@
       <c r="O11" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="16">
+      <c r="P11" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2085,8 +2121,11 @@
       <c r="O12" s="28">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="19">
+      <c r="P12" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2132,8 +2171,11 @@
       <c r="O13" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="19">
+      <c r="P13" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2179,8 +2221,11 @@
       <c r="O14" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="16">
+      <c r="P14" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2226,8 +2271,11 @@
       <c r="O15" s="28">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="19">
+      <c r="P15" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2273,8 +2321,11 @@
       <c r="O16" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="19">
+      <c r="P16" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2320,8 +2371,11 @@
       <c r="O17" s="27" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="16">
+      <c r="P17" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2367,8 +2421,11 @@
       <c r="O18" s="28">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19">
+      <c r="P18" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2414,8 +2471,11 @@
       <c r="O19" s="28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19">
+      <c r="P19" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2461,8 +2521,11 @@
       <c r="O20" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="16">
+      <c r="P20" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2508,8 +2571,11 @@
       <c r="O21" s="28">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="19">
+      <c r="P21" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2555,8 +2621,11 @@
       <c r="O22" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="19">
+      <c r="P22" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2602,8 +2671,11 @@
       <c r="O23" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="16">
+      <c r="P23" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -2649,8 +2721,11 @@
       <c r="O24" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="19">
+      <c r="P24" s="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2696,8 +2771,11 @@
       <c r="O25" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="19">
+      <c r="P25" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2743,8 +2821,11 @@
       <c r="O26" s="27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="16">
+      <c r="P26" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -2790,8 +2871,11 @@
       <c r="O27" s="28">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="19">
+      <c r="P27" s="27">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2837,8 +2921,11 @@
       <c r="O28" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="19">
+      <c r="P28" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2884,8 +2971,11 @@
       <c r="O29" s="27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="16">
+      <c r="P29" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -2931,8 +3021,11 @@
       <c r="O30" s="28">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="19">
+      <c r="P30" s="27">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2978,8 +3071,11 @@
       <c r="O31" s="28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="19">
+      <c r="P31" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3025,8 +3121,11 @@
       <c r="O32" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="16">
+      <c r="P32" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3072,8 +3171,11 @@
       <c r="O33" s="28">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="19">
+      <c r="P33" s="27">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3119,8 +3221,11 @@
       <c r="O34" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="19">
+      <c r="P34" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3166,8 +3271,11 @@
       <c r="O35" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="16">
+      <c r="P35" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3213,8 +3321,11 @@
       <c r="O36" s="28">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="19">
+      <c r="P36" s="27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3260,8 +3371,11 @@
       <c r="O37" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="19">
+      <c r="P37" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3307,8 +3421,11 @@
       <c r="O38" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="16">
+      <c r="P38" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -3354,8 +3471,11 @@
       <c r="O39" s="28">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="19">
+      <c r="P39" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3401,8 +3521,11 @@
       <c r="O40" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="19">
+      <c r="P40" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3448,8 +3571,11 @@
       <c r="O41" s="27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="16">
+      <c r="P41" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -3495,8 +3621,11 @@
       <c r="O42" s="28">
         <v>109.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="19">
+      <c r="P42" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3542,8 +3671,11 @@
       <c r="O43" s="28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="19">
+      <c r="P43" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3589,8 +3721,11 @@
       <c r="O44" s="27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="16">
+      <c r="P44" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -3636,8 +3771,11 @@
       <c r="O45" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="19">
+      <c r="P45" s="27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3683,8 +3821,11 @@
       <c r="O46" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="19">
+      <c r="P46" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3730,8 +3871,11 @@
       <c r="O47" s="28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="16">
+      <c r="P47" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3777,8 +3921,11 @@
       <c r="O48" s="28">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="19">
+      <c r="P48" s="27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3824,8 +3971,11 @@
       <c r="O49" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="19">
+      <c r="P49" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -3871,8 +4021,11 @@
       <c r="O50" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="16">
+      <c r="P50" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -3918,8 +4071,11 @@
       <c r="O51" s="28">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="19">
+      <c r="P51" s="27">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -3965,8 +4121,11 @@
       <c r="O52" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="19">
+      <c r="P52" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4012,8 +4171,11 @@
       <c r="O53" s="27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="16">
+      <c r="P53" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4059,8 +4221,11 @@
       <c r="O54" s="28">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="19">
+      <c r="P54" s="27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4106,8 +4271,11 @@
       <c r="O55" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="19">
+      <c r="P55" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -4153,8 +4321,11 @@
       <c r="O56" s="27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="16">
+      <c r="P56" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -4200,8 +4371,11 @@
       <c r="O57" s="28">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="19">
+      <c r="P57" s="27">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4247,8 +4421,11 @@
       <c r="O58" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="19">
+      <c r="P58" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -4294,8 +4471,11 @@
       <c r="O59" s="27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="16">
+      <c r="P59" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -4341,8 +4521,11 @@
       <c r="O60" s="28">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="19">
+      <c r="P60" s="27">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4388,8 +4571,11 @@
       <c r="O61" s="28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="19">
+      <c r="P61" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -4435,8 +4621,11 @@
       <c r="O62" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="16">
+      <c r="P62" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -4482,8 +4671,11 @@
       <c r="O63" s="28">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="19">
+      <c r="P63" s="27">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -4529,8 +4721,11 @@
       <c r="O64" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="19">
+      <c r="P64" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -4576,8 +4771,11 @@
       <c r="O65" s="27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="16">
+      <c r="P65" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -4623,8 +4821,11 @@
       <c r="O66" s="28">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="19">
+      <c r="P66" s="27">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -4670,8 +4871,11 @@
       <c r="O67" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="19">
+      <c r="P67" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -4717,8 +4921,11 @@
       <c r="O68" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="16">
+      <c r="P68" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -4764,8 +4971,11 @@
       <c r="O69" s="28">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="19">
+      <c r="P69" s="27">
+        <v>108.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -4811,8 +5021,11 @@
       <c r="O70" s="28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="19">
+      <c r="P70" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -4858,8 +5071,11 @@
       <c r="O71" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="16">
+      <c r="P71" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -4905,8 +5121,11 @@
       <c r="O72" s="28">
         <v>329</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="19">
+      <c r="P72" s="27">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -4952,8 +5171,11 @@
       <c r="O73" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="19">
+      <c r="P73" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -4976,7 +5198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="16">
+    <row r="75" spans="1:16" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -4999,7 +5221,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="19">
+    <row r="76" spans="1:16" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.182.70.198\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1B934-32D2-034D-A846-34E42AF724C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B16D5-BA01-4BB0-B495-76C990D8F1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="105">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -864,6 +864,184 @@
   </si>
   <si>
     <r>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>170</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>淋巴细胞计数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(LYMPH#)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>淋巴细胞百分比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(LYMPH%)(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均血红蛋白含量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MCH)(pg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平均血红蛋白浓度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(MCHC)(g/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>370</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>白细胞数目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(WBC)(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>40～60</t>
+  </si>
+  <si>
+    <r>
       <t>血红蛋白</t>
     </r>
     <r>
@@ -874,184 +1052,7 @@
       </rPr>
       <t>(HGB)(g/L)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>170</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>淋巴细胞计数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(LYMPH#)(10^9/L)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>淋巴细胞百分比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(LYMPH%)(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>平均血红蛋白含量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(MCH)(pg)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>平均血红蛋白浓度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(MCHC)(g/L)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>310</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>370</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>白细胞数目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(WBC)(10^9/L)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>40～60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1059,7 +1060,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1119,22 +1120,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1146,37 +1147,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1508,24 +1509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="245" width="11" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1574,8 +1577,11 @@
       <c r="P1" s="26">
         <v>44388</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="19">
+      <c r="Q1" s="26">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1624,8 +1630,11 @@
       <c r="P2" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="19">
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.6">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1674,8 +1683,11 @@
       <c r="P3" s="27">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="19">
+      <c r="Q3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1724,8 +1736,11 @@
       <c r="P4" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="19">
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1774,8 +1789,11 @@
       <c r="P5" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="19">
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1824,8 +1842,11 @@
       <c r="P6" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="19">
+      <c r="Q6">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1895,11 @@
       <c r="P7" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="19">
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1924,8 +1948,11 @@
       <c r="P8" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="19">
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -1974,8 +2001,11 @@
       <c r="P9" s="27">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="19">
+      <c r="Q9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2024,8 +2054,11 @@
       <c r="P10" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="19">
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2074,8 +2107,11 @@
       <c r="P11" s="27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="19">
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2124,8 +2160,11 @@
       <c r="P12" s="27">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="19">
+      <c r="Q12">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2172,10 +2211,13 @@
         <v>62</v>
       </c>
       <c r="P13" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="19">
+        <v>103</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2224,8 +2266,11 @@
       <c r="P14" s="27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="19">
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.6">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2274,8 +2319,11 @@
       <c r="P15" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="19">
+      <c r="Q15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.6">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2324,8 +2372,11 @@
       <c r="P16" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="19">
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2374,8 +2425,11 @@
       <c r="P17" s="27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="19">
+      <c r="Q17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2424,8 +2478,11 @@
       <c r="P18" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="19">
+      <c r="Q18">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2474,8 +2531,11 @@
       <c r="P19" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="19">
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2524,8 +2584,11 @@
       <c r="P20" s="27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="19">
+      <c r="Q20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2574,8 +2637,11 @@
       <c r="P21" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="19">
+      <c r="Q21">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2624,8 +2690,11 @@
       <c r="P22" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="19">
+      <c r="Q22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2674,8 +2743,11 @@
       <c r="P23" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="19">
+      <c r="Q23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.6">
       <c r="A24">
         <v>54</v>
       </c>
@@ -2724,8 +2796,11 @@
       <c r="P24" s="27">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="19">
+      <c r="Q24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2774,8 +2849,11 @@
       <c r="P25" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="19">
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.6">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2824,8 +2902,11 @@
       <c r="P26" s="27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="19">
+      <c r="Q26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.6">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -2874,8 +2955,11 @@
       <c r="P27" s="27">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="19">
+      <c r="Q27">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.6">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2924,8 +3008,11 @@
       <c r="P28" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="19">
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.6">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2974,8 +3061,11 @@
       <c r="P29" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="19">
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15.6">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3024,8 +3114,11 @@
       <c r="P30" s="27">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19">
+      <c r="Q30">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.6">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3074,8 +3167,11 @@
       <c r="P31" s="27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="19">
+      <c r="Q31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.6">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3220,11 @@
       <c r="P32" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="19">
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.6">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3174,8 +3273,11 @@
       <c r="P33" s="27">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="19">
+      <c r="Q33">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.6">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3224,8 +3326,11 @@
       <c r="P34" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="19">
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.6">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3274,8 +3379,11 @@
       <c r="P35" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="19">
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.6">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3324,8 +3432,11 @@
       <c r="P36" s="27">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="19">
+      <c r="Q36">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.6">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3374,8 +3485,11 @@
       <c r="P37" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="19">
+      <c r="Q37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.6">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3424,8 +3538,11 @@
       <c r="P38" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="19">
+      <c r="Q38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15.6">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -3474,8 +3591,11 @@
       <c r="P39" s="27">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="19">
+      <c r="Q39">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.6">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3524,8 +3644,11 @@
       <c r="P40" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="19">
+      <c r="Q40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.6">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3574,8 +3697,11 @@
       <c r="P41" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="19">
+      <c r="Q41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.6">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -3624,8 +3750,11 @@
       <c r="P42" s="27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="19">
+      <c r="Q42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.6">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3674,8 +3803,11 @@
       <c r="P43" s="27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="19">
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.6">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3724,8 +3856,11 @@
       <c r="P44" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="19">
+      <c r="Q44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.6">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -3774,8 +3909,11 @@
       <c r="P45" s="27">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="19">
+      <c r="Q45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.6">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3824,8 +3962,11 @@
       <c r="P46" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="19">
+      <c r="Q46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.6">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3874,8 +4015,11 @@
       <c r="P47" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="19">
+      <c r="Q47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3924,8 +4068,11 @@
       <c r="P48" s="27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="19">
+      <c r="Q48">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3974,8 +4121,11 @@
       <c r="P49" s="27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="19">
+      <c r="Q49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.6">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4024,8 +4174,11 @@
       <c r="P50" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="19">
+      <c r="Q50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.6">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4074,8 +4227,11 @@
       <c r="P51" s="27">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="19">
+      <c r="Q51">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.6">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4124,8 +4280,11 @@
       <c r="P52" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="19">
+      <c r="Q52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="15.6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4174,8 +4333,11 @@
       <c r="P53" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="19">
+      <c r="Q53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.6">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4224,8 +4386,11 @@
       <c r="P54" s="27">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="19">
+      <c r="Q54">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.6">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4274,8 +4439,11 @@
       <c r="P55" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="19">
+      <c r="Q55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.6">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -4324,8 +4492,11 @@
       <c r="P56" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="19">
+      <c r="Q56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15.6">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -4374,8 +4545,11 @@
       <c r="P57" s="27">
         <v>4.9800000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="19">
+      <c r="Q57">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.6">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4424,8 +4598,11 @@
       <c r="P58" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="19">
+      <c r="Q58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.6">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -4469,13 +4646,16 @@
         <v>38</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P59" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="19">
+      <c r="Q59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.6">
       <c r="A60">
         <v>99</v>
       </c>
@@ -4524,8 +4704,11 @@
       <c r="P60" s="27">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="19">
+      <c r="Q60">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.6">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4569,13 +4752,16 @@
         <v>39</v>
       </c>
       <c r="O61" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P61" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="19">
+        <v>103</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15.6">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -4619,13 +4805,16 @@
         <v>40</v>
       </c>
       <c r="O62" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P62" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="19">
+      <c r="Q62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15.6">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -4674,8 +4863,11 @@
       <c r="P63" s="27">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="19">
+      <c r="Q63">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.6">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -4719,13 +4911,16 @@
         <v>41</v>
       </c>
       <c r="O64" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P64" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="19">
+      <c r="Q64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15.6">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -4769,13 +4964,16 @@
         <v>42</v>
       </c>
       <c r="O65" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P65" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="19">
+      <c r="Q65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.6">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -4824,8 +5022,11 @@
       <c r="P66" s="27">
         <v>320</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="19">
+      <c r="Q66">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.6">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -4874,8 +5075,11 @@
       <c r="P67" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="19">
+      <c r="Q67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.6">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -4919,13 +5123,16 @@
         <v>44</v>
       </c>
       <c r="O68" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P68" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="19">
+      <c r="Q68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.6">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -4974,8 +5181,11 @@
       <c r="P69" s="27">
         <v>108.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="19">
+      <c r="Q69">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.6">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -5019,13 +5229,16 @@
         <v>45</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P70" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="19">
+      <c r="Q70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15.6">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -5069,13 +5282,16 @@
         <v>46</v>
       </c>
       <c r="O71" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P71" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="19">
+      <c r="Q71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="15.6">
       <c r="A72">
         <v>324</v>
       </c>
@@ -5124,8 +5340,11 @@
       <c r="P72" s="27">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="19">
+      <c r="Q72">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.6">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -5169,13 +5388,16 @@
         <v>47</v>
       </c>
       <c r="O73" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P73" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="19">
+      <c r="Q73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15.6">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -5195,10 +5417,10 @@
         <v>46</v>
       </c>
       <c r="O74" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -5221,7 +5443,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="19">
+    <row r="76" spans="1:17" ht="15.6">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -5241,7 +5463,7 @@
         <v>47</v>
       </c>
       <c r="O76" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5259,10 +5481,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5294,7 +5516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.182.70.198\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B16D5-BA01-4BB0-B495-76C990D8F1EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706304F-787A-6049-A55D-08161679AE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="105">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1060,7 +1060,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1120,22 +1120,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1147,37 +1147,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1509,26 +1509,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" topLeftCell="M49" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="245" width="11" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1580,8 +1581,11 @@
       <c r="Q1" s="26">
         <v>44401</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.6">
+      <c r="R1" s="26">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1637,11 @@
       <c r="Q2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.6">
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1686,8 +1693,11 @@
       <c r="Q3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.6">
+      <c r="R3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1739,8 +1749,11 @@
       <c r="Q4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.6">
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1792,8 +1805,11 @@
       <c r="Q5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.6">
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1845,8 +1861,11 @@
       <c r="Q6">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.6">
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1898,8 +1917,11 @@
       <c r="Q7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.6">
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1951,8 +1973,11 @@
       <c r="Q8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.6">
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2004,8 +2029,11 @@
       <c r="Q9">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.6">
+      <c r="R9">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2057,8 +2085,11 @@
       <c r="Q10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6">
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2110,8 +2141,11 @@
       <c r="Q11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.6">
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2163,8 +2197,11 @@
       <c r="Q12">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.6">
+      <c r="R12">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2216,8 +2253,11 @@
       <c r="Q13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.6">
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2269,8 +2309,11 @@
       <c r="Q14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.6">
+      <c r="R14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2322,8 +2365,11 @@
       <c r="Q15">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.6">
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2375,8 +2421,11 @@
       <c r="Q16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.6">
+      <c r="R16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2428,8 +2477,11 @@
       <c r="Q17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.6">
+      <c r="R17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2481,8 +2533,11 @@
       <c r="Q18">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.6">
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2534,8 +2589,11 @@
       <c r="Q19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.6">
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2587,8 +2645,11 @@
       <c r="Q20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.6">
+      <c r="R20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2640,8 +2701,11 @@
       <c r="Q21">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.6">
+      <c r="R21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2693,8 +2757,11 @@
       <c r="Q22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.6">
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2746,8 +2813,11 @@
       <c r="Q23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.6">
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -2799,8 +2869,11 @@
       <c r="Q24">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.6">
+      <c r="R24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2852,8 +2925,11 @@
       <c r="Q25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15.6">
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2905,8 +2981,11 @@
       <c r="Q26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.6">
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -2958,8 +3037,11 @@
       <c r="Q27">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.6">
+      <c r="R27">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3011,8 +3093,11 @@
       <c r="Q28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.6">
+      <c r="R28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3064,8 +3149,11 @@
       <c r="Q29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.6">
+      <c r="R29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3117,8 +3205,11 @@
       <c r="Q30">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="15.6">
+      <c r="R30">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3170,8 +3261,11 @@
       <c r="Q31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.6">
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3223,8 +3317,11 @@
       <c r="Q32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.6">
+      <c r="R32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3276,8 +3373,11 @@
       <c r="Q33">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.6">
+      <c r="R33">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3329,8 +3429,11 @@
       <c r="Q34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.6">
+      <c r="R34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3382,8 +3485,11 @@
       <c r="Q35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.6">
+      <c r="R35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3435,8 +3541,11 @@
       <c r="Q36">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.6">
+      <c r="R36">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3488,8 +3597,11 @@
       <c r="Q37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15.6">
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3541,8 +3653,11 @@
       <c r="Q38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.6">
+      <c r="R38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -3594,8 +3709,11 @@
       <c r="Q39">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.6">
+      <c r="R39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3647,8 +3765,11 @@
       <c r="Q40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.6">
+      <c r="R40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3700,8 +3821,11 @@
       <c r="Q41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="15.6">
+      <c r="R41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -3753,8 +3877,11 @@
       <c r="Q42">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.6">
+      <c r="R42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3806,8 +3933,11 @@
       <c r="Q43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.6">
+      <c r="R43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3859,8 +3989,11 @@
       <c r="Q44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.6">
+      <c r="R44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -3912,8 +4045,11 @@
       <c r="Q45">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.6">
+      <c r="R45">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3965,8 +4101,11 @@
       <c r="Q46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.6">
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4018,8 +4157,11 @@
       <c r="Q47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.6">
+      <c r="R47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4071,8 +4213,11 @@
       <c r="Q48">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.6">
+      <c r="R48">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4124,8 +4269,11 @@
       <c r="Q49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.6">
+      <c r="R49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4177,8 +4325,11 @@
       <c r="Q50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.6">
+      <c r="R50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4230,8 +4381,11 @@
       <c r="Q51">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.6">
+      <c r="R51">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4283,8 +4437,11 @@
       <c r="Q52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.6">
+      <c r="R52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4336,8 +4493,11 @@
       <c r="Q53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.6">
+      <c r="R53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4389,8 +4549,11 @@
       <c r="Q54">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.6">
+      <c r="R54">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4442,8 +4605,11 @@
       <c r="Q55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.6">
+      <c r="R55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -4495,8 +4661,11 @@
       <c r="Q56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.6">
+      <c r="R56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -4548,8 +4717,11 @@
       <c r="Q57">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="15.6">
+      <c r="R57">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4601,8 +4773,11 @@
       <c r="Q58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.6">
+      <c r="R58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -4654,8 +4829,11 @@
       <c r="Q59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.6">
+      <c r="R59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -4707,8 +4885,11 @@
       <c r="Q60">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="15.6">
+      <c r="R60">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4760,8 +4941,11 @@
       <c r="Q61" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="15.6">
+      <c r="R61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -4813,8 +4997,11 @@
       <c r="Q62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="15.6">
+      <c r="R62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -4866,8 +5053,11 @@
       <c r="Q63">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="15.6">
+      <c r="R63">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -4919,8 +5109,11 @@
       <c r="Q64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.6">
+      <c r="R64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -4972,8 +5165,11 @@
       <c r="Q65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.6">
+      <c r="R65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -5025,8 +5221,11 @@
       <c r="Q66">
         <v>322</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="15.6">
+      <c r="R66">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5078,8 +5277,11 @@
       <c r="Q67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="15.6">
+      <c r="R67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -5131,8 +5333,11 @@
       <c r="Q68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.6">
+      <c r="R68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -5184,8 +5389,11 @@
       <c r="Q69">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="15.6">
+      <c r="R69">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -5237,8 +5445,11 @@
       <c r="Q70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="15.6">
+      <c r="R70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -5290,8 +5501,11 @@
       <c r="Q71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.6">
+      <c r="R71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -5343,8 +5557,11 @@
       <c r="Q72">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.6">
+      <c r="R72">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -5396,8 +5613,11 @@
       <c r="Q73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="15.6">
+      <c r="R73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -5420,7 +5640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15">
+    <row r="75" spans="1:18" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -5443,7 +5663,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.6">
+    <row r="76" spans="1:18" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -5481,10 +5701,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5516,7 +5736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706304F-787A-6049-A55D-08161679AE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07621339-0D87-994F-8BE2-A93AE9CE78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="142">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1053,6 +1053,117 @@
       <t>(HGB)(g/L)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白细胞计数(WBC)(10^9/L)</t>
+  </si>
+  <si>
+    <t>4.9～12.7</t>
+  </si>
+  <si>
+    <t>淋巴细胞绝对值(LYM#)(10^9/L)</t>
+  </si>
+  <si>
+    <t>2.0～6.5</t>
+  </si>
+  <si>
+    <t>中性粒细胞绝对值(NEU#)(10^9/L)</t>
+  </si>
+  <si>
+    <t>1.3～6.7</t>
+  </si>
+  <si>
+    <t>单核细胞绝对值(MON#)(10^9/L)</t>
+  </si>
+  <si>
+    <t>0.16～0.92</t>
+  </si>
+  <si>
+    <t>嗜酸性粒细胞绝对值(EOS#)(EOS#)(10^9/L)</t>
+  </si>
+  <si>
+    <t>0.04～0.74</t>
+  </si>
+  <si>
+    <t>嗜碱性粒细胞绝对值(BAS#)(BAS#)(10^9/L)</t>
+  </si>
+  <si>
+    <t>0～0.1</t>
+  </si>
+  <si>
+    <t>红细胞体积分布宽度-CV(RDW-CV)(%)</t>
+  </si>
+  <si>
+    <t>红细胞体积分布宽度-SD(RDW-SD)(fL)</t>
+  </si>
+  <si>
+    <t>血小板体积分布宽度(PDW)(%)</t>
+  </si>
+  <si>
+    <t>嗜碱性粒细胞百分比(BAS%)(BAS%)(%)</t>
+  </si>
+  <si>
+    <t>0～1</t>
+  </si>
+  <si>
+    <t>嗜酸性粒细胞百分比(EO%)(EOS%)(%)</t>
+  </si>
+  <si>
+    <t>0.5～9</t>
+  </si>
+  <si>
+    <t>4.1～5.5</t>
+  </si>
+  <si>
+    <t>血红蛋白浓度(HGB)(g/L)</t>
+  </si>
+  <si>
+    <t>115～150</t>
+  </si>
+  <si>
+    <t>35～45</t>
+  </si>
+  <si>
+    <t>76～88</t>
+  </si>
+  <si>
+    <t>平均红细胞血红蛋白含量(MCH)(MCH)(pg)</t>
+  </si>
+  <si>
+    <t>24～30</t>
+  </si>
+  <si>
+    <t>平均红细胞血红蛋白浓度(MCHC)(MCHC)(g/L)</t>
+  </si>
+  <si>
+    <t>309～359</t>
+  </si>
+  <si>
+    <t>血小板计数(PLT)(10^9/L)</t>
+  </si>
+  <si>
+    <t>187～475</t>
+  </si>
+  <si>
+    <t>淋巴细胞百分比(LYM%)(%)</t>
+  </si>
+  <si>
+    <t>26～67</t>
+  </si>
+  <si>
+    <t>中性粒细胞百分比(NEU%)(%)</t>
+  </si>
+  <si>
+    <t>23～64</t>
+  </si>
+  <si>
+    <t>单核细胞百分比(MON%)(%)</t>
+  </si>
+  <si>
+    <t>2～11</t>
+  </si>
+  <si>
+    <t>17.5～42.3</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M49" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -1525,11 +1636,12 @@
     <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="245" width="11" customWidth="1"/>
+    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1584,8 +1696,11 @@
       <c r="R1" s="26">
         <v>44415</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="19">
+      <c r="S1" s="26">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1640,8 +1755,11 @@
       <c r="R2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="19">
+      <c r="S2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1696,8 +1814,11 @@
       <c r="R3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="19">
+      <c r="S3">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1752,8 +1873,11 @@
       <c r="R4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="19">
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1808,8 +1932,11 @@
       <c r="R5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="19">
+      <c r="S5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1864,8 +1991,11 @@
       <c r="R6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="19">
+      <c r="S6">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2050,11 @@
       <c r="R7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="19">
+      <c r="S7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1976,8 +2109,11 @@
       <c r="R8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="19">
+      <c r="S8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2032,8 +2168,11 @@
       <c r="R9">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="19">
+      <c r="S9">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2088,8 +2227,11 @@
       <c r="R10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="19">
+      <c r="S10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2144,8 +2286,11 @@
       <c r="R11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="19">
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2200,8 +2345,11 @@
       <c r="R12">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="19">
+      <c r="S12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2256,8 +2404,11 @@
       <c r="R13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="19">
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2312,8 +2463,11 @@
       <c r="R14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="19">
+      <c r="S14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2368,8 +2522,11 @@
       <c r="R15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="19">
+      <c r="S15">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2424,8 +2581,11 @@
       <c r="R16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="19">
+      <c r="S16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2480,8 +2640,11 @@
       <c r="R17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="19">
+      <c r="S17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2536,8 +2699,11 @@
       <c r="R18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="19">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2592,8 +2758,11 @@
       <c r="R19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="19">
+      <c r="S19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2648,8 +2817,11 @@
       <c r="R20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="19">
+      <c r="S20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2704,8 +2876,11 @@
       <c r="R21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="19">
+      <c r="S21">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2760,8 +2935,11 @@
       <c r="R22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="19">
+      <c r="S22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2816,8 +2994,11 @@
       <c r="R23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="19">
+      <c r="S23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -2872,8 +3053,11 @@
       <c r="R24">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="19">
+      <c r="S24">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2928,8 +3112,11 @@
       <c r="R25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="19">
+      <c r="S25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2984,8 +3171,11 @@
       <c r="R26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="19">
+      <c r="S26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -3040,8 +3230,11 @@
       <c r="R27">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="19">
+      <c r="S27">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3096,8 +3289,11 @@
       <c r="R28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="19">
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3152,8 +3348,11 @@
       <c r="R29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="19">
+      <c r="S29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3208,8 +3407,11 @@
       <c r="R30">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="19">
+      <c r="S30">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3264,8 +3466,11 @@
       <c r="R31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="19">
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3320,8 +3525,11 @@
       <c r="R32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="19">
+      <c r="S32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3376,8 +3584,11 @@
       <c r="R33">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="19">
+      <c r="S33">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3432,8 +3643,11 @@
       <c r="R34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="19">
+      <c r="S34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3488,8 +3702,11 @@
       <c r="R35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="19">
+      <c r="S35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3544,8 +3761,11 @@
       <c r="R36">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="19">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3600,8 +3820,11 @@
       <c r="R37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="19">
+      <c r="S37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3656,8 +3879,11 @@
       <c r="R38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="19">
+      <c r="S38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -3712,8 +3938,11 @@
       <c r="R39">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="19">
+      <c r="S39">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3768,8 +3997,11 @@
       <c r="R40" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="19">
+      <c r="S40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3824,8 +4056,11 @@
       <c r="R41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="19">
+      <c r="S41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -3880,8 +4115,11 @@
       <c r="R42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="19">
+      <c r="S42">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3936,8 +4174,11 @@
       <c r="R43" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="19">
+      <c r="S43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3992,8 +4233,11 @@
       <c r="R44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="19">
+      <c r="S44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -4048,8 +4292,11 @@
       <c r="R45">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="19">
+      <c r="S45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -4104,8 +4351,11 @@
       <c r="R46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="19">
+      <c r="S46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4160,8 +4410,11 @@
       <c r="R47" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="19">
+      <c r="S47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4216,8 +4469,11 @@
       <c r="R48">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="19">
+      <c r="S48">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4272,8 +4528,11 @@
       <c r="R49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="19">
+      <c r="S49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4328,8 +4587,11 @@
       <c r="R50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="19">
+      <c r="S50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4384,8 +4646,11 @@
       <c r="R51">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="19">
+      <c r="S51">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4440,8 +4705,11 @@
       <c r="R52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="19">
+      <c r="S52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4496,8 +4764,11 @@
       <c r="R53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="19">
+      <c r="S53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4552,8 +4823,11 @@
       <c r="R54">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="19">
+      <c r="S54">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4608,8 +4882,11 @@
       <c r="R55" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="19">
+      <c r="S55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -4664,8 +4941,11 @@
       <c r="R56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="19">
+      <c r="S56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -4720,8 +5000,11 @@
       <c r="R57">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="19">
+      <c r="S57">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4776,8 +5059,11 @@
       <c r="R58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="19">
+      <c r="S58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -4832,8 +5118,11 @@
       <c r="R59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="19">
+      <c r="S59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -4888,8 +5177,11 @@
       <c r="R60">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="19">
+      <c r="S60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -4944,8 +5236,11 @@
       <c r="R61" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="19">
+      <c r="S61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5000,8 +5295,11 @@
       <c r="R62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="19">
+      <c r="S62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -5056,8 +5354,11 @@
       <c r="R63">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="19">
+      <c r="S63">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5112,8 +5413,11 @@
       <c r="R64" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="19">
+      <c r="S64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -5168,8 +5472,11 @@
       <c r="R65" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="19">
+      <c r="S65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -5224,8 +5531,11 @@
       <c r="R66">
         <v>322</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="19">
+      <c r="S66">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5280,8 +5590,11 @@
       <c r="R67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="19">
+      <c r="S67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -5336,8 +5649,11 @@
       <c r="R68" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="19">
+      <c r="S68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -5392,8 +5708,11 @@
       <c r="R69">
         <v>108.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="19">
+      <c r="S69">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -5448,8 +5767,11 @@
       <c r="R70" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="19">
+      <c r="S70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -5504,8 +5826,11 @@
       <c r="R71" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="19">
+      <c r="S71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -5560,8 +5885,11 @@
       <c r="R72">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="19">
+      <c r="S72">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -5616,8 +5944,11 @@
       <c r="R73" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="19">
+      <c r="S73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -5640,7 +5971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="16">
+    <row r="75" spans="1:19" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -5663,7 +5994,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="19">
+    <row r="76" spans="1:19" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07621339-0D87-994F-8BE2-A93AE9CE78B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA118DF5-41E6-DD41-94E7-84303ABC5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="142">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1620,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
@@ -1637,11 +1637,11 @@
     <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="245" width="11" customWidth="1"/>
+    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1699,8 +1699,11 @@
       <c r="S1" s="26">
         <v>44451</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="19">
+      <c r="T1" s="26">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1758,8 +1761,11 @@
       <c r="S2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="19">
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1817,8 +1823,11 @@
       <c r="S3">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="19">
+      <c r="T3">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1876,8 +1885,11 @@
       <c r="S4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="19">
+      <c r="T4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1935,8 +1947,11 @@
       <c r="S5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="19">
+      <c r="T5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1994,8 +2009,11 @@
       <c r="S6">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="19">
+      <c r="T6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2071,11 @@
       <c r="S7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="19">
+      <c r="T7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2112,8 +2133,11 @@
       <c r="S8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="19">
+      <c r="T8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2171,8 +2195,11 @@
       <c r="S9">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="19">
+      <c r="T9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2230,8 +2257,11 @@
       <c r="S10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="19">
+      <c r="T10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2289,8 +2319,11 @@
       <c r="S11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="19">
+      <c r="T11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2348,8 +2381,11 @@
       <c r="S12">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="19">
+      <c r="T12">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2407,8 +2443,11 @@
       <c r="S13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="19">
+      <c r="T13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2466,8 +2505,11 @@
       <c r="S14" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="19">
+      <c r="T14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2525,8 +2567,11 @@
       <c r="S15">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="19">
+      <c r="T15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2584,8 +2629,11 @@
       <c r="S16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="19">
+      <c r="T16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2643,8 +2691,11 @@
       <c r="S17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="19">
+      <c r="T17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2702,8 +2753,11 @@
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="19">
+      <c r="T18">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2761,8 +2815,11 @@
       <c r="S19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="19">
+      <c r="T19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2820,8 +2877,11 @@
       <c r="S20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="19">
+      <c r="T20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2879,8 +2939,11 @@
       <c r="S21">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="19">
+      <c r="T21">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2938,8 +3001,11 @@
       <c r="S22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="19">
+      <c r="T22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2997,8 +3063,11 @@
       <c r="S23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="19">
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -3056,8 +3125,11 @@
       <c r="S24">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="19">
+      <c r="T24">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3115,8 +3187,11 @@
       <c r="S25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="19">
+      <c r="T25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3174,8 +3249,11 @@
       <c r="S26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="19">
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -3233,8 +3311,11 @@
       <c r="S27">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="19">
+      <c r="T27">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3292,8 +3373,11 @@
       <c r="S28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="19">
+      <c r="T28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3351,8 +3435,11 @@
       <c r="S29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="19">
+      <c r="T29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3410,8 +3497,11 @@
       <c r="S30">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="19">
+      <c r="T30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3469,8 +3559,11 @@
       <c r="S31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="19">
+      <c r="T31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3528,8 +3621,11 @@
       <c r="S32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="19">
+      <c r="T32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3587,8 +3683,11 @@
       <c r="S33">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="19">
+      <c r="T33">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3646,8 +3745,11 @@
       <c r="S34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="19">
+      <c r="T34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3705,8 +3807,11 @@
       <c r="S35" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="19">
+      <c r="T35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3764,8 +3869,11 @@
       <c r="S36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="19">
+      <c r="T36">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3823,8 +3931,11 @@
       <c r="S37" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="19">
+      <c r="T37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3882,8 +3993,11 @@
       <c r="S38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="19">
+      <c r="T38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -3941,8 +4055,11 @@
       <c r="S39">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="19">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4000,8 +4117,11 @@
       <c r="S40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" ht="19">
+      <c r="T40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4059,8 +4179,11 @@
       <c r="S41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="19">
+      <c r="T41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -4118,8 +4241,11 @@
       <c r="S42">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="19">
+      <c r="T42">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4177,8 +4303,11 @@
       <c r="S43" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="19">
+      <c r="T43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4236,8 +4365,11 @@
       <c r="S44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="19">
+      <c r="T44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -4295,8 +4427,11 @@
       <c r="S45">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="19">
+      <c r="T45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -4354,8 +4489,11 @@
       <c r="S46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="19">
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4413,8 +4551,11 @@
       <c r="S47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="19">
+      <c r="T47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4472,8 +4613,11 @@
       <c r="S48">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="19">
+      <c r="T48">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4531,8 +4675,11 @@
       <c r="S49" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="19">
+      <c r="T49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4590,8 +4737,11 @@
       <c r="S50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" ht="19">
+      <c r="T50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4649,8 +4799,11 @@
       <c r="S51">
         <v>104.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="19">
+      <c r="T51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4708,8 +4861,11 @@
       <c r="S52" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" ht="19">
+      <c r="T52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4767,8 +4923,11 @@
       <c r="S53" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" ht="19">
+      <c r="T53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4826,8 +4985,11 @@
       <c r="S54">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" ht="19">
+      <c r="T54">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -4885,8 +5047,11 @@
       <c r="S55" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="19">
+      <c r="T55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -4944,8 +5109,11 @@
       <c r="S56" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="19">
+      <c r="T56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -5003,8 +5171,11 @@
       <c r="S57">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" ht="19">
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5062,8 +5233,11 @@
       <c r="S58" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" ht="19">
+      <c r="T58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5121,8 +5295,11 @@
       <c r="S59" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="19">
+      <c r="T59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -5180,8 +5357,11 @@
       <c r="S60">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="19">
+      <c r="T60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -5239,8 +5419,11 @@
       <c r="S61" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="19">
+      <c r="T61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5298,8 +5481,11 @@
       <c r="S62" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" ht="19">
+      <c r="T62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -5357,8 +5543,11 @@
       <c r="S63">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" ht="19">
+      <c r="T63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5416,8 +5605,11 @@
       <c r="S64" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" ht="19">
+      <c r="T64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -5475,8 +5667,11 @@
       <c r="S65" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" ht="19">
+      <c r="T65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -5534,8 +5729,11 @@
       <c r="S66">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="19">
+      <c r="T66">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5593,8 +5791,11 @@
       <c r="S67" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" ht="19">
+      <c r="T67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -5652,8 +5853,11 @@
       <c r="S68" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="19">
+      <c r="T68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -5711,8 +5915,11 @@
       <c r="S69">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="19">
+      <c r="T69">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -5770,8 +5977,11 @@
       <c r="S70" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" ht="19">
+      <c r="T70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -5829,8 +6039,11 @@
       <c r="S71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="19">
+      <c r="T71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -5888,8 +6101,11 @@
       <c r="S72">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="19">
+      <c r="T72">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -5947,8 +6163,11 @@
       <c r="S73" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" ht="19">
+      <c r="T73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -5971,7 +6190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="16">
+    <row r="75" spans="1:20" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -5994,7 +6213,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="19">
+    <row r="76" spans="1:20" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\openSUSE-Tumbleweed\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA118DF5-41E6-DD41-94E7-84303ABC5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB63414-B642-42C5-8345-2201479F34C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="142">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1171,7 +1171,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1231,22 +1231,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1258,37 +1258,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1620,28 +1620,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T132" sqref="T132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1702,8 +1702,11 @@
       <c r="T1" s="26">
         <v>44479</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="19">
+      <c r="U1" s="26">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1764,8 +1767,11 @@
       <c r="T2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="19">
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.6">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1826,8 +1832,11 @@
       <c r="T3">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="19">
+      <c r="U3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1888,8 +1897,11 @@
       <c r="T4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="19">
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1950,8 +1962,11 @@
       <c r="T5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="19">
+      <c r="U5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2012,8 +2027,11 @@
       <c r="T6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="19">
+      <c r="U6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2074,8 +2092,11 @@
       <c r="T7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="19">
+      <c r="U7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2136,8 +2157,11 @@
       <c r="T8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="19">
+      <c r="U8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.6">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2198,8 +2222,11 @@
       <c r="T9">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="19">
+      <c r="U9">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2260,8 +2287,11 @@
       <c r="T10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="19">
+      <c r="U10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2322,8 +2352,11 @@
       <c r="T11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="19">
+      <c r="U11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.6">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2384,8 +2417,11 @@
       <c r="T12">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="19">
+      <c r="U12">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2446,8 +2482,11 @@
       <c r="T13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="19">
+      <c r="U13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2508,8 +2547,11 @@
       <c r="T14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="19">
+      <c r="U14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.6">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2570,8 +2612,11 @@
       <c r="T15">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="19">
+      <c r="U15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.6">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2632,8 +2677,11 @@
       <c r="T16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="19">
+      <c r="U16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.6">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2694,8 +2742,11 @@
       <c r="T17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="19">
+      <c r="U17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2756,8 +2807,11 @@
       <c r="T18">
         <v>336</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="19">
+      <c r="U18">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.6">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2818,8 +2872,11 @@
       <c r="T19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="19">
+      <c r="U19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2880,8 +2937,11 @@
       <c r="T20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="19">
+      <c r="U20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.6">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2942,8 +3002,11 @@
       <c r="T21">
         <v>34.299999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="19">
+      <c r="U21">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3004,8 +3067,11 @@
       <c r="T22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="19">
+      <c r="U22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.6">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3066,8 +3132,11 @@
       <c r="T23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="19">
+      <c r="U23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.6">
       <c r="A24">
         <v>54</v>
       </c>
@@ -3128,8 +3197,11 @@
       <c r="T24">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="19">
+      <c r="U24">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3190,8 +3262,11 @@
       <c r="T25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="19">
+      <c r="U25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.6">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3327,11 @@
       <c r="T26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="19">
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.6">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -3314,8 +3392,11 @@
       <c r="T27">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="19">
+      <c r="U27">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.6">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3376,8 +3457,11 @@
       <c r="T28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="19">
+      <c r="U28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.6">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3438,8 +3522,11 @@
       <c r="T29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="19">
+      <c r="U29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.6">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3500,8 +3587,11 @@
       <c r="T30">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="19">
+      <c r="U30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.6">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3562,8 +3652,11 @@
       <c r="T31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="19">
+      <c r="U31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.6">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3624,8 +3717,11 @@
       <c r="T32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="19">
+      <c r="U32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.6">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3686,8 +3782,11 @@
       <c r="T33">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="19">
+      <c r="U33">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.6">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3748,8 +3847,11 @@
       <c r="T34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="19">
+      <c r="U34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.6">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3810,8 +3912,11 @@
       <c r="T35" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="19">
+      <c r="U35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.6">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3872,8 +3977,11 @@
       <c r="T36">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="19">
+      <c r="U36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.6">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3934,8 +4042,11 @@
       <c r="T37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="19">
+      <c r="U37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.6">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -3996,8 +4107,11 @@
       <c r="T38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="19">
+      <c r="U38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.6">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -4058,8 +4172,11 @@
       <c r="T39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="19">
+      <c r="U39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.6">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4120,8 +4237,11 @@
       <c r="T40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="19">
+      <c r="U40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.6">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4182,8 +4302,11 @@
       <c r="T41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="19">
+      <c r="U41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.6">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -4244,8 +4367,11 @@
       <c r="T42">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="19">
+      <c r="U42">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.6">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4306,8 +4432,11 @@
       <c r="T43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="19">
+      <c r="U43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.6">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4368,8 +4497,11 @@
       <c r="T44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="19">
+      <c r="U44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.6">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -4430,8 +4562,11 @@
       <c r="T45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="19">
+      <c r="U45">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.6">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -4492,8 +4627,11 @@
       <c r="T46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="19">
+      <c r="U46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.6">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4554,8 +4692,11 @@
       <c r="T47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="19">
+      <c r="U47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15.6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4616,8 +4757,11 @@
       <c r="T48">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="19">
+      <c r="U48">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4678,8 +4822,11 @@
       <c r="T49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="19">
+      <c r="U49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.6">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4740,8 +4887,11 @@
       <c r="T50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="19">
+      <c r="U50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.6">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4802,8 +4952,11 @@
       <c r="T51">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="19">
+      <c r="U51">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.6">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -4864,8 +5017,11 @@
       <c r="T52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="19">
+      <c r="U52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -4926,8 +5082,11 @@
       <c r="T53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="19">
+      <c r="U53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.6">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -4988,8 +5147,11 @@
       <c r="T54">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="19">
+      <c r="U54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="15.6">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5050,8 +5212,11 @@
       <c r="T55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="19">
+      <c r="U55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.6">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -5112,8 +5277,11 @@
       <c r="T56" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="19">
+      <c r="U56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="15.6">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -5174,8 +5342,11 @@
       <c r="T57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="19">
+      <c r="U57">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.6">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5236,8 +5407,11 @@
       <c r="T58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="19">
+      <c r="U58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.6">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5298,8 +5472,11 @@
       <c r="T59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="19">
+      <c r="U59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.6">
       <c r="A60">
         <v>99</v>
       </c>
@@ -5360,8 +5537,11 @@
       <c r="T60">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="19">
+      <c r="U60">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.6">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -5422,8 +5602,11 @@
       <c r="T61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="19">
+      <c r="U61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="15.6">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5484,8 +5667,11 @@
       <c r="T62" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" ht="19">
+      <c r="U62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="15.6">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -5546,8 +5732,11 @@
       <c r="T63">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="19">
+      <c r="U63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="15.6">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5608,8 +5797,11 @@
       <c r="T64" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="19">
+      <c r="U64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15.6">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -5670,8 +5862,11 @@
       <c r="T65" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="19">
+      <c r="U65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.6">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -5732,8 +5927,11 @@
       <c r="T66">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="19">
+      <c r="U66">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="15.6">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5794,8 +5992,11 @@
       <c r="T67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" ht="19">
+      <c r="U67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.6">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -5856,8 +6057,11 @@
       <c r="T68" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="19">
+      <c r="U68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="15.6">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -5918,8 +6122,11 @@
       <c r="T69">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="19">
+      <c r="U69">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="15.6">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -5980,8 +6187,11 @@
       <c r="T70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="19">
+      <c r="U70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="15.6">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -6042,8 +6252,11 @@
       <c r="T71" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="19">
+      <c r="U71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="15.6">
       <c r="A72">
         <v>324</v>
       </c>
@@ -6104,8 +6317,11 @@
       <c r="T72">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="19">
+      <c r="U72">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.6">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -6166,8 +6382,11 @@
       <c r="T73" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="19">
+      <c r="U73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="15.6">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -6190,7 +6409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16">
+    <row r="75" spans="1:21" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -6213,7 +6432,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19">
+    <row r="76" spans="1:21" ht="15.6">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -6251,10 +6470,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6286,7 +6505,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\openSUSE-Tumbleweed\home\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB63414-B642-42C5-8345-2201479F34C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB6202-7E66-4F5C-BD96-0D954B43A6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-4224" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="142">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1620,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T132" sqref="T132"/>
+    <sheetView tabSelected="1" topLeftCell="Q55" workbookViewId="0">
+      <selection activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1638,10 +1638,11 @@
     <col min="16" max="16" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="245" width="11" customWidth="1"/>
+    <col min="21" max="23" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1705,8 +1706,14 @@
       <c r="U1" s="26">
         <v>44515</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.6">
+      <c r="V1" s="26">
+        <v>44542</v>
+      </c>
+      <c r="W1" s="26">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1770,8 +1777,14 @@
       <c r="U2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.6">
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.6">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1835,8 +1848,14 @@
       <c r="U3">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.6">
+      <c r="V3">
+        <v>5.83</v>
+      </c>
+      <c r="W3">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1900,8 +1919,14 @@
       <c r="U4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.6">
+      <c r="V4" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1965,8 +1990,14 @@
       <c r="U5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.6">
+      <c r="V5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2030,8 +2061,14 @@
       <c r="U6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.6">
+      <c r="V6">
+        <v>4.43</v>
+      </c>
+      <c r="W6">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.6">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2132,14 @@
       <c r="U7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.6">
+      <c r="V7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2160,8 +2203,14 @@
       <c r="U8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.6">
+      <c r="V8" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.6">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2225,8 +2274,14 @@
       <c r="U9">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6">
+      <c r="V9">
+        <v>0.96</v>
+      </c>
+      <c r="W9">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2290,8 +2345,14 @@
       <c r="U10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.6">
+      <c r="V10" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2355,8 +2416,14 @@
       <c r="U11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.6">
+      <c r="V11" t="s">
+        <v>111</v>
+      </c>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.6">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2420,8 +2487,14 @@
       <c r="U12">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.6">
+      <c r="V12">
+        <v>0.18</v>
+      </c>
+      <c r="W12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2485,8 +2558,14 @@
       <c r="U13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.6">
+      <c r="V13" t="s">
+        <v>112</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2550,8 +2629,14 @@
       <c r="U14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.6">
+      <c r="V14" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.6">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2615,8 +2700,14 @@
       <c r="U15">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.6">
+      <c r="V15">
+        <v>0.25</v>
+      </c>
+      <c r="W15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.6">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2680,8 +2771,14 @@
       <c r="U16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.6">
+      <c r="V16" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.6">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2745,8 +2842,14 @@
       <c r="U17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.6">
+      <c r="V17" t="s">
+        <v>115</v>
+      </c>
+      <c r="W17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2810,8 +2913,14 @@
       <c r="U18">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.6">
+      <c r="V18">
+        <v>0.01</v>
+      </c>
+      <c r="W18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.6">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2875,8 +2984,14 @@
       <c r="U19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.6">
+      <c r="V19" t="s">
+        <v>116</v>
+      </c>
+      <c r="W19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2940,8 +3055,14 @@
       <c r="U20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.6">
+      <c r="V20" t="s">
+        <v>117</v>
+      </c>
+      <c r="W20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.6">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3005,8 +3126,14 @@
       <c r="U21">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.6">
+      <c r="V21">
+        <v>14.7</v>
+      </c>
+      <c r="W21">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3070,8 +3197,14 @@
       <c r="U22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.6">
+      <c r="V22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.6">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3135,8 +3268,14 @@
       <c r="U23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.6">
+      <c r="V23" t="s">
+        <v>118</v>
+      </c>
+      <c r="W23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.6">
       <c r="A24">
         <v>54</v>
       </c>
@@ -3200,8 +3339,14 @@
       <c r="U24">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.6">
+      <c r="V24">
+        <v>58.8</v>
+      </c>
+      <c r="W24">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3265,8 +3410,14 @@
       <c r="U25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.6">
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.6">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3330,8 +3481,14 @@
       <c r="U26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.6">
+      <c r="V26" t="s">
+        <v>119</v>
+      </c>
+      <c r="W26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.6">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -3395,8 +3552,14 @@
       <c r="U27">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.6">
+      <c r="V27">
+        <v>17.2</v>
+      </c>
+      <c r="W27">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.6">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3460,8 +3623,14 @@
       <c r="U28" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.6">
+      <c r="V28" t="s">
+        <v>11</v>
+      </c>
+      <c r="W28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.6">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3525,8 +3694,14 @@
       <c r="U29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.6">
+      <c r="V29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.6">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3590,8 +3765,14 @@
       <c r="U30">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.6">
+      <c r="V30">
+        <v>9.9</v>
+      </c>
+      <c r="W30">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.6">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3655,8 +3836,14 @@
       <c r="U31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.6">
+      <c r="V31" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.6">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3720,8 +3907,14 @@
       <c r="U32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.6">
+      <c r="V32" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.6">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3785,8 +3978,14 @@
       <c r="U33">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.6">
+      <c r="V33">
+        <v>0.06</v>
+      </c>
+      <c r="W33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.6">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3850,8 +4049,14 @@
       <c r="U34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.6">
+      <c r="V34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.6">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3915,8 +4120,14 @@
       <c r="U35" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.6">
+      <c r="V35" t="s">
+        <v>120</v>
+      </c>
+      <c r="W35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.6">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -3980,8 +4191,14 @@
       <c r="U36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.6">
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+      <c r="W36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.6">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4045,8 +4262,14 @@
       <c r="U37" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.6">
+      <c r="V37" t="s">
+        <v>121</v>
+      </c>
+      <c r="W37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.6">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -4110,8 +4333,14 @@
       <c r="U38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.6">
+      <c r="V38" t="s">
+        <v>122</v>
+      </c>
+      <c r="W38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.6">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -4175,8 +4404,14 @@
       <c r="U39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.6">
+      <c r="V39">
+        <v>4.3</v>
+      </c>
+      <c r="W39">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.6">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4240,8 +4475,14 @@
       <c r="U40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.6">
+      <c r="V40" t="s">
+        <v>123</v>
+      </c>
+      <c r="W40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.6">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4305,8 +4546,14 @@
       <c r="U41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.6">
+      <c r="V41" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.6">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -4370,8 +4617,14 @@
       <c r="U42">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.6">
+      <c r="V42">
+        <v>2.81</v>
+      </c>
+      <c r="W42">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.6">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4435,8 +4688,14 @@
       <c r="U43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.6">
+      <c r="V43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.6">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4500,8 +4759,14 @@
       <c r="U44" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.6">
+      <c r="V44" t="s">
+        <v>125</v>
+      </c>
+      <c r="W44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.6">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -4565,8 +4830,14 @@
       <c r="U45">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.6">
+      <c r="V45">
+        <v>97</v>
+      </c>
+      <c r="W45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.6">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -4630,8 +4901,14 @@
       <c r="U46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.6">
+      <c r="V46" t="s">
+        <v>126</v>
+      </c>
+      <c r="W46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.6">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4695,8 +4972,14 @@
       <c r="U47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.6">
+      <c r="V47" t="s">
+        <v>32</v>
+      </c>
+      <c r="W47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4760,8 +5043,14 @@
       <c r="U48">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.6">
+      <c r="V48">
+        <v>30</v>
+      </c>
+      <c r="W48">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -4825,8 +5114,14 @@
       <c r="U49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.6">
+      <c r="V49" t="s">
+        <v>127</v>
+      </c>
+      <c r="W49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.6">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4890,8 +5185,14 @@
       <c r="U50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.6">
+      <c r="V50" t="s">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.6">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -4955,8 +5256,14 @@
       <c r="U51">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.6">
+      <c r="V51">
+        <v>106.7</v>
+      </c>
+      <c r="W51">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.6">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5020,8 +5327,14 @@
       <c r="U52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.6">
+      <c r="V52" t="s">
+        <v>128</v>
+      </c>
+      <c r="W52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -5085,8 +5398,14 @@
       <c r="U53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.6">
+      <c r="V53" t="s">
+        <v>129</v>
+      </c>
+      <c r="W53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.6">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -5150,8 +5469,14 @@
       <c r="U54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.6">
+      <c r="V54">
+        <v>34.6</v>
+      </c>
+      <c r="W54">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.6">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5215,8 +5540,14 @@
       <c r="U55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.6">
+      <c r="V55" t="s">
+        <v>130</v>
+      </c>
+      <c r="W55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.6">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -5280,8 +5611,14 @@
       <c r="U56" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.6">
+      <c r="V56" t="s">
+        <v>131</v>
+      </c>
+      <c r="W56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.6">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -5345,8 +5682,14 @@
       <c r="U57">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.6">
+      <c r="V57">
+        <v>324</v>
+      </c>
+      <c r="W57">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.6">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5410,8 +5753,14 @@
       <c r="U58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.6">
+      <c r="V58" t="s">
+        <v>132</v>
+      </c>
+      <c r="W58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.6">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5475,8 +5824,14 @@
       <c r="U59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.6">
+      <c r="V59" t="s">
+        <v>133</v>
+      </c>
+      <c r="W59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.6">
       <c r="A60">
         <v>99</v>
       </c>
@@ -5540,8 +5895,14 @@
       <c r="U60">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.6">
+      <c r="V60">
+        <v>57</v>
+      </c>
+      <c r="W60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.6">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -5605,8 +5966,14 @@
       <c r="U61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.6">
+      <c r="V61" t="s">
+        <v>134</v>
+      </c>
+      <c r="W61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.6">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5670,8 +6037,14 @@
       <c r="U62" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.6">
+      <c r="V62" t="s">
+        <v>135</v>
+      </c>
+      <c r="W62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.6">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -5735,8 +6108,14 @@
       <c r="U63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.6">
+      <c r="V63">
+        <v>76</v>
+      </c>
+      <c r="W63">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.6">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -5800,8 +6179,14 @@
       <c r="U64" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.6">
+      <c r="V64" t="s">
+        <v>136</v>
+      </c>
+      <c r="W64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.6">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -5865,8 +6250,14 @@
       <c r="U65" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.6">
+      <c r="V65" t="s">
+        <v>137</v>
+      </c>
+      <c r="W65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15.6">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -5930,8 +6321,14 @@
       <c r="U66">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.6">
+      <c r="V66">
+        <v>16.5</v>
+      </c>
+      <c r="W66">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.6">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5995,8 +6392,14 @@
       <c r="U67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.6">
+      <c r="V67" t="s">
+        <v>138</v>
+      </c>
+      <c r="W67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.6">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -6060,8 +6463,14 @@
       <c r="U68" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.6">
+      <c r="V68" t="s">
+        <v>139</v>
+      </c>
+      <c r="W68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15.6">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -6125,8 +6534,14 @@
       <c r="U69">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.6">
+      <c r="V69">
+        <v>3.1</v>
+      </c>
+      <c r="W69">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.6">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -6190,8 +6605,14 @@
       <c r="U70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.6">
+      <c r="V70" t="s">
+        <v>140</v>
+      </c>
+      <c r="W70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15.6">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -6255,8 +6676,14 @@
       <c r="U71" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.6">
+      <c r="V71" t="s">
+        <v>12</v>
+      </c>
+      <c r="W71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.6">
       <c r="A72">
         <v>324</v>
       </c>
@@ -6320,8 +6747,14 @@
       <c r="U72">
         <v>6.66</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.6">
+      <c r="V72">
+        <v>30.6</v>
+      </c>
+      <c r="W72">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.6">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -6385,8 +6818,14 @@
       <c r="U73" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.6">
+      <c r="V73" t="s">
+        <v>141</v>
+      </c>
+      <c r="W73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.6">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -6409,7 +6848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15">
+    <row r="75" spans="1:23" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -6432,7 +6871,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15.6">
+    <row r="76" spans="1:23" ht="15.6">
       <c r="A76" t="s">
         <v>47</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB6202-7E66-4F5C-BD96-0D954B43A6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A24882-E9F1-174D-B269-878883B1A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4224" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$76</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="145">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1165,13 +1168,22 @@
   <si>
     <t>17.5～42.3</t>
   </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>葡萄糖(GLU)(mmol/L)</t>
+  </si>
+  <si>
+    <t>3.3～5.6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1231,22 +1243,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1258,37 +1270,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1620,29 +1632,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q55" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF57" sqref="AF57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="245" width="11" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
+    <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:34">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1712,8 +1725,41 @@
       <c r="W1" s="26">
         <v>44550</v>
       </c>
+      <c r="X1" s="26">
+        <v>44569</v>
+      </c>
+      <c r="Y1" s="26">
+        <v>44621</v>
+      </c>
+      <c r="Z1" s="26">
+        <v>44622</v>
+      </c>
+      <c r="AA1" s="26">
+        <v>44623</v>
+      </c>
+      <c r="AB1" s="26">
+        <v>44625</v>
+      </c>
+      <c r="AC1" s="26">
+        <v>44627</v>
+      </c>
+      <c r="AD1" s="26">
+        <v>44630</v>
+      </c>
+      <c r="AE1" s="26">
+        <v>44640</v>
+      </c>
+      <c r="AF1" s="26">
+        <v>44654</v>
+      </c>
+      <c r="AG1" s="26">
+        <v>44660</v>
+      </c>
+      <c r="AH1" s="26">
+        <v>44674</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6">
+    <row r="2" spans="1:34" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1783,8 +1829,41 @@
       <c r="W2" t="s">
         <v>105</v>
       </c>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6">
+    <row r="3" spans="1:34" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1854,8 +1933,41 @@
       <c r="W3">
         <v>6.13</v>
       </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z3">
+        <v>9.01</v>
+      </c>
+      <c r="AA3">
+        <v>5.21</v>
+      </c>
+      <c r="AB3">
+        <v>1.56</v>
+      </c>
+      <c r="AC3">
+        <v>1.03</v>
+      </c>
+      <c r="AD3">
+        <v>4.58</v>
+      </c>
+      <c r="AE3">
+        <v>0.2</v>
+      </c>
+      <c r="AF3">
+        <v>6.2</v>
+      </c>
+      <c r="AG3">
+        <v>6.74</v>
+      </c>
+      <c r="AH3">
+        <v>5.91</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="15.6">
+    <row r="4" spans="1:34" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1925,8 +2037,41 @@
       <c r="W4" t="s">
         <v>106</v>
       </c>
+      <c r="X4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" ht="15.6">
+    <row r="5" spans="1:34" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1996,8 +2141,41 @@
       <c r="W5" t="s">
         <v>107</v>
       </c>
+      <c r="X5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" ht="15.6">
+    <row r="6" spans="1:34" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2067,8 +2245,41 @@
       <c r="W6">
         <v>4.58</v>
       </c>
+      <c r="X6">
+        <v>3.7</v>
+      </c>
+      <c r="Y6">
+        <v>0.1</v>
+      </c>
+      <c r="Z6">
+        <v>3.11</v>
+      </c>
+      <c r="AA6">
+        <v>3.33</v>
+      </c>
+      <c r="AB6">
+        <v>2.6</v>
+      </c>
+      <c r="AC6">
+        <v>2.73</v>
+      </c>
+      <c r="AD6">
+        <v>3.41</v>
+      </c>
+      <c r="AE6">
+        <v>3.55</v>
+      </c>
+      <c r="AF6">
+        <v>4.26</v>
+      </c>
+      <c r="AG6">
+        <v>4.74</v>
+      </c>
+      <c r="AH6">
+        <v>4.37</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" ht="15.6">
+    <row r="7" spans="1:34" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2349,41 @@
       <c r="W7" t="s">
         <v>108</v>
       </c>
+      <c r="X7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" ht="15.6">
+    <row r="8" spans="1:34" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2209,8 +2453,41 @@
       <c r="W8" t="s">
         <v>109</v>
       </c>
+      <c r="X8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" ht="15.6">
+    <row r="9" spans="1:34" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2280,8 +2557,41 @@
       <c r="W9">
         <v>1.06</v>
       </c>
+      <c r="X9">
+        <v>23.6</v>
+      </c>
+      <c r="Y9">
+        <v>2.44</v>
+      </c>
+      <c r="Z9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA9">
+        <v>0.78</v>
+      </c>
+      <c r="AB9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC9">
+        <v>0.4</v>
+      </c>
+      <c r="AD9">
+        <v>0.9</v>
+      </c>
+      <c r="AE9">
+        <v>0.45</v>
+      </c>
+      <c r="AF9">
+        <v>1.53</v>
+      </c>
+      <c r="AG9">
+        <v>1.4</v>
+      </c>
+      <c r="AH9">
+        <v>0.98</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" ht="15.6">
+    <row r="10" spans="1:34" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2351,8 +2661,41 @@
       <c r="W10" t="s">
         <v>110</v>
       </c>
+      <c r="X10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" ht="15.6">
+    <row r="11" spans="1:34" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2422,8 +2765,41 @@
       <c r="W11" t="s">
         <v>111</v>
       </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" ht="15.6">
+    <row r="12" spans="1:34" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2493,8 +2869,41 @@
       <c r="W12">
         <v>0.23</v>
       </c>
+      <c r="X12">
+        <v>68.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.62</v>
+      </c>
+      <c r="Z12">
+        <v>0.13</v>
+      </c>
+      <c r="AA12">
+        <v>0.15</v>
+      </c>
+      <c r="AB12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>0.12</v>
+      </c>
+      <c r="AD12">
+        <v>0.21</v>
+      </c>
+      <c r="AE12">
+        <v>0.23</v>
+      </c>
+      <c r="AF12">
+        <v>0.23</v>
+      </c>
+      <c r="AG12">
+        <v>0.16</v>
+      </c>
+      <c r="AH12">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" ht="15.6">
+    <row r="13" spans="1:34" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2564,8 +2973,41 @@
       <c r="W13" t="s">
         <v>112</v>
       </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" ht="15.6">
+    <row r="14" spans="1:34" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2635,8 +3077,41 @@
       <c r="W14" t="s">
         <v>113</v>
       </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" ht="15.6">
+    <row r="15" spans="1:34" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2706,8 +3181,41 @@
       <c r="W15">
         <v>0.25</v>
       </c>
+      <c r="X15">
+        <v>59</v>
+      </c>
+      <c r="Y15">
+        <v>0.36</v>
+      </c>
+      <c r="Z15">
+        <v>0.03</v>
+      </c>
+      <c r="AA15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB15">
+        <v>0.04</v>
+      </c>
+      <c r="AC15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD15">
+        <v>0.06</v>
+      </c>
+      <c r="AE15">
+        <v>0.06</v>
+      </c>
+      <c r="AF15">
+        <v>0.18</v>
+      </c>
+      <c r="AG15">
+        <v>0.42</v>
+      </c>
+      <c r="AH15">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" ht="15.6">
+    <row r="16" spans="1:34" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2777,8 +3285,41 @@
       <c r="W16" t="s">
         <v>114</v>
       </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" ht="15.6">
+    <row r="17" spans="1:34" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2848,8 +3389,41 @@
       <c r="W17" t="s">
         <v>115</v>
       </c>
+      <c r="X17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="15.6">
+    <row r="18" spans="1:34" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2919,8 +3493,41 @@
       <c r="W18">
         <v>0.01</v>
       </c>
+      <c r="X18">
+        <v>338</v>
+      </c>
+      <c r="Y18">
+        <v>0.04</v>
+      </c>
+      <c r="Z18">
+        <v>0.01</v>
+      </c>
+      <c r="AA18">
+        <v>0.03</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0.01</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0.02</v>
+      </c>
+      <c r="AH18">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="15.6">
+    <row r="19" spans="1:34" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2990,8 +3597,41 @@
       <c r="W19" t="s">
         <v>116</v>
       </c>
+      <c r="X19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" ht="15.6">
+    <row r="20" spans="1:34" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3061,8 +3701,41 @@
       <c r="W20" t="s">
         <v>117</v>
       </c>
+      <c r="X20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" ht="15.6">
+    <row r="21" spans="1:34" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3132,8 +3805,41 @@
       <c r="W21">
         <v>14.7</v>
       </c>
+      <c r="X21">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Y21">
+        <v>0.01</v>
+      </c>
+      <c r="Z21">
+        <v>14.5</v>
+      </c>
+      <c r="AA21">
+        <v>14.2</v>
+      </c>
+      <c r="AB21">
+        <v>14.6</v>
+      </c>
+      <c r="AC21">
+        <v>14.4</v>
+      </c>
+      <c r="AD21">
+        <v>14.2</v>
+      </c>
+      <c r="AE21">
+        <v>15.1</v>
+      </c>
+      <c r="AF21">
+        <v>14.5</v>
+      </c>
+      <c r="AG21">
+        <v>14.7</v>
+      </c>
+      <c r="AH21">
+        <v>15.2</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" ht="15.6">
+    <row r="22" spans="1:34" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3203,8 +3909,41 @@
       <c r="W22" t="s">
         <v>19</v>
       </c>
+      <c r="X22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" ht="15.6">
+    <row r="23" spans="1:34" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3274,8 +4013,41 @@
       <c r="W23" t="s">
         <v>118</v>
       </c>
+      <c r="X23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" ht="15.6">
+    <row r="24" spans="1:34" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -3345,8 +4117,41 @@
       <c r="W24">
         <v>55.4</v>
       </c>
+      <c r="X24">
+        <v>104.5</v>
+      </c>
+      <c r="Y24">
+        <v>14.9</v>
+      </c>
+      <c r="Z24">
+        <v>57.6</v>
+      </c>
+      <c r="AA24">
+        <v>56.5</v>
+      </c>
+      <c r="AB24">
+        <v>55.5</v>
+      </c>
+      <c r="AC24">
+        <v>55</v>
+      </c>
+      <c r="AD24">
+        <v>55</v>
+      </c>
+      <c r="AE24">
+        <v>58</v>
+      </c>
+      <c r="AF24">
+        <v>60.2</v>
+      </c>
+      <c r="AG24">
+        <v>53.2</v>
+      </c>
+      <c r="AH24">
+        <v>56.7</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" ht="15.6">
+    <row r="25" spans="1:34" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -3416,8 +4221,41 @@
       <c r="W25" t="s">
         <v>21</v>
       </c>
+      <c r="X25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" ht="15.6">
+    <row r="26" spans="1:34" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3487,8 +4325,41 @@
       <c r="W26" t="s">
         <v>119</v>
       </c>
+      <c r="X26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" ht="15.6">
+    <row r="27" spans="1:34" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -3558,8 +4429,41 @@
       <c r="W27">
         <v>15.9</v>
       </c>
+      <c r="X27">
+        <v>29.9</v>
+      </c>
+      <c r="Y27">
+        <v>62.8</v>
+      </c>
+      <c r="Z27">
+        <v>16</v>
+      </c>
+      <c r="AA27">
+        <v>16.3</v>
+      </c>
+      <c r="AB27">
+        <v>15</v>
+      </c>
+      <c r="AC27">
+        <v>15.3</v>
+      </c>
+      <c r="AD27">
+        <v>15.8</v>
+      </c>
+      <c r="AE27">
+        <v>17.2</v>
+      </c>
+      <c r="AF27">
+        <v>16.5</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" ht="15.6">
+    <row r="28" spans="1:34" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3629,8 +4533,41 @@
       <c r="W28" t="s">
         <v>11</v>
       </c>
+      <c r="X28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="15.6">
+    <row r="29" spans="1:34" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -3700,8 +4637,41 @@
       <c r="W29" t="s">
         <v>2</v>
       </c>
+      <c r="X29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="15.6">
+    <row r="30" spans="1:34" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -3771,8 +4741,41 @@
       <c r="W30">
         <v>11.4</v>
       </c>
+      <c r="X30">
+        <v>101</v>
+      </c>
+      <c r="Y30">
+        <v>15.7</v>
+      </c>
+      <c r="Z30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AA30">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AB30">
+        <v>8</v>
+      </c>
+      <c r="AC30">
+        <v>8.1</v>
+      </c>
+      <c r="AD30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE30">
+        <v>9.5</v>
+      </c>
+      <c r="AF30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" ht="15.6">
+    <row r="31" spans="1:34" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3842,8 +4845,41 @@
       <c r="W31" t="s">
         <v>3</v>
       </c>
+      <c r="X31" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" ht="15.6">
+    <row r="32" spans="1:34" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3913,8 +4949,41 @@
       <c r="W32" t="s">
         <v>8</v>
       </c>
+      <c r="X32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" ht="15.6">
+    <row r="33" spans="1:34" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -3984,8 +5053,41 @@
       <c r="W33">
         <v>0.06</v>
       </c>
+      <c r="X33">
+        <v>2.86</v>
+      </c>
+      <c r="Y33">
+        <v>7.8</v>
+      </c>
+      <c r="Z33">
+        <v>0.03</v>
+      </c>
+      <c r="AA33">
+        <v>0.03</v>
+      </c>
+      <c r="AB33">
+        <v>0.02</v>
+      </c>
+      <c r="AC33">
+        <v>0.02</v>
+      </c>
+      <c r="AD33">
+        <v>0.03</v>
+      </c>
+      <c r="AE33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF33">
+        <v>0.08</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" ht="15.6">
+    <row r="34" spans="1:34" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4055,8 +5157,41 @@
       <c r="W34" t="s">
         <v>9</v>
       </c>
+      <c r="X34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" ht="15.6">
+    <row r="35" spans="1:34" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -4126,8 +5261,41 @@
       <c r="W35" t="s">
         <v>120</v>
       </c>
+      <c r="X35" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="15.6">
+    <row r="36" spans="1:34" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -4197,8 +5365,41 @@
       <c r="W36">
         <v>0.2</v>
       </c>
+      <c r="X36">
+        <v>3.9</v>
+      </c>
+      <c r="Y36">
+        <v>0.02</v>
+      </c>
+      <c r="Z36">
+        <v>0.2</v>
+      </c>
+      <c r="AA36">
+        <v>0.6</v>
+      </c>
+      <c r="AB36">
+        <v>0.1</v>
+      </c>
+      <c r="AC36">
+        <v>0.3</v>
+      </c>
+      <c r="AD36">
+        <v>0.1</v>
+      </c>
+      <c r="AE36">
+        <v>0.1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0.3</v>
+      </c>
+      <c r="AH36">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="15.6">
+    <row r="37" spans="1:34" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4268,8 +5469,41 @@
       <c r="W37" t="s">
         <v>121</v>
       </c>
+      <c r="X37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" ht="15.6">
+    <row r="38" spans="1:34" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -4339,8 +5573,41 @@
       <c r="W38" t="s">
         <v>122</v>
       </c>
+      <c r="X38" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" ht="15.6">
+    <row r="39" spans="1:34" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -4410,8 +5677,41 @@
       <c r="W39">
         <v>4.0999999999999996</v>
       </c>
+      <c r="X39">
+        <v>0.3</v>
+      </c>
+      <c r="Y39">
+        <v>0.8</v>
+      </c>
+      <c r="Z39">
+        <v>0.8</v>
+      </c>
+      <c r="AA39">
+        <v>3.2</v>
+      </c>
+      <c r="AB39">
+        <v>1.3</v>
+      </c>
+      <c r="AC39">
+        <v>2.1</v>
+      </c>
+      <c r="AD39">
+        <v>1.4</v>
+      </c>
+      <c r="AE39">
+        <v>1.4</v>
+      </c>
+      <c r="AF39">
+        <v>2.9</v>
+      </c>
+      <c r="AG39">
+        <v>6.2</v>
+      </c>
+      <c r="AH39">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" ht="15.6">
+    <row r="40" spans="1:34" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4481,8 +5781,41 @@
       <c r="W40" t="s">
         <v>123</v>
       </c>
+      <c r="X40" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" ht="15.6">
+    <row r="41" spans="1:34" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4552,8 +5885,41 @@
       <c r="W41" t="s">
         <v>16</v>
       </c>
+      <c r="X41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" ht="15.6">
+    <row r="42" spans="1:34" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -4623,8 +5989,41 @@
       <c r="W42">
         <v>2.78</v>
       </c>
+      <c r="X42" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y42">
+        <v>8.1</v>
+      </c>
+      <c r="Z42">
+        <v>3.3</v>
+      </c>
+      <c r="AA42">
+        <v>3.4</v>
+      </c>
+      <c r="AB42">
+        <v>4.7</v>
+      </c>
+      <c r="AC42">
+        <v>3.5</v>
+      </c>
+      <c r="AD42">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AE42">
+        <v>5.4</v>
+      </c>
+      <c r="AF42">
+        <v>2.91</v>
+      </c>
+      <c r="AG42">
+        <v>2.85</v>
+      </c>
+      <c r="AH42">
+        <v>2.72</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" ht="15.6">
+    <row r="43" spans="1:34" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4694,8 +6093,41 @@
       <c r="W43" t="s">
         <v>124</v>
       </c>
+      <c r="X43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" ht="15.6">
+    <row r="44" spans="1:34" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4765,8 +6197,41 @@
       <c r="W44" t="s">
         <v>125</v>
       </c>
+      <c r="X44" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" ht="15.6">
+    <row r="45" spans="1:34" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -4836,8 +6301,41 @@
       <c r="W45">
         <v>97</v>
       </c>
+      <c r="X45" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y45">
+        <v>12.52</v>
+      </c>
+      <c r="Z45">
+        <v>3.86</v>
+      </c>
+      <c r="AA45">
+        <v>4.43</v>
+      </c>
+      <c r="AB45">
+        <v>3.07</v>
+      </c>
+      <c r="AC45">
+        <v>3.33</v>
+      </c>
+      <c r="AD45">
+        <v>85</v>
+      </c>
+      <c r="AE45">
+        <v>4.29</v>
+      </c>
+      <c r="AF45">
+        <v>100</v>
+      </c>
+      <c r="AG45">
+        <v>100</v>
+      </c>
+      <c r="AH45">
+        <v>97</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" ht="15.6">
+    <row r="46" spans="1:34" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -4907,8 +6405,41 @@
       <c r="W46" t="s">
         <v>126</v>
       </c>
+      <c r="X46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="47" spans="1:23" ht="15.6">
+    <row r="47" spans="1:34" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -4978,8 +6509,41 @@
       <c r="W47" t="s">
         <v>32</v>
       </c>
+      <c r="X47" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" ht="15.6">
+    <row r="48" spans="1:34" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -5049,8 +6613,41 @@
       <c r="W48">
         <v>30.3</v>
       </c>
+      <c r="X48" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y48">
+        <v>4.47</v>
+      </c>
+      <c r="Z48">
+        <v>2.65</v>
+      </c>
+      <c r="AA48">
+        <v>2.57</v>
+      </c>
+      <c r="AB48">
+        <v>2.58</v>
+      </c>
+      <c r="AC48">
+        <v>2.73</v>
+      </c>
+      <c r="AD48">
+        <v>25.4</v>
+      </c>
+      <c r="AE48">
+        <v>2.72</v>
+      </c>
+      <c r="AF48">
+        <v>31.5</v>
+      </c>
+      <c r="AG48">
+        <v>30.1</v>
+      </c>
+      <c r="AH48">
+        <v>29.2</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" ht="15.6">
+    <row r="49" spans="1:34" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5120,8 +6717,41 @@
       <c r="W49" t="s">
         <v>127</v>
       </c>
+      <c r="X49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" ht="15.6">
+    <row r="50" spans="1:34" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -5191,8 +6821,41 @@
       <c r="W50" t="s">
         <v>44</v>
       </c>
+      <c r="X50" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" ht="15.6">
+    <row r="51" spans="1:34" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -5262,8 +6925,41 @@
       <c r="W51">
         <v>109</v>
       </c>
+      <c r="X51">
+        <v>49.8</v>
+      </c>
+      <c r="Y51">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Z51">
+        <v>94</v>
+      </c>
+      <c r="AA51">
+        <v>93</v>
+      </c>
+      <c r="AB51">
+        <v>83</v>
+      </c>
+      <c r="AC51">
+        <v>87</v>
+      </c>
+      <c r="AD51">
+        <v>101.4</v>
+      </c>
+      <c r="AE51">
+        <v>95</v>
+      </c>
+      <c r="AF51">
+        <v>108.2</v>
+      </c>
+      <c r="AG51">
+        <v>105.6</v>
+      </c>
+      <c r="AH51">
+        <v>107.4</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" ht="15.6">
+    <row r="52" spans="1:34" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -5333,8 +7029,41 @@
       <c r="W52" t="s">
         <v>128</v>
       </c>
+      <c r="X52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" ht="15.6">
+    <row r="53" spans="1:34" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -5404,8 +7133,41 @@
       <c r="W53" t="s">
         <v>129</v>
       </c>
+      <c r="X53" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" ht="15.6">
+    <row r="54" spans="1:34" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -5475,8 +7237,41 @@
       <c r="W54">
         <v>34.9</v>
       </c>
+      <c r="X54">
+        <v>13.6</v>
+      </c>
+      <c r="Y54">
+        <v>87</v>
+      </c>
+      <c r="Z54">
+        <v>27.7</v>
+      </c>
+      <c r="AA54">
+        <v>26.8</v>
+      </c>
+      <c r="AB54">
+        <v>26.2</v>
+      </c>
+      <c r="AC54">
+        <v>28.1</v>
+      </c>
+      <c r="AD54">
+        <v>33.9</v>
+      </c>
+      <c r="AE54">
+        <v>28.9</v>
+      </c>
+      <c r="AF54">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AG54">
+        <v>35.1</v>
+      </c>
+      <c r="AH54">
+        <v>35.700000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" ht="15.6">
+    <row r="55" spans="1:34" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -5546,8 +7341,41 @@
       <c r="W55" t="s">
         <v>130</v>
       </c>
+      <c r="X55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" ht="15.6">
+    <row r="56" spans="1:34" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -5617,8 +7445,41 @@
       <c r="W56" t="s">
         <v>131</v>
       </c>
+      <c r="X56" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" ht="15.6">
+    <row r="57" spans="1:34" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -5688,8 +7549,41 @@
       <c r="W57">
         <v>320</v>
       </c>
+      <c r="X57">
+        <v>0.02</v>
+      </c>
+      <c r="Y57">
+        <v>27.5</v>
+      </c>
+      <c r="Z57">
+        <v>104.4</v>
+      </c>
+      <c r="AA57">
+        <v>104.2</v>
+      </c>
+      <c r="AB57">
+        <v>101.6</v>
+      </c>
+      <c r="AC57">
+        <v>102.7</v>
+      </c>
+      <c r="AD57">
+        <v>335</v>
+      </c>
+      <c r="AE57">
+        <v>106.3</v>
+      </c>
+      <c r="AF57">
+        <v>316</v>
+      </c>
+      <c r="AG57">
+        <v>332</v>
+      </c>
+      <c r="AH57">
+        <v>332</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" ht="15.6">
+    <row r="58" spans="1:34" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5759,8 +7653,41 @@
       <c r="W58" t="s">
         <v>132</v>
       </c>
+      <c r="X58" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" ht="15.6">
+    <row r="59" spans="1:34" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5830,8 +7757,41 @@
       <c r="W59" t="s">
         <v>133</v>
       </c>
+      <c r="X59" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" ht="15.6">
+    <row r="60" spans="1:34" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -5901,8 +7861,41 @@
       <c r="W60">
         <v>53</v>
       </c>
+      <c r="X60">
+        <v>0.25</v>
+      </c>
+      <c r="Y60">
+        <v>111.7</v>
+      </c>
+      <c r="Z60">
+        <v>35.5</v>
+      </c>
+      <c r="AA60">
+        <v>36.1</v>
+      </c>
+      <c r="AB60">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="AC60">
+        <v>31.8</v>
+      </c>
+      <c r="AD60">
+        <v>39</v>
+      </c>
+      <c r="AE60">
+        <v>35</v>
+      </c>
+      <c r="AF60">
+        <v>80</v>
+      </c>
+      <c r="AG60">
+        <v>73</v>
+      </c>
+      <c r="AH60">
+        <v>51</v>
+      </c>
     </row>
-    <row r="61" spans="1:23" ht="15.6">
+    <row r="61" spans="1:34" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -5972,8 +7965,41 @@
       <c r="W61" t="s">
         <v>134</v>
       </c>
+      <c r="X61" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:23" ht="15.6">
+    <row r="62" spans="1:34" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -6043,8 +8069,41 @@
       <c r="W62" t="s">
         <v>135</v>
       </c>
+      <c r="X62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="63" spans="1:23" ht="15.6">
+    <row r="63" spans="1:34" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -6114,8 +8173,41 @@
       <c r="W63">
         <v>74.7</v>
       </c>
+      <c r="X63">
+        <v>0.24</v>
+      </c>
+      <c r="Y63">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="Z63">
+        <v>340</v>
+      </c>
+      <c r="AA63">
+        <v>346</v>
+      </c>
+      <c r="AB63">
+        <v>317</v>
+      </c>
+      <c r="AC63">
+        <v>309</v>
+      </c>
+      <c r="AD63">
+        <v>74.3</v>
+      </c>
+      <c r="AE63">
+        <v>329</v>
+      </c>
+      <c r="AF63">
+        <v>68.8</v>
+      </c>
+      <c r="AG63">
+        <v>70.3</v>
+      </c>
+      <c r="AH63">
+        <v>73.900000000000006</v>
+      </c>
     </row>
-    <row r="64" spans="1:23" ht="15.6">
+    <row r="64" spans="1:34" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -6185,8 +8277,41 @@
       <c r="W64" t="s">
         <v>136</v>
       </c>
+      <c r="X64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="65" spans="1:23" ht="15.6">
+    <row r="65" spans="1:34" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -6256,8 +8381,41 @@
       <c r="W65" t="s">
         <v>137</v>
       </c>
+      <c r="X65" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="66" spans="1:23" ht="15.6">
+    <row r="66" spans="1:34" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -6327,8 +8485,41 @@
       <c r="W66">
         <v>17.2</v>
       </c>
+      <c r="X66">
+        <v>1.53</v>
+      </c>
+      <c r="Y66">
+        <v>316</v>
+      </c>
+      <c r="Z66">
+        <v>32</v>
+      </c>
+      <c r="AA66">
+        <v>34</v>
+      </c>
+      <c r="AB66">
+        <v>21</v>
+      </c>
+      <c r="AC66">
+        <v>23</v>
+      </c>
+      <c r="AD66">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>77</v>
+      </c>
+      <c r="AF66">
+        <v>24.7</v>
+      </c>
+      <c r="AG66">
+        <v>20.8</v>
+      </c>
+      <c r="AH66">
+        <v>16.600000000000001</v>
+      </c>
     </row>
-    <row r="67" spans="1:23" ht="15.6">
+    <row r="67" spans="1:34" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -6398,8 +8589,41 @@
       <c r="W67" t="s">
         <v>138</v>
       </c>
+      <c r="X67" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="68" spans="1:23" ht="15.6">
+    <row r="68" spans="1:34" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -6469,8 +8693,41 @@
       <c r="W68" t="s">
         <v>139</v>
       </c>
+      <c r="X68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="69" spans="1:23" ht="15.6">
+    <row r="69" spans="1:34" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -6540,8 +8797,41 @@
       <c r="W69">
         <v>3.8</v>
       </c>
+      <c r="X69">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Y69">
+        <v>33</v>
+      </c>
+      <c r="Z69">
+        <v>80.7</v>
+      </c>
+      <c r="AA69">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="AB69">
+        <v>84.6</v>
+      </c>
+      <c r="AC69">
+        <v>82.2</v>
+      </c>
+      <c r="AD69">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AE69">
+        <v>82.7</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>2.4</v>
+      </c>
+      <c r="AH69">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="70" spans="1:23" ht="15.6">
+    <row r="70" spans="1:34" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -6611,8 +8901,41 @@
       <c r="W70" t="s">
         <v>140</v>
       </c>
+      <c r="X70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="71" spans="1:23" ht="15.6">
+    <row r="71" spans="1:34" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -6682,8 +9005,41 @@
       <c r="W71" t="s">
         <v>12</v>
       </c>
+      <c r="X71" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="72" spans="1:23" ht="15.6">
+    <row r="72" spans="1:34" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -6753,8 +9109,41 @@
       <c r="W72">
         <v>36.299999999999997</v>
       </c>
+      <c r="X72">
+        <v>6.48</v>
+      </c>
+      <c r="Y72">
+        <v>54.6</v>
+      </c>
+      <c r="Z72">
+        <v>15</v>
+      </c>
+      <c r="AA72">
+        <v>17.7</v>
+      </c>
+      <c r="AB72">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC72">
+        <v>11.9</v>
+      </c>
+      <c r="AD72">
+        <v>20.6</v>
+      </c>
+      <c r="AE72">
+        <v>10.4</v>
+      </c>
+      <c r="AF72">
+        <v>31.7</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="73" spans="1:23" ht="15.6">
+    <row r="73" spans="1:34" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -6824,8 +9213,41 @@
       <c r="W73" t="s">
         <v>13</v>
       </c>
+      <c r="X73" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:23" ht="15.6">
+    <row r="74" spans="1:34" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -6847,8 +9269,26 @@
       <c r="O74" s="27" t="s">
         <v>101</v>
       </c>
+      <c r="Y74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="75" spans="1:23" ht="15">
+    <row r="75" spans="1:34" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -6870,8 +9310,26 @@
       <c r="O75" s="28">
         <v>4.62</v>
       </c>
+      <c r="Y75">
+        <v>36.4</v>
+      </c>
+      <c r="Z75">
+        <v>24.4</v>
+      </c>
+      <c r="AA75">
+        <v>28.8</v>
+      </c>
+      <c r="AB75">
+        <v>15.8</v>
+      </c>
+      <c r="AC75">
+        <v>18.8</v>
+      </c>
+      <c r="AE75">
+        <v>29.4</v>
+      </c>
     </row>
-    <row r="76" spans="1:23" ht="15.6">
+    <row r="76" spans="1:34" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -6893,8 +9351,42 @@
       <c r="O76" s="28" t="s">
         <v>102</v>
       </c>
+      <c r="Y76" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
+      <c r="Y77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
+      <c r="Y78">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
+      <c r="Y79" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -6909,10 +9401,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6944,7 +9436,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A24882-E9F1-174D-B269-878883B1A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963E693-2276-423C-AC73-6A80FF24C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="158">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1177,13 +1177,52 @@
   <si>
     <t>3.3～5.6</t>
   </si>
+  <si>
+    <t>1.8～6.3</t>
+  </si>
+  <si>
+    <t>1.2～7.0</t>
+  </si>
+  <si>
+    <t>0.12～0.93</t>
+  </si>
+  <si>
+    <t>0.00～0.68</t>
+  </si>
+  <si>
+    <t>0～0.07</t>
+  </si>
+  <si>
+    <t>4.4～11.9</t>
+  </si>
+  <si>
+    <t>4～5.5</t>
+  </si>
+  <si>
+    <t>112～149</t>
+  </si>
+  <si>
+    <t>34～43</t>
+  </si>
+  <si>
+    <t>310～355</t>
+  </si>
+  <si>
+    <t>188～472</t>
+  </si>
+  <si>
+    <t>23～69</t>
+  </si>
+  <si>
+    <t>22～65</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1243,22 +1282,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1270,37 +1309,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1632,30 +1671,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF57" sqref="AF57"/>
+    <sheetView tabSelected="1" topLeftCell="X58" workbookViewId="0">
+      <selection activeCell="AM76" sqref="AM76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.84375" customWidth="1"/>
+    <col min="11" max="12" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.4609375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="43.4609375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.84375" customWidth="1"/>
     <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:37">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1758,8 +1797,17 @@
       <c r="AH1" s="26">
         <v>44674</v>
       </c>
+      <c r="AI1" s="26">
+        <v>44695</v>
+      </c>
+      <c r="AJ1" s="26">
+        <v>44725</v>
+      </c>
+      <c r="AK1" s="26">
+        <v>44751</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="19">
+    <row r="2" spans="1:37" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1862,8 +1910,17 @@
       <c r="AH2" t="s">
         <v>105</v>
       </c>
+      <c r="AI2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="19">
+    <row r="3" spans="1:37" ht="15">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -1966,8 +2023,17 @@
       <c r="AH3">
         <v>5.91</v>
       </c>
+      <c r="AI3">
+        <v>6.65</v>
+      </c>
+      <c r="AJ3">
+        <v>0.86</v>
+      </c>
+      <c r="AK3">
+        <v>6.27</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="19">
+    <row r="4" spans="1:37" ht="15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2070,8 +2136,17 @@
       <c r="AH4" t="s">
         <v>106</v>
       </c>
+      <c r="AI4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" ht="19">
+    <row r="5" spans="1:37" ht="15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2249,17 @@
       <c r="AH5" t="s">
         <v>107</v>
       </c>
+      <c r="AI5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" ht="19">
+    <row r="6" spans="1:37" ht="15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2278,8 +2362,17 @@
       <c r="AH6">
         <v>4.37</v>
       </c>
+      <c r="AI6">
+        <v>4.93</v>
+      </c>
+      <c r="AJ6">
+        <v>3.5</v>
+      </c>
+      <c r="AK6">
+        <v>3.18</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" ht="19">
+    <row r="7" spans="1:37" ht="15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +2475,17 @@
       <c r="AH7" t="s">
         <v>108</v>
       </c>
+      <c r="AI7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" ht="19">
+    <row r="8" spans="1:37" ht="15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2486,8 +2588,17 @@
       <c r="AH8" t="s">
         <v>109</v>
       </c>
+      <c r="AI8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" ht="19">
+    <row r="9" spans="1:37" ht="15">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2590,8 +2701,17 @@
       <c r="AH9">
         <v>0.98</v>
       </c>
+      <c r="AI9">
+        <v>1.35</v>
+      </c>
+      <c r="AJ9">
+        <v>1.46</v>
+      </c>
+      <c r="AK9">
+        <v>2.42</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" ht="19">
+    <row r="10" spans="1:37" ht="15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2694,8 +2814,17 @@
       <c r="AH10" t="s">
         <v>110</v>
       </c>
+      <c r="AI10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" ht="19">
+    <row r="11" spans="1:37" ht="15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2798,8 +2927,17 @@
       <c r="AH11" t="s">
         <v>111</v>
       </c>
+      <c r="AI11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" ht="19">
+    <row r="12" spans="1:37" ht="15">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -2902,8 +3040,17 @@
       <c r="AH12">
         <v>0.27</v>
       </c>
+      <c r="AI12">
+        <v>0.1</v>
+      </c>
+      <c r="AJ12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK12">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" ht="19">
+    <row r="13" spans="1:37" ht="15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3006,8 +3153,17 @@
       <c r="AH13" t="s">
         <v>112</v>
       </c>
+      <c r="AI13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" ht="19">
+    <row r="14" spans="1:37" ht="15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3110,8 +3266,17 @@
       <c r="AH14" t="s">
         <v>113</v>
       </c>
+      <c r="AI14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" ht="19">
+    <row r="15" spans="1:37" ht="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3214,8 +3379,17 @@
       <c r="AH15">
         <v>0.27</v>
       </c>
+      <c r="AI15">
+        <v>0.26</v>
+      </c>
+      <c r="AJ15">
+        <v>0.18</v>
+      </c>
+      <c r="AK15">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" ht="19">
+    <row r="16" spans="1:37" ht="15">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3318,8 +3492,17 @@
       <c r="AH16" t="s">
         <v>114</v>
       </c>
+      <c r="AI16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" ht="19">
+    <row r="17" spans="1:37" ht="15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3422,8 +3605,17 @@
       <c r="AH17" t="s">
         <v>115</v>
       </c>
+      <c r="AI17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" ht="19">
+    <row r="18" spans="1:37" ht="15">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3526,8 +3718,17 @@
       <c r="AH18">
         <v>0.02</v>
       </c>
+      <c r="AI18">
+        <v>0.01</v>
+      </c>
+      <c r="AJ18">
+        <v>0.01</v>
+      </c>
+      <c r="AK18">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" ht="19">
+    <row r="19" spans="1:37" ht="15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3630,8 +3831,17 @@
       <c r="AH19" t="s">
         <v>116</v>
       </c>
+      <c r="AI19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" ht="19">
+    <row r="20" spans="1:37" ht="15">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3734,8 +3944,17 @@
       <c r="AH20" t="s">
         <v>117</v>
       </c>
+      <c r="AI20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" ht="19">
+    <row r="21" spans="1:37" ht="15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -3838,8 +4057,17 @@
       <c r="AH21">
         <v>15.2</v>
       </c>
+      <c r="AI21">
+        <v>14.8</v>
+      </c>
+      <c r="AJ21">
+        <v>13.9</v>
+      </c>
+      <c r="AK21">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" ht="19">
+    <row r="22" spans="1:37" ht="15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3942,8 +4170,17 @@
       <c r="AH22" t="s">
         <v>19</v>
       </c>
+      <c r="AI22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="19">
+    <row r="23" spans="1:37" ht="15">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4046,8 +4283,17 @@
       <c r="AH23" t="s">
         <v>118</v>
       </c>
+      <c r="AI23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" ht="19">
+    <row r="24" spans="1:37" ht="15">
       <c r="A24">
         <v>54</v>
       </c>
@@ -4150,8 +4396,17 @@
       <c r="AH24">
         <v>56.7</v>
       </c>
+      <c r="AI24">
+        <v>54.8</v>
+      </c>
+      <c r="AJ24">
+        <v>51.7</v>
+      </c>
+      <c r="AK24">
+        <v>59.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" ht="19">
+    <row r="25" spans="1:37" ht="15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4254,8 +4509,17 @@
       <c r="AH25" t="s">
         <v>21</v>
       </c>
+      <c r="AI25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" ht="19">
+    <row r="26" spans="1:37" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4358,8 +4622,17 @@
       <c r="AH26" t="s">
         <v>119</v>
       </c>
+      <c r="AI26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" ht="19">
+    <row r="27" spans="1:37" ht="15">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -4462,8 +4735,17 @@
       <c r="AH27" t="s">
         <v>142</v>
       </c>
+      <c r="AI27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ27">
+        <v>15.8</v>
+      </c>
+      <c r="AK27">
+        <v>16.100000000000001</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" ht="19">
+    <row r="28" spans="1:37" ht="15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4566,8 +4848,17 @@
       <c r="AH28" t="s">
         <v>11</v>
       </c>
+      <c r="AI28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" ht="19">
+    <row r="29" spans="1:37" ht="15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4670,8 +4961,17 @@
       <c r="AH29" t="s">
         <v>2</v>
       </c>
+      <c r="AI29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" ht="19">
+    <row r="30" spans="1:37" ht="15">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -4774,8 +5074,17 @@
       <c r="AH30" t="s">
         <v>142</v>
       </c>
+      <c r="AI30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ30">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AK30">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" ht="19">
+    <row r="31" spans="1:37" ht="15">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4878,8 +5187,17 @@
       <c r="AH31" t="s">
         <v>3</v>
       </c>
+      <c r="AI31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" ht="19">
+    <row r="32" spans="1:37" ht="15">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5300,17 @@
       <c r="AH32" t="s">
         <v>8</v>
       </c>
+      <c r="AI32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" ht="19">
+    <row r="33" spans="1:37" ht="15">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -5086,8 +5413,17 @@
       <c r="AH33" t="s">
         <v>142</v>
       </c>
+      <c r="AI33" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ33">
+        <v>0.06</v>
+      </c>
+      <c r="AK33">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" ht="19">
+    <row r="34" spans="1:37" ht="15">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5190,8 +5526,17 @@
       <c r="AH34" t="s">
         <v>9</v>
       </c>
+      <c r="AI34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" ht="19">
+    <row r="35" spans="1:37" ht="15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -5294,8 +5639,17 @@
       <c r="AH35" t="s">
         <v>120</v>
       </c>
+      <c r="AI35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" ht="19">
+    <row r="36" spans="1:37" ht="15">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -5398,8 +5752,17 @@
       <c r="AH36">
         <v>0.3</v>
       </c>
+      <c r="AI36">
+        <v>0.2</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1</v>
+      </c>
+      <c r="AK36">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" ht="19">
+    <row r="37" spans="1:37" ht="15">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -5502,8 +5865,17 @@
       <c r="AH37" t="s">
         <v>121</v>
       </c>
+      <c r="AI37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" ht="19">
+    <row r="38" spans="1:37" ht="15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -5606,8 +5978,17 @@
       <c r="AH38" t="s">
         <v>122</v>
       </c>
+      <c r="AI38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" ht="19">
+    <row r="39" spans="1:37" ht="15">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -5710,8 +6091,17 @@
       <c r="AH39">
         <v>4.5999999999999996</v>
       </c>
+      <c r="AI39">
+        <v>3.9</v>
+      </c>
+      <c r="AJ39">
+        <v>3.3</v>
+      </c>
+      <c r="AK39">
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" ht="19">
+    <row r="40" spans="1:37" ht="15">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -5814,8 +6204,17 @@
       <c r="AH40" t="s">
         <v>123</v>
       </c>
+      <c r="AI40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" ht="19">
+    <row r="41" spans="1:37" ht="15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -5918,8 +6317,17 @@
       <c r="AH41" t="s">
         <v>16</v>
       </c>
+      <c r="AI41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" ht="19">
+    <row r="42" spans="1:37" ht="15">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -6022,8 +6430,17 @@
       <c r="AH42">
         <v>2.72</v>
       </c>
+      <c r="AI42">
+        <v>2.9</v>
+      </c>
+      <c r="AJ42">
+        <v>2.7</v>
+      </c>
+      <c r="AK42">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" ht="19">
+    <row r="43" spans="1:37" ht="15">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -6126,8 +6543,17 @@
       <c r="AH43" t="s">
         <v>124</v>
       </c>
+      <c r="AI43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" ht="19">
+    <row r="44" spans="1:37" ht="15">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -6230,8 +6656,17 @@
       <c r="AH44" t="s">
         <v>125</v>
       </c>
+      <c r="AI44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" ht="19">
+    <row r="45" spans="1:37" ht="15">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -6334,8 +6769,17 @@
       <c r="AH45">
         <v>97</v>
       </c>
+      <c r="AI45">
+        <v>102</v>
+      </c>
+      <c r="AJ45">
+        <v>5.29</v>
+      </c>
+      <c r="AK45">
+        <v>106</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" ht="19">
+    <row r="46" spans="1:37" ht="15">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -6438,8 +6882,17 @@
       <c r="AH46" t="s">
         <v>126</v>
       </c>
+      <c r="AI46" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" ht="19">
+    <row r="47" spans="1:37" ht="15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -6542,8 +6995,17 @@
       <c r="AH47" t="s">
         <v>32</v>
       </c>
+      <c r="AI47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" ht="19">
+    <row r="48" spans="1:37" ht="15">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -6646,8 +7108,17 @@
       <c r="AH48">
         <v>29.2</v>
       </c>
+      <c r="AI48">
+        <v>31</v>
+      </c>
+      <c r="AJ48">
+        <v>2.98</v>
+      </c>
+      <c r="AK48">
+        <v>32.700000000000003</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" ht="19">
+    <row r="49" spans="1:37" ht="15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -6750,8 +7221,17 @@
       <c r="AH49" t="s">
         <v>127</v>
       </c>
+      <c r="AI49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" ht="19">
+    <row r="50" spans="1:37" ht="15">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -6854,8 +7334,17 @@
       <c r="AH50" t="s">
         <v>44</v>
       </c>
+      <c r="AI50" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" ht="19">
+    <row r="51" spans="1:37" ht="15">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -6958,8 +7447,17 @@
       <c r="AH51">
         <v>107.4</v>
       </c>
+      <c r="AI51">
+        <v>106.9</v>
+      </c>
+      <c r="AJ51">
+        <v>102</v>
+      </c>
+      <c r="AK51">
+        <v>105.8</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" ht="19">
+    <row r="52" spans="1:37" ht="15">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -7062,8 +7560,17 @@
       <c r="AH52" t="s">
         <v>128</v>
       </c>
+      <c r="AI52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" ht="19">
+    <row r="53" spans="1:37" ht="15">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -7166,8 +7673,17 @@
       <c r="AH53" t="s">
         <v>129</v>
       </c>
+      <c r="AI53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="54" spans="1:34" ht="19">
+    <row r="54" spans="1:37" ht="15">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -7270,8 +7786,17 @@
       <c r="AH54">
         <v>35.700000000000003</v>
       </c>
+      <c r="AI54">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AJ54">
+        <v>30.2</v>
+      </c>
+      <c r="AK54">
+        <v>34.200000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" ht="19">
+    <row r="55" spans="1:37" ht="15">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -7374,8 +7899,17 @@
       <c r="AH55" t="s">
         <v>130</v>
       </c>
+      <c r="AI55" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:34" ht="19">
+    <row r="56" spans="1:37" ht="15">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -7478,8 +8012,17 @@
       <c r="AH56" t="s">
         <v>131</v>
       </c>
+      <c r="AI56" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="57" spans="1:34" ht="19">
+    <row r="57" spans="1:37" ht="15">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -7582,8 +8125,17 @@
       <c r="AH57">
         <v>332</v>
       </c>
+      <c r="AI57">
+        <v>329</v>
+      </c>
+      <c r="AJ57">
+        <v>101.2</v>
+      </c>
+      <c r="AK57">
+        <v>323</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" ht="19">
+    <row r="58" spans="1:37" ht="15">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -7686,8 +8238,17 @@
       <c r="AH58" t="s">
         <v>132</v>
       </c>
+      <c r="AI58" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" ht="19">
+    <row r="59" spans="1:37" ht="15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -7790,8 +8351,17 @@
       <c r="AH59" t="s">
         <v>133</v>
       </c>
+      <c r="AI59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:34" ht="19">
+    <row r="60" spans="1:37" ht="15">
       <c r="A60">
         <v>99</v>
       </c>
@@ -7894,8 +8464,17 @@
       <c r="AH60">
         <v>51</v>
       </c>
+      <c r="AI60">
+        <v>58</v>
+      </c>
+      <c r="AJ60">
+        <v>34.1</v>
+      </c>
+      <c r="AK60">
+        <v>60</v>
+      </c>
     </row>
-    <row r="61" spans="1:34" ht="19">
+    <row r="61" spans="1:37" ht="15">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -7998,8 +8577,17 @@
       <c r="AH61" t="s">
         <v>134</v>
       </c>
+      <c r="AI61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:34" ht="19">
+    <row r="62" spans="1:37" ht="15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -8102,8 +8690,17 @@
       <c r="AH62" t="s">
         <v>135</v>
       </c>
+      <c r="AI62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" ht="19">
+    <row r="63" spans="1:37" ht="15">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -8206,8 +8803,17 @@
       <c r="AH63">
         <v>73.900000000000006</v>
       </c>
+      <c r="AI63">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="AJ63">
+        <v>337</v>
+      </c>
+      <c r="AK63">
+        <v>50.8</v>
+      </c>
     </row>
-    <row r="64" spans="1:34" ht="19">
+    <row r="64" spans="1:37" ht="15">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -8310,8 +8916,17 @@
       <c r="AH64" t="s">
         <v>136</v>
       </c>
+      <c r="AI64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="65" spans="1:34" ht="19">
+    <row r="65" spans="1:37" ht="15">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -8414,8 +9029,17 @@
       <c r="AH65" t="s">
         <v>137</v>
       </c>
+      <c r="AI65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="66" spans="1:34" ht="19">
+    <row r="66" spans="1:37" ht="15">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -8518,8 +9142,17 @@
       <c r="AH66">
         <v>16.600000000000001</v>
       </c>
+      <c r="AI66">
+        <v>20.3</v>
+      </c>
+      <c r="AJ66">
+        <v>63</v>
+      </c>
+      <c r="AK66">
+        <v>38.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:34" ht="19">
+    <row r="67" spans="1:37" ht="15">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -8622,8 +9255,17 @@
       <c r="AH67" t="s">
         <v>138</v>
       </c>
+      <c r="AI67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" ht="19">
+    <row r="68" spans="1:37" ht="15">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -8726,8 +9368,17 @@
       <c r="AH68" t="s">
         <v>139</v>
       </c>
+      <c r="AI68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="69" spans="1:34" ht="19">
+    <row r="69" spans="1:37" ht="15">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -8830,8 +9481,17 @@
       <c r="AH69">
         <v>4.5999999999999996</v>
       </c>
+      <c r="AI69">
+        <v>1.5</v>
+      </c>
+      <c r="AJ69">
+        <v>66.2</v>
+      </c>
+      <c r="AK69">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="70" spans="1:34" ht="19">
+    <row r="70" spans="1:37" ht="15">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -8934,8 +9594,17 @@
       <c r="AH70" t="s">
         <v>140</v>
       </c>
+      <c r="AI70" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="71" spans="1:34" ht="19">
+    <row r="71" spans="1:37" ht="15">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -9038,8 +9707,17 @@
       <c r="AH71" t="s">
         <v>12</v>
       </c>
+      <c r="AI71" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="72" spans="1:34" ht="19">
+    <row r="72" spans="1:37" ht="15">
       <c r="A72">
         <v>324</v>
       </c>
@@ -9142,8 +9820,17 @@
       <c r="AH72" t="s">
         <v>142</v>
       </c>
+      <c r="AI72" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ72">
+        <v>27.7</v>
+      </c>
+      <c r="AK72">
+        <v>26</v>
+      </c>
     </row>
-    <row r="73" spans="1:34" ht="19">
+    <row r="73" spans="1:37" ht="15">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -9246,8 +9933,17 @@
       <c r="AH73" t="s">
         <v>13</v>
       </c>
+      <c r="AI73" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="74" spans="1:34" ht="19">
+    <row r="74" spans="1:37" ht="15">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -9287,8 +9983,11 @@
       <c r="AE74" t="s">
         <v>12</v>
       </c>
+      <c r="AJ74" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="75" spans="1:34" ht="16">
+    <row r="75" spans="1:37" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -9328,8 +10027,11 @@
       <c r="AE75">
         <v>29.4</v>
       </c>
+      <c r="AJ75">
+        <v>29.2</v>
+      </c>
     </row>
-    <row r="76" spans="1:34" ht="19">
+    <row r="76" spans="1:37" ht="15">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -9369,18 +10071,21 @@
       <c r="AE76" t="s">
         <v>141</v>
       </c>
+      <c r="AJ76" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:37">
       <c r="Y77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:37">
       <c r="Y78">
         <v>14.5</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:37">
       <c r="Y79" t="s">
         <v>13</v>
       </c>
@@ -9401,10 +10106,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9436,7 +10141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963E693-2276-423C-AC73-6A80FF24C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D86FE-FBF0-8840-A8B8-E3E355F467AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AL$1:$AL$73</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="158">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1222,7 +1222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1282,22 +1282,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1309,37 +1309,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1671,30 +1671,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AL79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X58" workbookViewId="0">
-      <selection activeCell="AM76" sqref="AM76"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.84375" customWidth="1"/>
-    <col min="11" max="12" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.84375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.84375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.4609375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="43.4609375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.84375" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.83203125" customWidth="1"/>
+    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
     <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1806,8 +1806,11 @@
       <c r="AK1" s="26">
         <v>44751</v>
       </c>
+      <c r="AL1" s="26">
+        <v>44779</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" ht="15">
+    <row r="2" spans="1:38" ht="19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1919,8 +1922,11 @@
       <c r="AK2" t="s">
         <v>105</v>
       </c>
+      <c r="AL2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" ht="15">
+    <row r="3" spans="1:38" ht="19">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -2032,8 +2038,11 @@
       <c r="AK3">
         <v>6.27</v>
       </c>
+      <c r="AL3">
+        <v>6.08</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" ht="15">
+    <row r="4" spans="1:38" ht="19">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2145,8 +2154,11 @@
       <c r="AK4" t="s">
         <v>106</v>
       </c>
+      <c r="AL4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" ht="15">
+    <row r="5" spans="1:38" ht="19">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2258,8 +2270,11 @@
       <c r="AK5" t="s">
         <v>107</v>
       </c>
+      <c r="AL5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" ht="15">
+    <row r="6" spans="1:38" ht="19">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2371,8 +2386,11 @@
       <c r="AK6">
         <v>3.18</v>
       </c>
+      <c r="AL6">
+        <v>4.33</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" ht="15">
+    <row r="7" spans="1:38" ht="19">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2484,8 +2502,11 @@
       <c r="AK7" t="s">
         <v>108</v>
       </c>
+      <c r="AL7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" ht="15">
+    <row r="8" spans="1:38" ht="19">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2597,8 +2618,11 @@
       <c r="AK8" t="s">
         <v>109</v>
       </c>
+      <c r="AL8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" ht="15">
+    <row r="9" spans="1:38" ht="19">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2710,8 +2734,11 @@
       <c r="AK9">
         <v>2.42</v>
       </c>
+      <c r="AL9">
+        <v>1.29</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" ht="15">
+    <row r="10" spans="1:38" ht="19">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2823,8 +2850,11 @@
       <c r="AK10" t="s">
         <v>110</v>
       </c>
+      <c r="AL10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" ht="15">
+    <row r="11" spans="1:38" ht="19">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2936,8 +2966,11 @@
       <c r="AK11" t="s">
         <v>111</v>
       </c>
+      <c r="AL11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" ht="15">
+    <row r="12" spans="1:38" ht="19">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -3049,8 +3082,11 @@
       <c r="AK12">
         <v>0.26</v>
       </c>
+      <c r="AL12">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" ht="15">
+    <row r="13" spans="1:38" ht="19">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3162,8 +3198,11 @@
       <c r="AK13" t="s">
         <v>112</v>
       </c>
+      <c r="AL13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" ht="15">
+    <row r="14" spans="1:38" ht="19">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3275,8 +3314,11 @@
       <c r="AK14" t="s">
         <v>113</v>
       </c>
+      <c r="AL14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" ht="15">
+    <row r="15" spans="1:38" ht="19">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3388,8 +3430,11 @@
       <c r="AK15">
         <v>0.4</v>
       </c>
+      <c r="AL15">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" ht="15">
+    <row r="16" spans="1:38" ht="19">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3501,8 +3546,11 @@
       <c r="AK16" t="s">
         <v>114</v>
       </c>
+      <c r="AL16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" ht="15">
+    <row r="17" spans="1:38" ht="19">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3614,8 +3662,11 @@
       <c r="AK17" t="s">
         <v>115</v>
       </c>
+      <c r="AL17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" ht="15">
+    <row r="18" spans="1:38" ht="19">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3727,8 +3778,11 @@
       <c r="AK18">
         <v>0.01</v>
       </c>
+      <c r="AL18">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" ht="15">
+    <row r="19" spans="1:38" ht="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3840,8 +3894,11 @@
       <c r="AK19" t="s">
         <v>116</v>
       </c>
+      <c r="AL19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" ht="15">
+    <row r="20" spans="1:38" ht="19">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3953,8 +4010,11 @@
       <c r="AK20" t="s">
         <v>117</v>
       </c>
+      <c r="AL20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" ht="15">
+    <row r="21" spans="1:38" ht="19">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4066,8 +4126,11 @@
       <c r="AK21">
         <v>14.7</v>
       </c>
+      <c r="AL21">
+        <v>15</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" ht="15">
+    <row r="22" spans="1:38" ht="19">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4179,8 +4242,11 @@
       <c r="AK22" t="s">
         <v>19</v>
       </c>
+      <c r="AL22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" ht="15">
+    <row r="23" spans="1:38" ht="19">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4292,8 +4358,11 @@
       <c r="AK23" t="s">
         <v>118</v>
       </c>
+      <c r="AL23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" ht="15">
+    <row r="24" spans="1:38" ht="19">
       <c r="A24">
         <v>54</v>
       </c>
@@ -4405,8 +4474,11 @@
       <c r="AK24">
         <v>59.1</v>
       </c>
+      <c r="AL24">
+        <v>56.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" ht="15">
+    <row r="25" spans="1:38" ht="19">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4518,8 +4590,11 @@
       <c r="AK25" t="s">
         <v>21</v>
       </c>
+      <c r="AL25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" ht="15">
+    <row r="26" spans="1:38" ht="19">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4631,8 +4706,11 @@
       <c r="AK26" t="s">
         <v>119</v>
       </c>
+      <c r="AL26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" ht="15">
+    <row r="27" spans="1:38" ht="19">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -4744,8 +4822,11 @@
       <c r="AK27">
         <v>16.100000000000001</v>
       </c>
+      <c r="AL27" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" ht="15">
+    <row r="28" spans="1:38" ht="19">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4857,8 +4938,11 @@
       <c r="AK28" t="s">
         <v>11</v>
       </c>
+      <c r="AL28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" ht="15">
+    <row r="29" spans="1:38" ht="19">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -4970,8 +5054,11 @@
       <c r="AK29" t="s">
         <v>2</v>
       </c>
+      <c r="AL29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" ht="15">
+    <row r="30" spans="1:38" ht="19">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -5083,8 +5170,11 @@
       <c r="AK30">
         <v>9.1</v>
       </c>
+      <c r="AL30" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" ht="15">
+    <row r="31" spans="1:38" ht="19">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5196,8 +5286,11 @@
       <c r="AK31" t="s">
         <v>3</v>
       </c>
+      <c r="AL31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" ht="15">
+    <row r="32" spans="1:38" ht="19">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -5309,8 +5402,11 @@
       <c r="AK32" t="s">
         <v>8</v>
       </c>
+      <c r="AL32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" ht="15">
+    <row r="33" spans="1:38" ht="19">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -5422,8 +5518,11 @@
       <c r="AK33">
         <v>0.06</v>
       </c>
+      <c r="AL33" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" ht="15">
+    <row r="34" spans="1:38" ht="19">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5535,8 +5634,11 @@
       <c r="AK34" t="s">
         <v>9</v>
       </c>
+      <c r="AL34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" ht="15">
+    <row r="35" spans="1:38" ht="19">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -5648,8 +5750,11 @@
       <c r="AK35" t="s">
         <v>120</v>
       </c>
+      <c r="AL35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" ht="15">
+    <row r="36" spans="1:38" ht="19">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -5761,8 +5866,11 @@
       <c r="AK36">
         <v>0.2</v>
       </c>
+      <c r="AL36">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" ht="15">
+    <row r="37" spans="1:38" ht="19">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -5874,8 +5982,11 @@
       <c r="AK37" t="s">
         <v>121</v>
       </c>
+      <c r="AL37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" ht="15">
+    <row r="38" spans="1:38" ht="19">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -5987,8 +6098,11 @@
       <c r="AK38" t="s">
         <v>122</v>
       </c>
+      <c r="AL38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" ht="15">
+    <row r="39" spans="1:38" ht="19">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -6100,8 +6214,11 @@
       <c r="AK39">
         <v>6.4</v>
       </c>
+      <c r="AL39">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" ht="15">
+    <row r="40" spans="1:38" ht="19">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -6213,8 +6330,11 @@
       <c r="AK40" t="s">
         <v>123</v>
       </c>
+      <c r="AL40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" ht="15">
+    <row r="41" spans="1:38" ht="19">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6326,8 +6446,11 @@
       <c r="AK41" t="s">
         <v>16</v>
       </c>
+      <c r="AL41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" ht="15">
+    <row r="42" spans="1:38" ht="19">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -6439,8 +6562,11 @@
       <c r="AK42">
         <v>3.09</v>
       </c>
+      <c r="AL42">
+        <v>2.89</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" ht="15">
+    <row r="43" spans="1:38" ht="19">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -6552,8 +6678,11 @@
       <c r="AK43" t="s">
         <v>124</v>
       </c>
+      <c r="AL43" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" ht="15">
+    <row r="44" spans="1:38" ht="19">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -6665,8 +6794,11 @@
       <c r="AK44" t="s">
         <v>125</v>
       </c>
+      <c r="AL44" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" ht="15">
+    <row r="45" spans="1:38" ht="19">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -6778,8 +6910,11 @@
       <c r="AK45">
         <v>106</v>
       </c>
+      <c r="AL45">
+        <v>103</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" ht="15">
+    <row r="46" spans="1:38" ht="19">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -6891,8 +7026,11 @@
       <c r="AK46" t="s">
         <v>126</v>
       </c>
+      <c r="AL46" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" ht="15">
+    <row r="47" spans="1:38" ht="19">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7004,8 +7142,11 @@
       <c r="AK47" t="s">
         <v>32</v>
       </c>
+      <c r="AL47" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" ht="15">
+    <row r="48" spans="1:38" ht="19">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7117,8 +7258,11 @@
       <c r="AK48">
         <v>32.700000000000003</v>
       </c>
+      <c r="AL48">
+        <v>30.7</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" ht="15">
+    <row r="49" spans="1:38" ht="19">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -7230,8 +7374,11 @@
       <c r="AK49" t="s">
         <v>127</v>
       </c>
+      <c r="AL49" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" ht="15">
+    <row r="50" spans="1:38" ht="19">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7343,8 +7490,11 @@
       <c r="AK50" t="s">
         <v>44</v>
       </c>
+      <c r="AL50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" ht="15">
+    <row r="51" spans="1:38" ht="19">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -7456,8 +7606,11 @@
       <c r="AK51">
         <v>105.8</v>
       </c>
+      <c r="AL51">
+        <v>106.2</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" ht="15">
+    <row r="52" spans="1:38" ht="19">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -7569,8 +7722,11 @@
       <c r="AK52" t="s">
         <v>128</v>
       </c>
+      <c r="AL52" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" ht="15">
+    <row r="53" spans="1:38" ht="19">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -7682,8 +7838,11 @@
       <c r="AK53" t="s">
         <v>129</v>
       </c>
+      <c r="AL53" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" ht="15">
+    <row r="54" spans="1:38" ht="19">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -7795,8 +7954,11 @@
       <c r="AK54">
         <v>34.200000000000003</v>
       </c>
+      <c r="AL54">
+        <v>35.6</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" ht="15">
+    <row r="55" spans="1:38" ht="19">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -7908,8 +8070,11 @@
       <c r="AK55" t="s">
         <v>130</v>
       </c>
+      <c r="AL55" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" ht="15">
+    <row r="56" spans="1:38" ht="19">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -8021,8 +8186,11 @@
       <c r="AK56" t="s">
         <v>131</v>
       </c>
+      <c r="AL56" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" ht="15">
+    <row r="57" spans="1:38" ht="19">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -8134,8 +8302,11 @@
       <c r="AK57">
         <v>323</v>
       </c>
+      <c r="AL57">
+        <v>336</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" ht="15">
+    <row r="58" spans="1:38" ht="19">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -8247,8 +8418,11 @@
       <c r="AK58" t="s">
         <v>132</v>
       </c>
+      <c r="AL58" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" ht="15">
+    <row r="59" spans="1:38" ht="19">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -8360,8 +8534,11 @@
       <c r="AK59" t="s">
         <v>133</v>
       </c>
+      <c r="AL59" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" ht="15">
+    <row r="60" spans="1:38" ht="19">
       <c r="A60">
         <v>99</v>
       </c>
@@ -8473,8 +8650,11 @@
       <c r="AK60">
         <v>60</v>
       </c>
+      <c r="AL60">
+        <v>54</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" ht="15">
+    <row r="61" spans="1:38" ht="19">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -8586,8 +8766,11 @@
       <c r="AK61" t="s">
         <v>134</v>
       </c>
+      <c r="AL61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" ht="15">
+    <row r="62" spans="1:38" ht="19">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -8699,8 +8882,11 @@
       <c r="AK62" t="s">
         <v>135</v>
       </c>
+      <c r="AL62" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" ht="15">
+    <row r="63" spans="1:38" ht="19">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -8812,8 +8998,11 @@
       <c r="AK63">
         <v>50.8</v>
       </c>
+      <c r="AL63">
+        <v>71.2</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" ht="15">
+    <row r="64" spans="1:38" ht="19">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -8925,8 +9114,11 @@
       <c r="AK64" t="s">
         <v>136</v>
       </c>
+      <c r="AL64" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" ht="15">
+    <row r="65" spans="1:38" ht="19">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -9038,8 +9230,11 @@
       <c r="AK65" t="s">
         <v>137</v>
       </c>
+      <c r="AL65" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" ht="15">
+    <row r="66" spans="1:38" ht="19">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -9151,8 +9346,11 @@
       <c r="AK66">
         <v>38.5</v>
       </c>
+      <c r="AL66">
+        <v>21.2</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" ht="15">
+    <row r="67" spans="1:38" ht="19">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -9264,8 +9462,11 @@
       <c r="AK67" t="s">
         <v>138</v>
       </c>
+      <c r="AL67" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" ht="15">
+    <row r="68" spans="1:38" ht="19">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -9377,8 +9578,11 @@
       <c r="AK68" t="s">
         <v>139</v>
       </c>
+      <c r="AL68" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" ht="15">
+    <row r="69" spans="1:38" ht="19">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -9490,8 +9694,11 @@
       <c r="AK69">
         <v>4.0999999999999996</v>
       </c>
+      <c r="AL69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" ht="15">
+    <row r="70" spans="1:38" ht="19">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -9603,8 +9810,11 @@
       <c r="AK70" t="s">
         <v>140</v>
       </c>
+      <c r="AL70" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" ht="15">
+    <row r="71" spans="1:38" ht="19">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -9716,8 +9926,11 @@
       <c r="AK71" t="s">
         <v>12</v>
       </c>
+      <c r="AL71" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" ht="15">
+    <row r="72" spans="1:38" ht="19">
       <c r="A72">
         <v>324</v>
       </c>
@@ -9829,8 +10042,11 @@
       <c r="AK72">
         <v>26</v>
       </c>
+      <c r="AL72" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" ht="15">
+    <row r="73" spans="1:38" ht="19">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -9942,8 +10158,11 @@
       <c r="AK73" t="s">
         <v>141</v>
       </c>
+      <c r="AL73" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" ht="15">
+    <row r="74" spans="1:38" ht="19">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -9987,7 +10206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15">
+    <row r="75" spans="1:38" ht="16">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -10031,7 +10250,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15">
+    <row r="76" spans="1:38" ht="19">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -10075,23 +10294,23 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:38">
       <c r="Y77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:38">
       <c r="Y78">
         <v>14.5</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:38">
       <c r="Y79" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="AL1:AL73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -10106,10 +10325,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10141,7 +10360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D86FE-FBF0-8840-A8B8-E3E355F467AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E9C8C-2959-4E5D-9AEE-B4F656271C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AL$1:$AL$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AM$1:$AO$79</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="158">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1222,7 +1222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1282,22 +1282,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1309,37 +1309,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1671,30 +1671,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL79"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.83203125" customWidth="1"/>
-    <col min="11" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.77734375" customWidth="1"/>
     <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:41">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1809,8 +1809,17 @@
       <c r="AL1" s="26">
         <v>44779</v>
       </c>
+      <c r="AM1" s="26">
+        <v>44783</v>
+      </c>
+      <c r="AN1" s="26">
+        <v>44785</v>
+      </c>
+      <c r="AO1" s="26">
+        <v>44793</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" ht="19">
+    <row r="2" spans="1:41" ht="15.6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +1934,17 @@
       <c r="AL2" t="s">
         <v>105</v>
       </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="19">
+    <row r="3" spans="1:41" ht="15.6">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -2041,8 +2059,17 @@
       <c r="AL3">
         <v>6.08</v>
       </c>
+      <c r="AM3">
+        <v>5.46</v>
+      </c>
+      <c r="AN3">
+        <v>5.72</v>
+      </c>
+      <c r="AO3">
+        <v>7.83</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" ht="19">
+    <row r="4" spans="1:41" ht="15.6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2157,8 +2184,17 @@
       <c r="AL4" t="s">
         <v>106</v>
       </c>
+      <c r="AM4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" ht="19">
+    <row r="5" spans="1:41" ht="15.6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2273,8 +2309,17 @@
       <c r="AL5" t="s">
         <v>107</v>
       </c>
+      <c r="AM5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" ht="19">
+    <row r="6" spans="1:41" ht="15.6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2389,8 +2434,17 @@
       <c r="AL6">
         <v>4.33</v>
       </c>
+      <c r="AM6">
+        <v>1.56</v>
+      </c>
+      <c r="AN6">
+        <v>2.33</v>
+      </c>
+      <c r="AO6">
+        <v>4.28</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" ht="19">
+    <row r="7" spans="1:41" ht="15.6">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2559,17 @@
       <c r="AL7" t="s">
         <v>108</v>
       </c>
+      <c r="AM7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" ht="19">
+    <row r="8" spans="1:41" ht="15.6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2621,8 +2684,17 @@
       <c r="AL8" t="s">
         <v>109</v>
       </c>
+      <c r="AM8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" ht="19">
+    <row r="9" spans="1:41" ht="15.6">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2737,8 +2809,17 @@
       <c r="AL9">
         <v>1.29</v>
       </c>
+      <c r="AM9">
+        <v>0.9</v>
+      </c>
+      <c r="AN9">
+        <v>0.7</v>
+      </c>
+      <c r="AO9">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" ht="19">
+    <row r="10" spans="1:41" ht="15.6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2853,8 +2934,17 @@
       <c r="AL10" t="s">
         <v>110</v>
       </c>
+      <c r="AM10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" ht="19">
+    <row r="11" spans="1:41" ht="15.6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2969,8 +3059,17 @@
       <c r="AL11" t="s">
         <v>111</v>
       </c>
+      <c r="AM11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="19">
+    <row r="12" spans="1:41" ht="15.6">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -3085,8 +3184,17 @@
       <c r="AL12">
         <v>0.18</v>
       </c>
+      <c r="AM12">
+        <v>0.22</v>
+      </c>
+      <c r="AN12">
+        <v>0.11</v>
+      </c>
+      <c r="AO12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="19">
+    <row r="13" spans="1:41" ht="15.6">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3201,8 +3309,17 @@
       <c r="AL13" t="s">
         <v>112</v>
       </c>
+      <c r="AM13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="19">
+    <row r="14" spans="1:41" ht="15.6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3317,8 +3434,17 @@
       <c r="AL14" t="s">
         <v>113</v>
       </c>
+      <c r="AM14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" ht="19">
+    <row r="15" spans="1:41" ht="15.6">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3433,8 +3559,17 @@
       <c r="AL15">
         <v>0.26</v>
       </c>
+      <c r="AM15">
+        <v>0.02</v>
+      </c>
+      <c r="AN15">
+        <v>0.03</v>
+      </c>
+      <c r="AO15">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" ht="19">
+    <row r="16" spans="1:41" ht="15.6">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3549,8 +3684,17 @@
       <c r="AL16" t="s">
         <v>114</v>
       </c>
+      <c r="AM16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" ht="19">
+    <row r="17" spans="1:41" ht="15.6">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3665,8 +3809,17 @@
       <c r="AL17" t="s">
         <v>115</v>
       </c>
+      <c r="AM17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" ht="19">
+    <row r="18" spans="1:41" ht="15.6">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3781,8 +3934,17 @@
       <c r="AL18">
         <v>0.02</v>
       </c>
+      <c r="AM18">
+        <v>0.01</v>
+      </c>
+      <c r="AN18">
+        <v>0.01</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="19">
+    <row r="19" spans="1:41" ht="15.6">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3897,8 +4059,17 @@
       <c r="AL19" t="s">
         <v>116</v>
       </c>
+      <c r="AM19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="19">
+    <row r="20" spans="1:41" ht="15.6">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4013,8 +4184,17 @@
       <c r="AL20" t="s">
         <v>117</v>
       </c>
+      <c r="AM20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="19">
+    <row r="21" spans="1:41" ht="15.6">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4129,8 +4309,17 @@
       <c r="AL21">
         <v>15</v>
       </c>
+      <c r="AM21">
+        <v>15.3</v>
+      </c>
+      <c r="AN21">
+        <v>15.7</v>
+      </c>
+      <c r="AO21">
+        <v>14.2</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="19">
+    <row r="22" spans="1:41" ht="15.6">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4245,8 +4434,17 @@
       <c r="AL22" t="s">
         <v>19</v>
       </c>
+      <c r="AM22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="19">
+    <row r="23" spans="1:41" ht="15.6">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4361,8 +4559,17 @@
       <c r="AL23" t="s">
         <v>118</v>
       </c>
+      <c r="AM23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" ht="19">
+    <row r="24" spans="1:41" ht="15.6">
       <c r="A24">
         <v>54</v>
       </c>
@@ -4477,8 +4684,17 @@
       <c r="AL24">
         <v>56.6</v>
       </c>
+      <c r="AM24">
+        <v>61</v>
+      </c>
+      <c r="AN24">
+        <v>62.4</v>
+      </c>
+      <c r="AO24">
+        <v>55.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" ht="19">
+    <row r="25" spans="1:41" ht="15.6">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4593,8 +4809,17 @@
       <c r="AL25" t="s">
         <v>21</v>
       </c>
+      <c r="AM25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" ht="19">
+    <row r="26" spans="1:41" ht="15.6">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4709,8 +4934,17 @@
       <c r="AL26" t="s">
         <v>119</v>
       </c>
+      <c r="AM26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" ht="19">
+    <row r="27" spans="1:41" ht="15.6">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -4825,8 +5059,17 @@
       <c r="AL27" t="s">
         <v>142</v>
       </c>
+      <c r="AM27">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AN27">
+        <v>16.8</v>
+      </c>
+      <c r="AO27">
+        <v>15.9</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" ht="19">
+    <row r="28" spans="1:41" ht="15.6">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4941,8 +5184,17 @@
       <c r="AL28" t="s">
         <v>11</v>
       </c>
+      <c r="AM28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="19">
+    <row r="29" spans="1:41" ht="15.6">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5057,8 +5309,17 @@
       <c r="AL29" t="s">
         <v>2</v>
       </c>
+      <c r="AM29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="19">
+    <row r="30" spans="1:41" ht="15.6">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -5173,8 +5434,17 @@
       <c r="AL30" t="s">
         <v>142</v>
       </c>
+      <c r="AM30">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AN30">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AO30">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" ht="19">
+    <row r="31" spans="1:41" ht="15.6">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5559,17 @@
       <c r="AL31" t="s">
         <v>3</v>
       </c>
+      <c r="AM31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="19">
+    <row r="32" spans="1:41" ht="15.6">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -5405,8 +5684,17 @@
       <c r="AL32" t="s">
         <v>8</v>
       </c>
+      <c r="AM32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" ht="19">
+    <row r="33" spans="1:41" ht="15.6">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -5521,8 +5809,17 @@
       <c r="AL33" t="s">
         <v>142</v>
       </c>
+      <c r="AM33">
+        <v>0.03</v>
+      </c>
+      <c r="AN33">
+        <v>0.04</v>
+      </c>
+      <c r="AO33">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" ht="19">
+    <row r="34" spans="1:41" ht="15.6">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5637,8 +5934,17 @@
       <c r="AL34" t="s">
         <v>9</v>
       </c>
+      <c r="AM34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="19">
+    <row r="35" spans="1:41" ht="15.6">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -5753,8 +6059,17 @@
       <c r="AL35" t="s">
         <v>120</v>
       </c>
+      <c r="AM35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="19">
+    <row r="36" spans="1:41" ht="15.6">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -5869,8 +6184,17 @@
       <c r="AL36">
         <v>0.3</v>
       </c>
+      <c r="AM36">
+        <v>0.2</v>
+      </c>
+      <c r="AN36">
+        <v>0.2</v>
+      </c>
+      <c r="AO36">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" ht="19">
+    <row r="37" spans="1:41" ht="15.6">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -5985,8 +6309,17 @@
       <c r="AL37" t="s">
         <v>121</v>
       </c>
+      <c r="AM37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" ht="19">
+    <row r="38" spans="1:41" ht="15.6">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -6101,8 +6434,17 @@
       <c r="AL38" t="s">
         <v>122</v>
       </c>
+      <c r="AM38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" ht="19">
+    <row r="39" spans="1:41" ht="15.6">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -6217,8 +6559,17 @@
       <c r="AL39">
         <v>4.3</v>
       </c>
+      <c r="AM39">
+        <v>0.7</v>
+      </c>
+      <c r="AN39">
+        <v>0.8</v>
+      </c>
+      <c r="AO39">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" ht="19">
+    <row r="40" spans="1:41" ht="15.6">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -6333,8 +6684,17 @@
       <c r="AL40" t="s">
         <v>123</v>
       </c>
+      <c r="AM40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" ht="19">
+    <row r="41" spans="1:41" ht="15.6">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6449,8 +6809,17 @@
       <c r="AL41" t="s">
         <v>16</v>
       </c>
+      <c r="AM41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" ht="19">
+    <row r="42" spans="1:41" ht="15.6">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -6565,8 +6934,17 @@
       <c r="AL42">
         <v>2.89</v>
       </c>
+      <c r="AM42">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AN42">
+        <v>3.4</v>
+      </c>
+      <c r="AO42">
+        <v>2.92</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" ht="19">
+    <row r="43" spans="1:41" ht="15.6">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -6681,8 +7059,17 @@
       <c r="AL43" t="s">
         <v>124</v>
       </c>
+      <c r="AM43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" ht="19">
+    <row r="44" spans="1:41" ht="15.6">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -6797,8 +7184,17 @@
       <c r="AL44" t="s">
         <v>125</v>
       </c>
+      <c r="AM44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" ht="19">
+    <row r="45" spans="1:41" ht="15.6">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -6913,8 +7309,17 @@
       <c r="AL45">
         <v>103</v>
       </c>
+      <c r="AM45">
+        <v>2.71</v>
+      </c>
+      <c r="AN45">
+        <v>3.18</v>
+      </c>
+      <c r="AO45">
+        <v>100</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" ht="19">
+    <row r="46" spans="1:41" ht="15.6">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -7029,8 +7434,17 @@
       <c r="AL46" t="s">
         <v>126</v>
       </c>
+      <c r="AM46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" ht="19">
+    <row r="47" spans="1:41" ht="15.6">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7145,8 +7559,17 @@
       <c r="AL47" t="s">
         <v>32</v>
       </c>
+      <c r="AM47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" ht="19">
+    <row r="48" spans="1:41" ht="15.6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7261,8 +7684,17 @@
       <c r="AL48">
         <v>30.7</v>
       </c>
+      <c r="AM48">
+        <v>2.98</v>
+      </c>
+      <c r="AN48">
+        <v>3.06</v>
+      </c>
+      <c r="AO48">
+        <v>30.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" ht="19">
+    <row r="49" spans="1:41" ht="15.6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -7377,8 +7809,17 @@
       <c r="AL49" t="s">
         <v>127</v>
       </c>
+      <c r="AM49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" ht="19">
+    <row r="50" spans="1:41" ht="15.6">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7493,8 +7934,17 @@
       <c r="AL50" t="s">
         <v>44</v>
       </c>
+      <c r="AM50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" ht="19">
+    <row r="51" spans="1:41" ht="15.6">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -7609,8 +8059,17 @@
       <c r="AL51">
         <v>106.2</v>
       </c>
+      <c r="AM51">
+        <v>107</v>
+      </c>
+      <c r="AN51">
+        <v>106</v>
+      </c>
+      <c r="AO51">
+        <v>106</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" ht="19">
+    <row r="52" spans="1:41" ht="15.6">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -7725,8 +8184,17 @@
       <c r="AL52" t="s">
         <v>128</v>
       </c>
+      <c r="AM52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" ht="19">
+    <row r="53" spans="1:41" ht="15.6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -7841,8 +8309,17 @@
       <c r="AL53" t="s">
         <v>129</v>
       </c>
+      <c r="AM53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" ht="19">
+    <row r="54" spans="1:41" ht="15.6">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -7957,8 +8434,17 @@
       <c r="AL54">
         <v>35.6</v>
       </c>
+      <c r="AM54">
+        <v>31.5</v>
+      </c>
+      <c r="AN54">
+        <v>33</v>
+      </c>
+      <c r="AO54">
+        <v>34.200000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" ht="19">
+    <row r="55" spans="1:41" ht="15.6">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -8073,8 +8559,17 @@
       <c r="AL55" t="s">
         <v>130</v>
       </c>
+      <c r="AM55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" ht="19">
+    <row r="56" spans="1:41" ht="15.6">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -8189,8 +8684,17 @@
       <c r="AL56" t="s">
         <v>131</v>
       </c>
+      <c r="AM56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" ht="19">
+    <row r="57" spans="1:41" ht="15.6">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -8305,8 +8809,17 @@
       <c r="AL57">
         <v>336</v>
       </c>
+      <c r="AM57">
+        <v>105.8</v>
+      </c>
+      <c r="AN57">
+        <v>108.1</v>
+      </c>
+      <c r="AO57">
+        <v>322</v>
+      </c>
     </row>
-    <row r="58" spans="1:38" ht="19">
+    <row r="58" spans="1:41" ht="15.6">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -8421,8 +8934,17 @@
       <c r="AL58" t="s">
         <v>132</v>
       </c>
+      <c r="AM58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" ht="19">
+    <row r="59" spans="1:41" ht="15.6">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -8537,8 +9059,17 @@
       <c r="AL59" t="s">
         <v>133</v>
       </c>
+      <c r="AM59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" ht="19">
+    <row r="60" spans="1:41" ht="15.6">
       <c r="A60">
         <v>99</v>
       </c>
@@ -8653,8 +9184,17 @@
       <c r="AL60">
         <v>54</v>
       </c>
+      <c r="AM60">
+        <v>35.9</v>
+      </c>
+      <c r="AN60">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AO60">
+        <v>51</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" ht="19">
+    <row r="61" spans="1:41" ht="15.6">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -8769,8 +9309,17 @@
       <c r="AL61" t="s">
         <v>134</v>
       </c>
+      <c r="AM61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" ht="19">
+    <row r="62" spans="1:41" ht="15.6">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -8885,8 +9434,17 @@
       <c r="AL62" t="s">
         <v>135</v>
       </c>
+      <c r="AM62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" ht="19">
+    <row r="63" spans="1:41" ht="15.6">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -9001,8 +9559,17 @@
       <c r="AL63">
         <v>71.2</v>
       </c>
+      <c r="AM63">
+        <v>340</v>
+      </c>
+      <c r="AN63">
+        <v>322</v>
+      </c>
+      <c r="AO63">
+        <v>54.6</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" ht="19">
+    <row r="64" spans="1:41" ht="15.6">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9117,8 +9684,17 @@
       <c r="AL64" t="s">
         <v>136</v>
       </c>
+      <c r="AM64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" ht="19">
+    <row r="65" spans="1:41" ht="15.6">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -9233,8 +9809,17 @@
       <c r="AL65" t="s">
         <v>137</v>
       </c>
+      <c r="AM65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" ht="19">
+    <row r="66" spans="1:41" ht="15.6">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -9349,8 +9934,17 @@
       <c r="AL66">
         <v>21.2</v>
       </c>
+      <c r="AM66">
+        <v>36</v>
+      </c>
+      <c r="AN66">
+        <v>36</v>
+      </c>
+      <c r="AO66">
+        <v>39.4</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" ht="19">
+    <row r="67" spans="1:41" ht="15.6">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -9465,8 +10059,17 @@
       <c r="AL67" t="s">
         <v>138</v>
       </c>
+      <c r="AM67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" ht="19">
+    <row r="68" spans="1:41" ht="15.6">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -9581,8 +10184,17 @@
       <c r="AL68" t="s">
         <v>139</v>
       </c>
+      <c r="AM68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" ht="19">
+    <row r="69" spans="1:41" ht="15.6">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -9697,8 +10309,17 @@
       <c r="AL69">
         <v>3</v>
       </c>
+      <c r="AM69">
+        <v>57.7</v>
+      </c>
+      <c r="AN69">
+        <v>73.7</v>
+      </c>
+      <c r="AO69">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" ht="19">
+    <row r="70" spans="1:41" ht="15.6">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -9813,8 +10434,17 @@
       <c r="AL70" t="s">
         <v>140</v>
       </c>
+      <c r="AM70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" ht="19">
+    <row r="71" spans="1:41" ht="15.6">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -9929,8 +10559,17 @@
       <c r="AL71" t="s">
         <v>12</v>
       </c>
+      <c r="AM71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" ht="19">
+    <row r="72" spans="1:41" ht="15.6">
       <c r="A72">
         <v>324</v>
       </c>
@@ -10045,8 +10684,17 @@
       <c r="AL72" t="s">
         <v>142</v>
       </c>
+      <c r="AM72">
+        <v>33.1</v>
+      </c>
+      <c r="AN72">
+        <v>21.9</v>
+      </c>
+      <c r="AO72">
+        <v>20.399999999999999</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" ht="19">
+    <row r="73" spans="1:41" ht="15.6">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -10161,8 +10809,17 @@
       <c r="AL73" t="s">
         <v>13</v>
       </c>
+      <c r="AM73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" ht="19">
+    <row r="74" spans="1:41" ht="15.6">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -10205,8 +10862,14 @@
       <c r="AJ74" t="s">
         <v>12</v>
       </c>
+      <c r="AM74" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" ht="16">
+    <row r="75" spans="1:41" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -10249,8 +10912,14 @@
       <c r="AJ75">
         <v>29.2</v>
       </c>
+      <c r="AM75">
+        <v>27.4</v>
+      </c>
+      <c r="AN75">
+        <v>32.1</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" ht="19">
+    <row r="76" spans="1:41" ht="15.6">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -10293,24 +10962,29 @@
       <c r="AJ76" t="s">
         <v>141</v>
       </c>
+      <c r="AM76" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:41">
       <c r="Y77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:41">
       <c r="Y78">
         <v>14.5</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:41">
       <c r="Y79" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="AL1:AL73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
@@ -10325,10 +10999,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10360,7 +11034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E9C8C-2959-4E5D-9AEE-B4F656271C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A729A4-B5B3-4485-BBDA-EEBED2CECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="158">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1671,30 +1671,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="12" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="43.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="27.765625" customWidth="1"/>
+    <col min="11" max="12" width="30.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.07421875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.4609375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.07421875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="37.765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="43.4609375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.765625" customWidth="1"/>
     <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1818,8 +1818,11 @@
       <c r="AO1" s="26">
         <v>44793</v>
       </c>
+      <c r="AP1" s="26">
+        <v>44800</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" ht="15.6">
+    <row r="2" spans="1:42" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1943,8 +1946,11 @@
       <c r="AO2" t="s">
         <v>105</v>
       </c>
+      <c r="AP2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" ht="15.6">
+    <row r="3" spans="1:42" ht="15">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -2068,8 +2074,11 @@
       <c r="AO3">
         <v>7.83</v>
       </c>
+      <c r="AP3">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" ht="15.6">
+    <row r="4" spans="1:42" ht="15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2193,8 +2202,11 @@
       <c r="AO4" t="s">
         <v>106</v>
       </c>
+      <c r="AP4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" ht="15.6">
+    <row r="5" spans="1:42" ht="15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2318,8 +2330,11 @@
       <c r="AO5" t="s">
         <v>107</v>
       </c>
+      <c r="AP5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" ht="15.6">
+    <row r="6" spans="1:42" ht="15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2443,8 +2458,11 @@
       <c r="AO6">
         <v>4.28</v>
       </c>
+      <c r="AP6">
+        <v>4.13</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" ht="15.6">
+    <row r="7" spans="1:42" ht="15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2568,8 +2586,11 @@
       <c r="AO7" t="s">
         <v>108</v>
       </c>
+      <c r="AP7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" ht="15.6">
+    <row r="8" spans="1:42" ht="15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2693,8 +2714,11 @@
       <c r="AO8" t="s">
         <v>109</v>
       </c>
+      <c r="AP8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" ht="15.6">
+    <row r="9" spans="1:42" ht="15">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2818,8 +2842,11 @@
       <c r="AO9">
         <v>3.09</v>
       </c>
+      <c r="AP9">
+        <v>1.65</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" ht="15.6">
+    <row r="10" spans="1:42" ht="15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2943,8 +2970,11 @@
       <c r="AO10" t="s">
         <v>110</v>
       </c>
+      <c r="AP10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" ht="15.6">
+    <row r="11" spans="1:42" ht="15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3068,8 +3098,11 @@
       <c r="AO11" t="s">
         <v>111</v>
       </c>
+      <c r="AP11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" ht="15.6">
+    <row r="12" spans="1:42" ht="15">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -3193,8 +3226,11 @@
       <c r="AO12">
         <v>0.28999999999999998</v>
       </c>
+      <c r="AP12">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" ht="15.6">
+    <row r="13" spans="1:42" ht="15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3318,8 +3354,11 @@
       <c r="AO13" t="s">
         <v>112</v>
       </c>
+      <c r="AP13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" ht="15.6">
+    <row r="14" spans="1:42" ht="15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3443,8 +3482,11 @@
       <c r="AO14" t="s">
         <v>113</v>
       </c>
+      <c r="AP14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" ht="15.6">
+    <row r="15" spans="1:42" ht="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3568,8 +3610,11 @@
       <c r="AO15">
         <v>0.17</v>
       </c>
+      <c r="AP15">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" ht="15.6">
+    <row r="16" spans="1:42" ht="15">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3693,8 +3738,11 @@
       <c r="AO16" t="s">
         <v>114</v>
       </c>
+      <c r="AP16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" ht="15.6">
+    <row r="17" spans="1:42" ht="15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3818,8 +3866,11 @@
       <c r="AO17" t="s">
         <v>115</v>
       </c>
+      <c r="AP17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" ht="15.6">
+    <row r="18" spans="1:42" ht="15">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3943,8 +3994,11 @@
       <c r="AO18">
         <v>0</v>
       </c>
+      <c r="AP18">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" ht="15.6">
+    <row r="19" spans="1:42" ht="15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4068,8 +4122,11 @@
       <c r="AO19" t="s">
         <v>116</v>
       </c>
+      <c r="AP19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" ht="15.6">
+    <row r="20" spans="1:42" ht="15">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4193,8 +4250,11 @@
       <c r="AO20" t="s">
         <v>117</v>
       </c>
+      <c r="AP20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" ht="15.6">
+    <row r="21" spans="1:42" ht="15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4318,8 +4378,11 @@
       <c r="AO21">
         <v>14.2</v>
       </c>
+      <c r="AP21">
+        <v>14.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" ht="15.6">
+    <row r="22" spans="1:42" ht="15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4443,8 +4506,11 @@
       <c r="AO22" t="s">
         <v>19</v>
       </c>
+      <c r="AP22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" ht="15.6">
+    <row r="23" spans="1:42" ht="15">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4568,8 +4634,11 @@
       <c r="AO23" t="s">
         <v>118</v>
       </c>
+      <c r="AP23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" ht="15.6">
+    <row r="24" spans="1:42" ht="15">
       <c r="A24">
         <v>54</v>
       </c>
@@ -4693,8 +4762,11 @@
       <c r="AO24">
         <v>55.5</v>
       </c>
+      <c r="AP24">
+        <v>59.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" ht="15.6">
+    <row r="25" spans="1:42" ht="15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4818,8 +4890,11 @@
       <c r="AO25" t="s">
         <v>21</v>
       </c>
+      <c r="AP25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" ht="15.6">
+    <row r="26" spans="1:42" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4943,8 +5018,11 @@
       <c r="AO26" t="s">
         <v>119</v>
       </c>
+      <c r="AP26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" ht="15.6">
+    <row r="27" spans="1:42" ht="15">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -5068,8 +5146,11 @@
       <c r="AO27">
         <v>15.9</v>
       </c>
+      <c r="AP27">
+        <v>18.7</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" ht="15.6">
+    <row r="28" spans="1:42" ht="15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -5193,8 +5274,11 @@
       <c r="AO28" t="s">
         <v>11</v>
       </c>
+      <c r="AP28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" ht="15.6">
+    <row r="29" spans="1:42" ht="15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5318,8 +5402,11 @@
       <c r="AO29" t="s">
         <v>2</v>
       </c>
+      <c r="AP29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" ht="15.6">
+    <row r="30" spans="1:42" ht="15">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -5443,8 +5530,11 @@
       <c r="AO30">
         <v>8.3000000000000007</v>
       </c>
+      <c r="AP30">
+        <v>13</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" ht="15.6">
+    <row r="31" spans="1:42" ht="15">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5568,8 +5658,11 @@
       <c r="AO31" t="s">
         <v>3</v>
       </c>
+      <c r="AP31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" ht="15.6">
+    <row r="32" spans="1:42" ht="15">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -5693,8 +5786,11 @@
       <c r="AO32" t="s">
         <v>8</v>
       </c>
+      <c r="AP32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" ht="15.6">
+    <row r="33" spans="1:42" ht="15">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -5818,8 +5914,11 @@
       <c r="AO33">
         <v>0.04</v>
       </c>
+      <c r="AP33">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" ht="15.6">
+    <row r="34" spans="1:42" ht="15">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -5943,8 +6042,11 @@
       <c r="AO34" t="s">
         <v>9</v>
       </c>
+      <c r="AP34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" ht="15.6">
+    <row r="35" spans="1:42" ht="15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6068,8 +6170,11 @@
       <c r="AO35" t="s">
         <v>120</v>
       </c>
+      <c r="AP35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" ht="15.6">
+    <row r="36" spans="1:42" ht="15">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -6193,8 +6298,11 @@
       <c r="AO36">
         <v>0.1</v>
       </c>
+      <c r="AP36">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" ht="15.6">
+    <row r="37" spans="1:42" ht="15">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -6318,8 +6426,11 @@
       <c r="AO37" t="s">
         <v>121</v>
       </c>
+      <c r="AP37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" ht="15.6">
+    <row r="38" spans="1:42" ht="15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -6443,8 +6554,11 @@
       <c r="AO38" t="s">
         <v>122</v>
       </c>
+      <c r="AP38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" ht="15.6">
+    <row r="39" spans="1:42" ht="15">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -6568,8 +6682,11 @@
       <c r="AO39">
         <v>2.1</v>
       </c>
+      <c r="AP39">
+        <v>1.9</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" ht="15.6">
+    <row r="40" spans="1:42" ht="15">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -6693,8 +6810,11 @@
       <c r="AO40" t="s">
         <v>123</v>
       </c>
+      <c r="AP40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" ht="15.6">
+    <row r="41" spans="1:42" ht="15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6818,8 +6938,11 @@
       <c r="AO41" t="s">
         <v>16</v>
       </c>
+      <c r="AP41" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" ht="15.6">
+    <row r="42" spans="1:42" ht="15">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -6943,8 +7066,11 @@
       <c r="AO42">
         <v>2.92</v>
       </c>
+      <c r="AP42">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" ht="15.6">
+    <row r="43" spans="1:42" ht="15">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -7068,8 +7194,11 @@
       <c r="AO43" t="s">
         <v>124</v>
       </c>
+      <c r="AP43" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="44" spans="1:41" ht="15.6">
+    <row r="44" spans="1:42" ht="15">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -7193,8 +7322,11 @@
       <c r="AO44" t="s">
         <v>125</v>
       </c>
+      <c r="AP44" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="45" spans="1:41" ht="15.6">
+    <row r="45" spans="1:42" ht="15">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -7318,8 +7450,11 @@
       <c r="AO45">
         <v>100</v>
       </c>
+      <c r="AP45">
+        <v>6.1</v>
+      </c>
     </row>
-    <row r="46" spans="1:41" ht="15.6">
+    <row r="46" spans="1:42" ht="15">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -7443,8 +7578,11 @@
       <c r="AO46" t="s">
         <v>126</v>
       </c>
+      <c r="AP46" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="47" spans="1:41" ht="15.6">
+    <row r="47" spans="1:42" ht="15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7568,8 +7706,11 @@
       <c r="AO47" t="s">
         <v>32</v>
       </c>
+      <c r="AP47" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="48" spans="1:41" ht="15.6">
+    <row r="48" spans="1:42" ht="15">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7693,8 +7834,11 @@
       <c r="AO48">
         <v>30.9</v>
       </c>
+      <c r="AP48">
+        <v>3.24</v>
+      </c>
     </row>
-    <row r="49" spans="1:41" ht="15.6">
+    <row r="49" spans="1:42" ht="15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -7818,8 +7962,11 @@
       <c r="AO49" t="s">
         <v>127</v>
       </c>
+      <c r="AP49" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="50" spans="1:41" ht="15.6">
+    <row r="50" spans="1:42" ht="15">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -7943,8 +8090,11 @@
       <c r="AO50" t="s">
         <v>44</v>
       </c>
+      <c r="AP50" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="51" spans="1:41" ht="15.6">
+    <row r="51" spans="1:42" ht="15">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -8068,8 +8218,11 @@
       <c r="AO51">
         <v>106</v>
       </c>
+      <c r="AP51">
+        <v>112</v>
+      </c>
     </row>
-    <row r="52" spans="1:41" ht="15.6">
+    <row r="52" spans="1:42" ht="15">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -8193,8 +8346,11 @@
       <c r="AO52" t="s">
         <v>128</v>
       </c>
+      <c r="AP52" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="53" spans="1:41" ht="15.6">
+    <row r="53" spans="1:42" ht="15">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -8318,8 +8474,11 @@
       <c r="AO53" t="s">
         <v>129</v>
       </c>
+      <c r="AP53" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="54" spans="1:41" ht="15.6">
+    <row r="54" spans="1:42" ht="15">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -8443,8 +8602,11 @@
       <c r="AO54">
         <v>34.200000000000003</v>
       </c>
+      <c r="AP54">
+        <v>34.700000000000003</v>
+      </c>
     </row>
-    <row r="55" spans="1:41" ht="15.6">
+    <row r="55" spans="1:42" ht="15">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -8568,8 +8730,11 @@
       <c r="AO55" t="s">
         <v>130</v>
       </c>
+      <c r="AP55" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="56" spans="1:41" ht="15.6">
+    <row r="56" spans="1:42" ht="15">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -8693,8 +8858,11 @@
       <c r="AO56" t="s">
         <v>131</v>
       </c>
+      <c r="AP56" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="57" spans="1:41" ht="15.6">
+    <row r="57" spans="1:42" ht="15">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -8818,8 +8986,11 @@
       <c r="AO57">
         <v>322</v>
       </c>
+      <c r="AP57">
+        <v>107</v>
+      </c>
     </row>
-    <row r="58" spans="1:41" ht="15.6">
+    <row r="58" spans="1:42" ht="15">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -8943,8 +9114,11 @@
       <c r="AO58" t="s">
         <v>132</v>
       </c>
+      <c r="AP58" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="59" spans="1:41" ht="15.6">
+    <row r="59" spans="1:42" ht="15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -9068,8 +9242,11 @@
       <c r="AO59" t="s">
         <v>133</v>
       </c>
+      <c r="AP59" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="60" spans="1:41" ht="15.6">
+    <row r="60" spans="1:42" ht="15">
       <c r="A60">
         <v>99</v>
       </c>
@@ -9193,8 +9370,11 @@
       <c r="AO60">
         <v>51</v>
       </c>
+      <c r="AP60">
+        <v>34.700000000000003</v>
+      </c>
     </row>
-    <row r="61" spans="1:41" ht="15.6">
+    <row r="61" spans="1:42" ht="15">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -9318,8 +9498,11 @@
       <c r="AO61" t="s">
         <v>134</v>
       </c>
+      <c r="AP61" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="62" spans="1:41" ht="15.6">
+    <row r="62" spans="1:42" ht="15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -9443,8 +9626,11 @@
       <c r="AO62" t="s">
         <v>135</v>
       </c>
+      <c r="AP62" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="63" spans="1:41" ht="15.6">
+    <row r="63" spans="1:42" ht="15">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -9568,8 +9754,11 @@
       <c r="AO63">
         <v>54.6</v>
       </c>
+      <c r="AP63">
+        <v>325</v>
+      </c>
     </row>
-    <row r="64" spans="1:41" ht="15.6">
+    <row r="64" spans="1:42" ht="15">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9693,8 +9882,11 @@
       <c r="AO64" t="s">
         <v>136</v>
       </c>
+      <c r="AP64" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="65" spans="1:41" ht="15.6">
+    <row r="65" spans="1:42" ht="15">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -9818,8 +10010,11 @@
       <c r="AO65" t="s">
         <v>137</v>
       </c>
+      <c r="AP65" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="66" spans="1:41" ht="15.6">
+    <row r="66" spans="1:42" ht="15">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -9943,8 +10138,11 @@
       <c r="AO66">
         <v>39.4</v>
       </c>
+      <c r="AP66">
+        <v>194</v>
+      </c>
     </row>
-    <row r="67" spans="1:41" ht="15.6">
+    <row r="67" spans="1:42" ht="15">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -10068,8 +10266,11 @@
       <c r="AO67" t="s">
         <v>138</v>
       </c>
+      <c r="AP67" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="68" spans="1:41" ht="15.6">
+    <row r="68" spans="1:42" ht="15">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -10193,8 +10394,11 @@
       <c r="AO68" t="s">
         <v>139</v>
       </c>
+      <c r="AP68" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="69" spans="1:41" ht="15.6">
+    <row r="69" spans="1:42" ht="15">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -10318,8 +10522,11 @@
       <c r="AO69">
         <v>3.8</v>
       </c>
+      <c r="AP69">
+        <v>67.8</v>
+      </c>
     </row>
-    <row r="70" spans="1:41" ht="15.6">
+    <row r="70" spans="1:42" ht="15">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -10443,8 +10650,11 @@
       <c r="AO70" t="s">
         <v>140</v>
       </c>
+      <c r="AP70" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="71" spans="1:41" ht="15.6">
+    <row r="71" spans="1:42" ht="15">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -10568,8 +10778,11 @@
       <c r="AO71" t="s">
         <v>12</v>
       </c>
+      <c r="AP71" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="72" spans="1:41" ht="15.6">
+    <row r="72" spans="1:42" ht="15">
       <c r="A72">
         <v>324</v>
       </c>
@@ -10693,8 +10906,11 @@
       <c r="AO72">
         <v>20.399999999999999</v>
       </c>
+      <c r="AP72">
+        <v>27.1</v>
+      </c>
     </row>
-    <row r="73" spans="1:41" ht="15.6">
+    <row r="73" spans="1:42" ht="15">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -10818,8 +11034,11 @@
       <c r="AO73" t="s">
         <v>141</v>
       </c>
+      <c r="AP73" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="74" spans="1:41" ht="15.6">
+    <row r="74" spans="1:42" ht="15">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -10868,8 +11087,11 @@
       <c r="AN74" t="s">
         <v>12</v>
       </c>
+      <c r="AP74" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="75" spans="1:41" ht="15">
+    <row r="75" spans="1:42" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -10918,8 +11140,11 @@
       <c r="AN75">
         <v>32.1</v>
       </c>
+      <c r="AP75">
+        <v>45.8</v>
+      </c>
     </row>
-    <row r="76" spans="1:41" ht="15.6">
+    <row r="76" spans="1:42" ht="15">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -10968,18 +11193,21 @@
       <c r="AN76" t="s">
         <v>141</v>
       </c>
+      <c r="AP76" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:42">
       <c r="Y77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:42">
       <c r="Y78">
         <v>14.5</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:42">
       <c r="Y79" t="s">
         <v>13</v>
       </c>
@@ -10999,10 +11227,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11034,7 +11262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A729A4-B5B3-4485-BBDA-EEBED2CECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB61733C-E38C-4654-990F-C34D7E9148DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AM$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AQ$1:$AQ$73</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="158">
   <si>
     <t>嗜碱性粒细胞计数(BASO#)(10^9/L)</t>
   </si>
@@ -1671,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP79"/>
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+      <selection activeCell="AO13" sqref="AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -1694,7 +1694,7 @@
     <col min="25" max="245" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:43">
       <c r="A1" s="26">
         <v>44218</v>
       </c>
@@ -1821,8 +1821,11 @@
       <c r="AP1" s="26">
         <v>44800</v>
       </c>
+      <c r="AQ1" s="26">
+        <v>44807</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" ht="15">
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1949,8 +1952,11 @@
       <c r="AP2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" ht="15">
+    <row r="3" spans="1:43" ht="15">
       <c r="A3" s="25">
         <v>0.05</v>
       </c>
@@ -2077,8 +2083,11 @@
       <c r="AP3">
         <v>0.81</v>
       </c>
+      <c r="AQ3">
+        <v>8.99</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" ht="15">
+    <row r="4" spans="1:43" ht="15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2205,8 +2214,11 @@
       <c r="AP4" t="s">
         <v>51</v>
       </c>
+      <c r="AQ4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" ht="15">
+    <row r="5" spans="1:43" ht="15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2333,8 +2345,11 @@
       <c r="AP5" t="s">
         <v>107</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" ht="15">
+    <row r="6" spans="1:43" ht="15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2461,8 +2476,11 @@
       <c r="AP6">
         <v>4.13</v>
       </c>
+      <c r="AQ6">
+        <v>4.62</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" ht="15">
+    <row r="7" spans="1:43" ht="15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2607,11 @@
       <c r="AP7" t="s">
         <v>108</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" ht="15">
+    <row r="8" spans="1:43" ht="15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2717,8 +2738,11 @@
       <c r="AP8" t="s">
         <v>109</v>
       </c>
+      <c r="AQ8" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" ht="15">
+    <row r="9" spans="1:43" ht="15">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -2845,8 +2869,11 @@
       <c r="AP9">
         <v>1.65</v>
       </c>
+      <c r="AQ9">
+        <v>3.81</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" ht="15">
+    <row r="10" spans="1:43" ht="15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2973,8 +3000,11 @@
       <c r="AP10" t="s">
         <v>110</v>
       </c>
+      <c r="AQ10" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" ht="15">
+    <row r="11" spans="1:43" ht="15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3101,8 +3131,11 @@
       <c r="AP11" t="s">
         <v>111</v>
       </c>
+      <c r="AQ11" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" ht="15">
+    <row r="12" spans="1:43" ht="15">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -3229,8 +3262,11 @@
       <c r="AP12">
         <v>0.19</v>
       </c>
+      <c r="AQ12">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" ht="15">
+    <row r="13" spans="1:43" ht="15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3357,8 +3393,11 @@
       <c r="AP13" t="s">
         <v>112</v>
       </c>
+      <c r="AQ13" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" ht="15">
+    <row r="14" spans="1:43" ht="15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3485,8 +3524,11 @@
       <c r="AP14" t="s">
         <v>113</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" ht="15">
+    <row r="15" spans="1:43" ht="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -3613,8 +3655,11 @@
       <c r="AP15">
         <v>0.12</v>
       </c>
+      <c r="AQ15">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" ht="15">
+    <row r="16" spans="1:43" ht="15">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3741,8 +3786,11 @@
       <c r="AP16" t="s">
         <v>114</v>
       </c>
+      <c r="AQ16" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" ht="15">
+    <row r="17" spans="1:43" ht="15">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3869,8 +3917,11 @@
       <c r="AP17" t="s">
         <v>115</v>
       </c>
+      <c r="AQ17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" ht="15">
+    <row r="18" spans="1:43" ht="15">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3997,8 +4048,11 @@
       <c r="AP18">
         <v>0.01</v>
       </c>
+      <c r="AQ18">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" ht="15">
+    <row r="19" spans="1:43" ht="15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4125,8 +4179,11 @@
       <c r="AP19" t="s">
         <v>116</v>
       </c>
+      <c r="AQ19" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" ht="15">
+    <row r="20" spans="1:43" ht="15">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4253,8 +4310,11 @@
       <c r="AP20" t="s">
         <v>117</v>
       </c>
+      <c r="AQ20" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" ht="15">
+    <row r="21" spans="1:43" ht="15">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4381,8 +4441,11 @@
       <c r="AP21">
         <v>14.4</v>
       </c>
+      <c r="AQ21">
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" ht="15">
+    <row r="22" spans="1:43" ht="15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4509,8 +4572,11 @@
       <c r="AP22" t="s">
         <v>19</v>
       </c>
+      <c r="AQ22" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" ht="15">
+    <row r="23" spans="1:43" ht="15">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -4637,8 +4703,11 @@
       <c r="AP23" t="s">
         <v>118</v>
       </c>
+      <c r="AQ23" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" ht="15">
+    <row r="24" spans="1:43" ht="15">
       <c r="A24">
         <v>54</v>
       </c>
@@ -4765,8 +4834,11 @@
       <c r="AP24">
         <v>59.1</v>
       </c>
+      <c r="AQ24">
+        <v>56.3</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" ht="15">
+    <row r="25" spans="1:43" ht="15">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4893,8 +4965,11 @@
       <c r="AP25" t="s">
         <v>21</v>
       </c>
+      <c r="AQ25" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" ht="15">
+    <row r="26" spans="1:43" ht="15">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5021,8 +5096,11 @@
       <c r="AP26" t="s">
         <v>119</v>
       </c>
+      <c r="AQ26" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" ht="15">
+    <row r="27" spans="1:43" ht="15">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -5149,8 +5227,11 @@
       <c r="AP27">
         <v>18.7</v>
       </c>
+      <c r="AQ27">
+        <v>18.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" ht="15">
+    <row r="28" spans="1:43" ht="15">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -5277,8 +5358,11 @@
       <c r="AP28" t="s">
         <v>11</v>
       </c>
+      <c r="AQ28" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" ht="15">
+    <row r="29" spans="1:43" ht="15">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5405,8 +5489,11 @@
       <c r="AP29" t="s">
         <v>2</v>
       </c>
+      <c r="AQ29" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" ht="15">
+    <row r="30" spans="1:43" ht="15">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -5533,8 +5620,11 @@
       <c r="AP30">
         <v>13</v>
       </c>
+      <c r="AQ30">
+        <v>11.1</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" ht="15">
+    <row r="31" spans="1:43" ht="15">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5661,8 +5751,11 @@
       <c r="AP31" t="s">
         <v>3</v>
       </c>
+      <c r="AQ31" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" ht="15">
+    <row r="32" spans="1:43" ht="15">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -5789,8 +5882,11 @@
       <c r="AP32" t="s">
         <v>8</v>
       </c>
+      <c r="AQ32" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" ht="15">
+    <row r="33" spans="1:43" ht="15">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -5917,8 +6013,11 @@
       <c r="AP33">
         <v>0.25</v>
       </c>
+      <c r="AQ33">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" ht="15">
+    <row r="34" spans="1:43" ht="15">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6045,8 +6144,11 @@
       <c r="AP34" t="s">
         <v>9</v>
       </c>
+      <c r="AQ34" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" ht="15">
+    <row r="35" spans="1:43" ht="15">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -6173,8 +6275,11 @@
       <c r="AP35" t="s">
         <v>120</v>
       </c>
+      <c r="AQ35" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" ht="15">
+    <row r="36" spans="1:43" ht="15">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -6301,8 +6406,11 @@
       <c r="AP36">
         <v>0.2</v>
       </c>
+      <c r="AQ36">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" ht="15">
+    <row r="37" spans="1:43" ht="15">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -6429,8 +6537,11 @@
       <c r="AP37" t="s">
         <v>121</v>
       </c>
+      <c r="AQ37" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" ht="15">
+    <row r="38" spans="1:43" ht="15">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -6557,8 +6668,11 @@
       <c r="AP38" t="s">
         <v>122</v>
       </c>
+      <c r="AQ38" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" ht="15">
+    <row r="39" spans="1:43" ht="15">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -6685,8 +6799,11 @@
       <c r="AP39">
         <v>1.9</v>
       </c>
+      <c r="AQ39">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" ht="15">
+    <row r="40" spans="1:43" ht="15">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -6813,8 +6930,11 @@
       <c r="AP40" t="s">
         <v>123</v>
       </c>
+      <c r="AQ40" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" ht="15">
+    <row r="41" spans="1:43" ht="15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6941,8 +7061,11 @@
       <c r="AP41" t="s">
         <v>139</v>
       </c>
+      <c r="AQ41" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" ht="15">
+    <row r="42" spans="1:43" ht="15">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -7069,8 +7192,11 @@
       <c r="AP42">
         <v>3</v>
       </c>
+      <c r="AQ42">
+        <v>3.16</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" ht="15">
+    <row r="43" spans="1:43" ht="15">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -7197,8 +7323,11 @@
       <c r="AP43" t="s">
         <v>140</v>
       </c>
+      <c r="AQ43" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="44" spans="1:42" ht="15">
+    <row r="44" spans="1:43" ht="15">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -7325,8 +7454,11 @@
       <c r="AP44" t="s">
         <v>105</v>
       </c>
+      <c r="AQ44" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="45" spans="1:42" ht="15">
+    <row r="45" spans="1:43" ht="15">
       <c r="A45" s="23">
         <v>0.7</v>
       </c>
@@ -7453,8 +7585,11 @@
       <c r="AP45">
         <v>6.1</v>
       </c>
+      <c r="AQ45">
+        <v>113</v>
+      </c>
     </row>
-    <row r="46" spans="1:42" ht="15">
+    <row r="46" spans="1:43" ht="15">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -7581,8 +7716,11 @@
       <c r="AP46" t="s">
         <v>106</v>
       </c>
+      <c r="AQ46" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="47" spans="1:42" ht="15">
+    <row r="47" spans="1:43" ht="15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -7709,8 +7847,11 @@
       <c r="AP47" t="s">
         <v>16</v>
       </c>
+      <c r="AQ47" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" ht="15">
+    <row r="48" spans="1:43" ht="15">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7837,8 +7978,11 @@
       <c r="AP48">
         <v>3.24</v>
       </c>
+      <c r="AQ48">
+        <v>34.299999999999997</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" ht="15">
+    <row r="49" spans="1:43" ht="15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -7965,8 +8109,11 @@
       <c r="AP49" t="s">
         <v>124</v>
       </c>
+      <c r="AQ49" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" ht="15">
+    <row r="50" spans="1:43" ht="15">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -8093,8 +8240,11 @@
       <c r="AP50" t="s">
         <v>125</v>
       </c>
+      <c r="AQ50" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" ht="15">
+    <row r="51" spans="1:43" ht="15">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -8221,8 +8371,11 @@
       <c r="AP51">
         <v>112</v>
       </c>
+      <c r="AQ51">
+        <v>108.5</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" ht="15">
+    <row r="52" spans="1:43" ht="15">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -8349,8 +8502,11 @@
       <c r="AP52" t="s">
         <v>126</v>
       </c>
+      <c r="AQ52" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" ht="15">
+    <row r="53" spans="1:43" ht="15">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -8477,8 +8633,11 @@
       <c r="AP53" t="s">
         <v>32</v>
       </c>
+      <c r="AQ53" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" ht="15">
+    <row r="54" spans="1:43" ht="15">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -8605,8 +8764,11 @@
       <c r="AP54">
         <v>34.700000000000003</v>
       </c>
+      <c r="AQ54">
+        <v>35.799999999999997</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" ht="15">
+    <row r="55" spans="1:43" ht="15">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -8733,8 +8895,11 @@
       <c r="AP55" t="s">
         <v>127</v>
       </c>
+      <c r="AQ55" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" ht="15">
+    <row r="56" spans="1:43" ht="15">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -8861,8 +9026,11 @@
       <c r="AP56" t="s">
         <v>44</v>
       </c>
+      <c r="AQ56" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" ht="15">
+    <row r="57" spans="1:43" ht="15">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -8989,8 +9157,11 @@
       <c r="AP57">
         <v>107</v>
       </c>
+      <c r="AQ57">
+        <v>329</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" ht="15">
+    <row r="58" spans="1:43" ht="15">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -9117,8 +9288,11 @@
       <c r="AP58" t="s">
         <v>128</v>
       </c>
+      <c r="AQ58" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" ht="15">
+    <row r="59" spans="1:43" ht="15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -9245,8 +9419,11 @@
       <c r="AP59" t="s">
         <v>129</v>
       </c>
+      <c r="AQ59" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" ht="15">
+    <row r="60" spans="1:43" ht="15">
       <c r="A60">
         <v>99</v>
       </c>
@@ -9373,8 +9550,11 @@
       <c r="AP60">
         <v>34.700000000000003</v>
       </c>
+      <c r="AQ60">
+        <v>97</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" ht="15">
+    <row r="61" spans="1:43" ht="15">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -9501,8 +9681,11 @@
       <c r="AP61" t="s">
         <v>130</v>
       </c>
+      <c r="AQ61" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" ht="15">
+    <row r="62" spans="1:43" ht="15">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -9629,8 +9812,11 @@
       <c r="AP62" t="s">
         <v>131</v>
       </c>
+      <c r="AQ62" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="63" spans="1:42" ht="15">
+    <row r="63" spans="1:43" ht="15">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -9757,8 +9943,11 @@
       <c r="AP63">
         <v>325</v>
       </c>
+      <c r="AQ63">
+        <v>51.4</v>
+      </c>
     </row>
-    <row r="64" spans="1:42" ht="15">
+    <row r="64" spans="1:43" ht="15">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -9885,8 +10074,11 @@
       <c r="AP64" t="s">
         <v>132</v>
       </c>
+      <c r="AQ64" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" ht="15">
+    <row r="65" spans="1:43" ht="15">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -10013,8 +10205,11 @@
       <c r="AP65" t="s">
         <v>133</v>
       </c>
+      <c r="AQ65" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" ht="15">
+    <row r="66" spans="1:43" ht="15">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -10141,8 +10336,11 @@
       <c r="AP66">
         <v>194</v>
       </c>
+      <c r="AQ66">
+        <v>42.4</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" ht="15">
+    <row r="67" spans="1:43" ht="15">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -10269,8 +10467,11 @@
       <c r="AP67" t="s">
         <v>134</v>
       </c>
+      <c r="AQ67" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" ht="15">
+    <row r="68" spans="1:43" ht="15">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -10397,8 +10598,11 @@
       <c r="AP68" t="s">
         <v>135</v>
       </c>
+      <c r="AQ68" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" ht="15">
+    <row r="69" spans="1:43" ht="15">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -10525,8 +10729,11 @@
       <c r="AP69">
         <v>67.8</v>
       </c>
+      <c r="AQ69">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" ht="15">
+    <row r="70" spans="1:43" ht="15">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -10653,8 +10860,11 @@
       <c r="AP70" t="s">
         <v>136</v>
       </c>
+      <c r="AQ70" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" ht="15">
+    <row r="71" spans="1:43" ht="15">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -10781,8 +10991,11 @@
       <c r="AP71" t="s">
         <v>137</v>
       </c>
+      <c r="AQ71" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" ht="15">
+    <row r="72" spans="1:43" ht="15">
       <c r="A72">
         <v>324</v>
       </c>
@@ -10909,8 +11122,11 @@
       <c r="AP72">
         <v>27.1</v>
       </c>
+      <c r="AQ72">
+        <v>34.299999999999997</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" ht="15">
+    <row r="73" spans="1:43" ht="15">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -11037,8 +11253,11 @@
       <c r="AP73" t="s">
         <v>138</v>
       </c>
+      <c r="AQ73" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" ht="15">
+    <row r="74" spans="1:43" ht="15">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -11091,7 +11310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="15">
+    <row r="75" spans="1:43" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -11144,7 +11363,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="15">
+    <row r="76" spans="1:43" ht="15">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -11197,17 +11416,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:43">
       <c r="Y77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:43">
       <c r="Y78">
         <v>14.5</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:43">
       <c r="Y79" t="s">
         <v>13</v>
       </c>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\felixdu\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\felixdu\work\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3C6CA-F757-4EE0-8886-2F926DF6DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E636D-68F1-4983-A784-935ACB60005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="310">
   <si>
     <t>2022/09/10</t>
   </si>
@@ -6564,7 +6564,7 @@
   <dimension ref="A1:BA79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS81" sqref="AS81"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -6717,26 +6717,26 @@
       <c r="AQ1" s="1">
         <v>44807</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>6</v>
+      <c r="AR1" s="11">
+        <v>44814</v>
+      </c>
+      <c r="AS1" s="11">
+        <v>44821</v>
+      </c>
+      <c r="AT1" s="11">
+        <v>44828</v>
+      </c>
+      <c r="AU1" s="11">
+        <v>44841</v>
+      </c>
+      <c r="AV1" s="11">
+        <v>44850</v>
+      </c>
+      <c r="AW1" s="11">
+        <v>44863</v>
+      </c>
+      <c r="AX1" s="11">
+        <v>44877</v>
       </c>
       <c r="AY1" s="11">
         <v>44891</v>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7053B1-5BFB-431D-A2B2-5574CE85EDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A4C70-8FC3-4C5E-A2BA-AF1CBDF32AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="346">
   <si>
     <r>
       <rPr>
@@ -6469,6 +6469,18 @@
   </si>
   <si>
     <t>大血小板比率(P-LCR)(%)</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>因咳嗽住院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6544,12 +6556,102 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -6558,7 +6660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6605,6 +6707,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6923,8 +7049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD8" sqref="BD8"/>
+    <sheetView topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ1" sqref="BJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -21025,19 +21151,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="30.07421875" customWidth="1"/>
+    <col min="1" max="1" width="10.23046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.07421875" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18">
+        <v>45206</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" ht="14.6" thickBot="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\felixdu\work\src\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\felixdu\work\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A4C70-8FC3-4C5E-A2BA-AF1CBDF32AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D0FF7-EE34-4B5D-804E-4B806CB3E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="418">
   <si>
     <r>
       <rPr>
@@ -6481,6 +6481,1086 @@
   <si>
     <t>因咳嗽住院</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C-反应蛋白(CRP)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(mg/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>白细胞计数(WBC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0～8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.6～11.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>淋巴细胞绝对值(LYM#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>嗜碱性粒细胞绝对值(BAS#)(BAS#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.7～4.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.0～6.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0～0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中性粒细胞绝对值(NEU#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>红细胞体积分布宽度-CV(RDW-CV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.7～7.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11～16.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>单核细胞绝对值(MON#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>红细胞体积分布宽度-SD(RDW-SD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.15～0.86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.16～0.92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>35～54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>嗜酸性粒细胞绝对值(EOS#)(EOS#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>血小板体积分布宽度(PDW)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.04～0.74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>9～17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>血小板平均体积(MPV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5～10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>血小板压积(PCT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.06～0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>大血小板比率(P-LCR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>17.5～42.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>网织红细胞绝对值(RET#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^12/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.017～0.0701</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>未成熟网织红细胞比率(IFR)(IRF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.6～10.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>高荧光强度网织红比率(HFR)(HFR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0～1.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>嗜碱性粒细胞百分比(BAS%)(BAS%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中荧光强度网织红比率(MFR)(MFR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0～1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>嗜酸性粒细胞百分比(EO%)(EOS%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>低荧光强度网织红比率(LFR)(LFR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5～9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>89.9～98.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>单核细胞百分比(MON%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>红细胞计数(RBC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^12/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>网织红细胞百分比(RET%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2～11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.3～5.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.43～1.36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>血红蛋白浓度(HGB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(g/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>网织红细胞血红蛋白含量(RET-HE)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(pg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>121～158</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32.1～38.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>红细胞压积(HCT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>37～47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>35～45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>平均红细胞体积(MCV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(fL)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>77～92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>76～88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>平均红细胞血红蛋白含量(MCH)(MCH)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(pg)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26～34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>24～30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>平均红细胞血红蛋白浓度(MCHC)(MCHC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(g/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>309～359</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>血小板计数(PLT)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(10^9/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>177～446</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>淋巴细胞百分比(LYM%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22～57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中性粒细胞百分比(NEU%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32～71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>大血小板比率(P-LCR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15～30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF323438"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>网织红细胞生成指数(RPI)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF8A8F99"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2～1.5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6491,7 +7571,7 @@
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -6546,6 +7626,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF323438"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF8A8F99"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6660,7 +7752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6732,6 +7824,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7047,10 +8148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ100"/>
+  <dimension ref="A1:BR100"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -7075,7 +8176,7 @@
     <col min="62" max="251" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:70">
       <c r="A1" s="1">
         <v>44218</v>
       </c>
@@ -7262,8 +8363,32 @@
       <c r="BJ1" s="15">
         <v>45206</v>
       </c>
+      <c r="BK1" s="15">
+        <v>45207</v>
+      </c>
+      <c r="BL1" s="15">
+        <v>45208</v>
+      </c>
+      <c r="BM1" s="15">
+        <v>45209</v>
+      </c>
+      <c r="BN1" s="15">
+        <v>45210</v>
+      </c>
+      <c r="BO1" s="15">
+        <v>45214</v>
+      </c>
+      <c r="BP1" s="15">
+        <v>45217</v>
+      </c>
+      <c r="BQ1" s="15">
+        <v>45221</v>
+      </c>
+      <c r="BR1" s="15">
+        <v>45228</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" ht="42.45">
+    <row r="2" spans="1:70" ht="42.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7450,8 +8575,32 @@
       <c r="BJ2" t="s">
         <v>267</v>
       </c>
+      <c r="BK2" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BQ2" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BR2" s="24" t="s">
+        <v>347</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="15">
+    <row r="3" spans="1:70" ht="15">
       <c r="A3" s="7">
         <v>0.05</v>
       </c>
@@ -7638,8 +8787,32 @@
       <c r="BJ3">
         <v>1.08</v>
       </c>
+      <c r="BK3" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="BL3" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="BM3" s="25">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="BN3" s="25">
+        <v>3.48</v>
+      </c>
+      <c r="BO3" s="25">
+        <v>5.21</v>
+      </c>
+      <c r="BP3" s="25">
+        <v>5.35</v>
+      </c>
+      <c r="BQ3" s="25">
+        <v>6.12</v>
+      </c>
+      <c r="BR3" s="25">
+        <v>4.95</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" ht="15">
+    <row r="4" spans="1:70" ht="15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -7826,8 +8999,32 @@
       <c r="BJ4" t="s">
         <v>268</v>
       </c>
+      <c r="BK4" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="BL4" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="BM4" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN4" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO4" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BP4" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BQ4" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BR4" s="26" t="s">
+        <v>349</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" ht="56.6">
+    <row r="5" spans="1:70" ht="56.6">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -8014,8 +9211,32 @@
       <c r="BJ5" t="s">
         <v>276</v>
       </c>
+      <c r="BK5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BM5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BN5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BO5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BP5" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BQ5" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BR5" s="24" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" ht="15">
+    <row r="6" spans="1:70" ht="15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -8202,8 +9423,32 @@
       <c r="BJ6">
         <v>0.01</v>
       </c>
+      <c r="BK6" s="25">
+        <v>2.85</v>
+      </c>
+      <c r="BL6" s="25">
+        <v>3.44</v>
+      </c>
+      <c r="BM6" s="25">
+        <v>3.46</v>
+      </c>
+      <c r="BN6" s="25">
+        <v>2.78</v>
+      </c>
+      <c r="BO6" s="25">
+        <v>3.81</v>
+      </c>
+      <c r="BP6" s="25">
+        <v>3.66</v>
+      </c>
+      <c r="BQ6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="25">
+        <v>3.66</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" ht="15">
+    <row r="7" spans="1:70" ht="15">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -8390,8 +9635,32 @@
       <c r="BJ7" t="s">
         <v>277</v>
       </c>
+      <c r="BK7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BN7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BO7" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="BP7" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="BQ7" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BR7" s="26" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" ht="56.6">
+    <row r="8" spans="1:70" ht="56.6">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -8578,8 +9847,32 @@
       <c r="BJ8" t="s">
         <v>278</v>
       </c>
+      <c r="BK8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BL8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BM8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BN8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BO8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP8" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BQ8" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR8" s="24" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" ht="15">
+    <row r="9" spans="1:70" ht="15">
       <c r="A9">
         <v>2.11</v>
       </c>
@@ -8766,8 +10059,32 @@
       <c r="BJ9">
         <v>14.6</v>
       </c>
+      <c r="BK9" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL9" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="BM9" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="BN9" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="BO9" s="25">
+        <v>1.01</v>
+      </c>
+      <c r="BP9" s="25">
+        <v>1.22</v>
+      </c>
+      <c r="BQ9" s="25">
+        <v>14.9</v>
+      </c>
+      <c r="BR9" s="25">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" ht="15">
+    <row r="10" spans="1:70" ht="15">
       <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
@@ -8954,8 +10271,32 @@
       <c r="BJ10" t="s">
         <v>100</v>
       </c>
+      <c r="BK10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BL10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BM10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BN10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BO10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BP10" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="BQ10" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BR10" s="26" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" ht="56.6">
+    <row r="11" spans="1:70" ht="56.6">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -9142,8 +10483,32 @@
       <c r="BJ11" t="s">
         <v>279</v>
       </c>
+      <c r="BK11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BN11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BO11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BP11" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BQ11" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BR11" s="24" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" ht="15">
+    <row r="12" spans="1:70" ht="15">
       <c r="A12">
         <v>28.4</v>
       </c>
@@ -9330,8 +10695,32 @@
       <c r="BJ12">
         <v>60.5</v>
       </c>
+      <c r="BK12" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="BL12" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="BM12" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="BN12" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="BO12" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="BP12" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="BQ12" s="25">
+        <v>62.2</v>
+      </c>
+      <c r="BR12" s="25">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" ht="15">
+    <row r="13" spans="1:70" ht="15">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -9518,8 +10907,32 @@
       <c r="BJ13" t="s">
         <v>280</v>
       </c>
+      <c r="BK13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BL13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BM13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BN13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO13" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BQ13" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BR13" s="26" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="56.6">
+    <row r="14" spans="1:70" ht="56.6">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -9706,8 +11119,32 @@
       <c r="BJ14" t="s">
         <v>281</v>
       </c>
+      <c r="BK14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BL14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BM14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BN14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BO14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BP14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BQ14" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BR14" s="24" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" ht="15">
+    <row r="15" spans="1:70" ht="15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -9894,8 +11331,32 @@
       <c r="BJ15">
         <v>16</v>
       </c>
+      <c r="BK15" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="BL15" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="BM15" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="BN15" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="BO15" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="BP15" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BQ15" s="25">
+        <v>17.7</v>
+      </c>
+      <c r="BR15" s="25">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" ht="15">
+    <row r="16" spans="1:70" ht="15">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
@@ -10082,8 +11543,32 @@
       <c r="BJ16" t="s">
         <v>282</v>
       </c>
+      <c r="BK16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BL16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BM16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BN16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BO16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BP16" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ16" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BR16" s="26" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" ht="56.6">
+    <row r="17" spans="1:70" ht="56.6">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -10270,8 +11755,32 @@
       <c r="BJ17" t="s">
         <v>283</v>
       </c>
+      <c r="BK17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BM17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BN17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BO17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BP17" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BQ17" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BR17" s="24" t="s">
+        <v>351</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" ht="15">
+    <row r="18" spans="1:70" ht="15">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -10458,8 +11967,32 @@
       <c r="BJ18">
         <v>8.3000000000000007</v>
       </c>
+      <c r="BK18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="BL18" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="BM18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="BO18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="BP18" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="BQ18" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BR18" s="25">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" ht="15">
+    <row r="19" spans="1:70" ht="15">
       <c r="A19" s="5" t="s">
         <v>83</v>
       </c>
@@ -10646,8 +12179,32 @@
       <c r="BJ19" t="s">
         <v>284</v>
       </c>
+      <c r="BK19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BL19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BM19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BN19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BO19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BP19" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="BQ19" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BR19" s="26" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" ht="56.6">
+    <row r="20" spans="1:70" ht="56.6">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -10834,8 +12391,32 @@
       <c r="BJ20" t="s">
         <v>285</v>
       </c>
+      <c r="BK20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BL20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BN20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BO20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BP20" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ20" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BR20" s="24" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" ht="15">
+    <row r="21" spans="1:70" ht="15">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -11022,8 +12603,32 @@
       <c r="BJ21">
         <v>0.02</v>
       </c>
+      <c r="BK21" s="25">
+        <v>14.9</v>
+      </c>
+      <c r="BL21" s="25">
+        <v>14.3</v>
+      </c>
+      <c r="BM21" s="25">
+        <v>15.3</v>
+      </c>
+      <c r="BN21" s="25">
+        <v>14.4</v>
+      </c>
+      <c r="BO21" s="25">
+        <v>14.6</v>
+      </c>
+      <c r="BP21" s="25">
+        <v>14.6</v>
+      </c>
+      <c r="BQ21" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="BR21" s="25">
+        <v>14.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" ht="15">
+    <row r="22" spans="1:70" ht="15">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -11210,8 +12815,32 @@
       <c r="BJ22" t="s">
         <v>286</v>
       </c>
+      <c r="BK22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BM22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BO22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BP22" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="BQ22" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BR22" s="26" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" ht="56.6">
+    <row r="23" spans="1:70" ht="56.6">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -11398,8 +13027,32 @@
       <c r="BJ23" t="s">
         <v>312</v>
       </c>
+      <c r="BK23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BL23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BM23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BO23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BP23" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ23" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="BR23" s="24" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" ht="15">
+    <row r="24" spans="1:70" ht="15">
       <c r="A24">
         <v>54</v>
       </c>
@@ -11586,8 +13239,32 @@
       <c r="BJ24">
         <v>22.3</v>
       </c>
+      <c r="BK24" s="25">
+        <v>62.8</v>
+      </c>
+      <c r="BL24" s="25">
+        <v>59.3</v>
+      </c>
+      <c r="BM24" s="25">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="BN24" s="25">
+        <v>57.6</v>
+      </c>
+      <c r="BO24" s="25">
+        <v>61.3</v>
+      </c>
+      <c r="BP24" s="25">
+        <v>60.6</v>
+      </c>
+      <c r="BQ24" s="25">
+        <v>28.2</v>
+      </c>
+      <c r="BR24" s="25">
+        <v>61.8</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" ht="15">
+    <row r="25" spans="1:70" ht="15">
       <c r="A25" s="5" t="s">
         <v>107</v>
       </c>
@@ -11774,8 +13451,32 @@
       <c r="BJ25" t="s">
         <v>314</v>
       </c>
+      <c r="BK25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BL25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BM25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BN25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BO25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BP25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="BQ25" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="BR25" s="26" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" ht="42.45">
+    <row r="26" spans="1:70" ht="53.15">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
@@ -11962,8 +13663,32 @@
       <c r="BJ26" t="s">
         <v>315</v>
       </c>
+      <c r="BK26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BL26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BM26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BN26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BO26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BP26" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="BQ26" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="BR26" s="24" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" ht="15">
+    <row r="27" spans="1:70" ht="15">
       <c r="A27">
         <v>3.07</v>
       </c>
@@ -12150,8 +13875,32 @@
       <c r="BJ27">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="BK27" s="25">
+        <v>15.5</v>
+      </c>
+      <c r="BL27" s="25">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BM27" s="25">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BN27" s="25">
+        <v>16.2</v>
+      </c>
+      <c r="BO27" s="25">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BP27" s="25">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BQ27" s="25">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="BR27" s="25">
+        <v>17.399999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" ht="15">
+    <row r="28" spans="1:70" ht="26.6">
       <c r="A28" s="5" t="s">
         <v>120</v>
       </c>
@@ -12338,8 +14087,32 @@
       <c r="BJ28" t="s">
         <v>316</v>
       </c>
+      <c r="BK28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BL28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BM28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BN28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BO28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BP28" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="BQ28" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="BR28" s="26" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" ht="42.45">
+    <row r="29" spans="1:70" ht="53.15">
       <c r="A29" s="3" t="s">
         <v>125</v>
       </c>
@@ -12526,8 +14299,32 @@
       <c r="BJ29" t="s">
         <v>317</v>
       </c>
+      <c r="BK29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BL29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BM29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BN29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BO29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BP29" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="BQ29" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BR29" s="24" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" ht="15">
+    <row r="30" spans="1:70" ht="15">
       <c r="A30">
         <v>13.8</v>
       </c>
@@ -12714,8 +14511,32 @@
       <c r="BJ30">
         <v>18.7</v>
       </c>
+      <c r="BK30" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="BL30" s="25">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BM30" s="25">
+        <v>10.6</v>
+      </c>
+      <c r="BN30" s="25">
+        <v>9.1</v>
+      </c>
+      <c r="BO30" s="25">
+        <v>10.1</v>
+      </c>
+      <c r="BP30" s="25">
+        <v>10.3</v>
+      </c>
+      <c r="BQ30" s="25">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="BR30" s="25">
+        <v>10.4</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" ht="15">
+    <row r="31" spans="1:70" ht="15">
       <c r="A31" s="5" t="s">
         <v>97</v>
       </c>
@@ -12902,8 +14723,32 @@
       <c r="BJ31" t="s">
         <v>318</v>
       </c>
+      <c r="BK31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BL31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BM31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BN31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BO31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BP31" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ31" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR31" s="26" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="32" spans="1:62" ht="28.3">
+    <row r="32" spans="1:70" ht="53.15">
       <c r="A32" s="3" t="s">
         <v>134</v>
       </c>
@@ -13090,8 +14935,32 @@
       <c r="BJ32" t="s">
         <v>319</v>
       </c>
+      <c r="BK32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BM32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BN32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BO32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BP32" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="BQ32" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR32" s="24" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="33" spans="1:62" ht="15">
+    <row r="33" spans="1:70" ht="15">
       <c r="A33">
         <v>49.6</v>
       </c>
@@ -13278,8 +15147,32 @@
       <c r="BJ33">
         <v>5.2</v>
       </c>
+      <c r="BK33" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="BL33" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="BM33" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="BN33" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="BO33" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="BP33" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BQ33" s="25">
+        <v>12</v>
+      </c>
+      <c r="BR33" s="25">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="34" spans="1:62" ht="15">
+    <row r="34" spans="1:70" ht="15">
       <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
@@ -13466,8 +15359,32 @@
       <c r="BJ34" t="s">
         <v>320</v>
       </c>
+      <c r="BK34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BN34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BO34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BP34" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="BQ34" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="BR34" s="26" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="35" spans="1:62" ht="56.6">
+    <row r="35" spans="1:70" ht="56.6">
       <c r="A35" s="3" t="s">
         <v>142</v>
       </c>
@@ -13654,8 +15571,32 @@
       <c r="BJ35" t="s">
         <v>321</v>
       </c>
+      <c r="BK35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BL35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BN35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BO35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP35" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="BQ35" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR35" s="24" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="36" spans="1:62" ht="15">
+    <row r="36" spans="1:70" ht="15">
       <c r="A36">
         <v>3.1</v>
       </c>
@@ -13842,8 +15783,32 @@
       <c r="BJ36">
         <v>13.5</v>
       </c>
+      <c r="BK36" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="BL36" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="BM36" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="BN36" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="BO36" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="BP36" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="BQ36" s="25">
+        <v>20.3</v>
+      </c>
+      <c r="BR36" s="25">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:62" ht="15">
+    <row r="37" spans="1:70" ht="15">
       <c r="A37" s="5" t="s">
         <v>147</v>
       </c>
@@ -14030,8 +15995,32 @@
       <c r="BJ37" t="s">
         <v>318</v>
       </c>
+      <c r="BK37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BL37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BN37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BO37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP37" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ37" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR37" s="26" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="38" spans="1:62" ht="56.6">
+    <row r="38" spans="1:70" ht="56.6">
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
@@ -14218,8 +16207,32 @@
       <c r="BJ38" t="s">
         <v>322</v>
       </c>
+      <c r="BK38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BL38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BM38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BN38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BO38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP38" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="BQ38" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="BR38" s="24" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="39" spans="1:62" ht="15">
+    <row r="39" spans="1:70" ht="15">
       <c r="A39">
         <v>0.23</v>
       </c>
@@ -14406,8 +16419,32 @@
       <c r="BJ39">
         <v>81.3</v>
       </c>
+      <c r="BK39" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="BL39" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="BM39" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="BN39" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BO39" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="BP39" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="BQ39" s="25">
+        <v>67.7</v>
+      </c>
+      <c r="BR39" s="25">
+        <v>9.6</v>
+      </c>
     </row>
-    <row r="40" spans="1:62" ht="15">
+    <row r="40" spans="1:70" ht="15">
       <c r="A40" s="5" t="s">
         <v>156</v>
       </c>
@@ -14594,8 +16631,32 @@
       <c r="BJ40" t="s">
         <v>323</v>
       </c>
+      <c r="BK40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BN40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BO40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BP40" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ40" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR40" s="26" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="41" spans="1:62" ht="42.45">
+    <row r="41" spans="1:70" ht="42.45">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -14782,8 +16843,32 @@
       <c r="BJ41" t="s">
         <v>324</v>
       </c>
+      <c r="BK41" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL41" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM41" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BN41" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO41" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BP41" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BQ41" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="BR41" s="24" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="42" spans="1:62" ht="15">
+    <row r="42" spans="1:70" ht="15">
       <c r="A42">
         <v>99.7</v>
       </c>
@@ -14970,8 +17055,32 @@
       <c r="BJ42">
         <v>1.74</v>
       </c>
+      <c r="BK42" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="BL42" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="BM42" s="25">
+        <v>2.76</v>
+      </c>
+      <c r="BN42" s="25">
+        <v>2.17</v>
+      </c>
+      <c r="BO42" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="BP42" s="25">
+        <v>2.36</v>
+      </c>
+      <c r="BQ42" s="25">
+        <v>2.78</v>
+      </c>
+      <c r="BR42" s="25">
+        <v>2.4900000000000002</v>
+      </c>
     </row>
-    <row r="43" spans="1:62" ht="15">
+    <row r="43" spans="1:70" ht="15">
       <c r="A43" s="5" t="s">
         <v>164</v>
       </c>
@@ -15158,8 +17267,32 @@
       <c r="BJ43" t="s">
         <v>325</v>
       </c>
+      <c r="BK43" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL43" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BM43" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BN43" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BO43" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BP43" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ43" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="BR43" s="26" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="44" spans="1:62" ht="42.45">
+    <row r="44" spans="1:70" ht="53.15">
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
@@ -15346,8 +17479,32 @@
       <c r="BJ44" t="s">
         <v>326</v>
       </c>
+      <c r="BK44" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BL44" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM44" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BN44" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BO44" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BP44" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BQ44" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="BR44" s="24" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="45" spans="1:62" ht="15">
+    <row r="45" spans="1:70" ht="15">
       <c r="A45" s="13">
         <v>0.7</v>
       </c>
@@ -15534,8 +17691,32 @@
       <c r="BJ45">
         <v>28.6</v>
       </c>
+      <c r="BK45" s="25">
+        <v>3.82</v>
+      </c>
+      <c r="BL45" s="25">
+        <v>4.21</v>
+      </c>
+      <c r="BM45" s="25">
+        <v>95</v>
+      </c>
+      <c r="BN45" s="25">
+        <v>76</v>
+      </c>
+      <c r="BO45" s="25">
+        <v>85</v>
+      </c>
+      <c r="BP45" s="25">
+        <v>82</v>
+      </c>
+      <c r="BQ45" s="25">
+        <v>30.7</v>
+      </c>
+      <c r="BR45" s="25">
+        <v>89</v>
+      </c>
     </row>
-    <row r="46" spans="1:62" ht="15">
+    <row r="46" spans="1:70" ht="15">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
@@ -15722,8 +17903,32 @@
       <c r="BJ46" t="s">
         <v>327</v>
       </c>
+      <c r="BK46" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BL46" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="BM46" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BN46" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BO46" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BP46" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BQ46" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="BR46" s="26" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="47" spans="1:62" ht="28.3">
+    <row r="47" spans="1:70" ht="53.15">
       <c r="A47" s="5" t="s">
         <v>6</v>
       </c>
@@ -15910,8 +18115,32 @@
       <c r="BJ47" t="s">
         <v>274</v>
       </c>
+      <c r="BK47" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL47" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BM47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BN47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BO47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BP47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BQ47" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR47" s="24" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="48" spans="1:62" ht="15">
+    <row r="48" spans="1:70" ht="15">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -16098,8 +18327,32 @@
       <c r="BJ48">
         <v>0.13</v>
       </c>
+      <c r="BK48" s="25">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BL48" s="25">
+        <v>2.48</v>
+      </c>
+      <c r="BM48" s="25">
+        <v>30.4</v>
+      </c>
+      <c r="BN48" s="25">
+        <v>22.5</v>
+      </c>
+      <c r="BO48" s="25">
+        <v>27.8</v>
+      </c>
+      <c r="BP48" s="25">
+        <v>25.5</v>
+      </c>
+      <c r="BQ48" s="25">
+        <v>1.31</v>
+      </c>
+      <c r="BR48" s="25">
+        <v>26.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:62" ht="15">
+    <row r="49" spans="1:70" ht="15">
       <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
@@ -16286,8 +18539,32 @@
       <c r="BJ49" t="s">
         <v>275</v>
       </c>
+      <c r="BK49" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL49" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BM49" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BN49" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO49" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="BP49" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BQ49" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="BR49" s="26" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="50" spans="1:62" ht="42.45">
+    <row r="50" spans="1:70" ht="53.15">
       <c r="A50" s="3" t="s">
         <v>169</v>
       </c>
@@ -16474,8 +18751,32 @@
       <c r="BJ50" t="s">
         <v>273</v>
       </c>
+      <c r="BK50" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL50" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BM50" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BN50" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BO50" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BP50" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BQ50" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR50" s="24" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="51" spans="1:62" ht="15">
+    <row r="51" spans="1:70" ht="15">
       <c r="A51">
         <v>0.17</v>
       </c>
@@ -16662,8 +18963,32 @@
       <c r="BJ51">
         <v>0.18</v>
       </c>
+      <c r="BK51" s="25">
+        <v>80</v>
+      </c>
+      <c r="BL51" s="25">
+        <v>89</v>
+      </c>
+      <c r="BM51" s="25">
+        <v>110.2</v>
+      </c>
+      <c r="BN51" s="25">
+        <v>103.7</v>
+      </c>
+      <c r="BO51" s="25">
+        <v>111.5</v>
+      </c>
+      <c r="BP51" s="25">
+        <v>107.9</v>
+      </c>
+      <c r="BQ51" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="BR51" s="25">
+        <v>108.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:62" ht="15">
+    <row r="52" spans="1:70" ht="15">
       <c r="A52" s="5" t="s">
         <v>173</v>
       </c>
@@ -16850,8 +19175,32 @@
       <c r="BJ52" t="s">
         <v>63</v>
       </c>
+      <c r="BK52" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL52" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BM52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BN52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO52" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="BP52" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BQ52" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR52" s="26" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="53" spans="1:62" ht="70.75">
+    <row r="53" spans="1:70" ht="70.75">
       <c r="A53" s="3" t="s">
         <v>178</v>
       </c>
@@ -17038,8 +19387,32 @@
       <c r="BJ53" t="s">
         <v>271</v>
       </c>
+      <c r="BK53" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BL53" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BM53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BN53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BO53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP53" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BQ53" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BR53" s="24" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="54" spans="1:62" ht="15">
+    <row r="54" spans="1:70" ht="15">
       <c r="A54">
         <v>2.2999999999999998</v>
       </c>
@@ -17226,8 +19599,32 @@
       <c r="BJ54">
         <v>0.6</v>
       </c>
+      <c r="BK54" s="25">
+        <v>24.7</v>
+      </c>
+      <c r="BL54" s="25">
+        <v>26.7</v>
+      </c>
+      <c r="BM54" s="25">
+        <v>34.5</v>
+      </c>
+      <c r="BN54" s="25">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="BO54" s="25">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="BP54" s="25">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="BQ54" s="25">
+        <v>2.44</v>
+      </c>
+      <c r="BR54" s="25">
+        <v>35.9</v>
+      </c>
     </row>
-    <row r="55" spans="1:62" ht="15">
+    <row r="55" spans="1:70" ht="15">
       <c r="A55" s="5" t="s">
         <v>183</v>
       </c>
@@ -17414,8 +19811,32 @@
       <c r="BJ55" t="s">
         <v>328</v>
       </c>
+      <c r="BK55" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BL55" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BM55" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BN55" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BO55" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP55" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ55" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR55" s="26" t="s">
+        <v>404</v>
+      </c>
     </row>
-    <row r="56" spans="1:62" ht="70.75">
+    <row r="56" spans="1:70" ht="70.75">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -17602,8 +20023,32 @@
       <c r="BJ56" t="s">
         <v>293</v>
       </c>
+      <c r="BK56" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BL56" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BM56" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BN56" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO56" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BP56" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BQ56" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="BR56" s="24" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="57" spans="1:62" ht="15">
+    <row r="57" spans="1:70" ht="15">
       <c r="A57">
         <v>30.6</v>
       </c>
@@ -17790,8 +20235,32 @@
       <c r="BJ57">
         <v>2.89</v>
       </c>
+      <c r="BK57" s="25">
+        <v>109.1</v>
+      </c>
+      <c r="BL57" s="25">
+        <v>107.6</v>
+      </c>
+      <c r="BM57" s="25">
+        <v>313</v>
+      </c>
+      <c r="BN57" s="25">
+        <v>338</v>
+      </c>
+      <c r="BO57" s="25">
+        <v>307</v>
+      </c>
+      <c r="BP57" s="25">
+        <v>322</v>
+      </c>
+      <c r="BQ57" s="25">
+        <v>88</v>
+      </c>
+      <c r="BR57" s="25">
+        <v>331</v>
+      </c>
     </row>
-    <row r="58" spans="1:62" ht="15">
+    <row r="58" spans="1:70" ht="15">
       <c r="A58" s="5" t="s">
         <v>192</v>
       </c>
@@ -17978,8 +20447,32 @@
       <c r="BJ58" t="s">
         <v>329</v>
       </c>
+      <c r="BK58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BL58" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BM58" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BN58" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BO58" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BP58" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ58" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="BR58" s="26" t="s">
+        <v>407</v>
+      </c>
     </row>
-    <row r="59" spans="1:62" ht="42.45">
+    <row r="59" spans="1:70" ht="66.45">
       <c r="A59" s="3" t="s">
         <v>197</v>
       </c>
@@ -18166,8 +20659,32 @@
       <c r="BJ59" t="s">
         <v>294</v>
       </c>
+      <c r="BK59" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL59" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM59" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BN59" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BO59" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BP59" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BQ59" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="BR59" s="24" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="60" spans="1:62" ht="15">
+    <row r="60" spans="1:70" ht="15">
       <c r="A60">
         <v>99</v>
       </c>
@@ -18354,8 +20871,32 @@
       <c r="BJ60">
         <v>2.36</v>
       </c>
+      <c r="BK60" s="25">
+        <v>35.4</v>
+      </c>
+      <c r="BL60" s="25">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BM60" s="25">
+        <v>21</v>
+      </c>
+      <c r="BN60" s="25">
+        <v>20</v>
+      </c>
+      <c r="BO60" s="25">
+        <v>49</v>
+      </c>
+      <c r="BP60" s="25">
+        <v>68</v>
+      </c>
+      <c r="BQ60" s="25">
+        <v>27</v>
+      </c>
+      <c r="BR60" s="25">
+        <v>80</v>
+      </c>
     </row>
-    <row r="61" spans="1:62" ht="15">
+    <row r="61" spans="1:70" ht="15">
       <c r="A61" s="5" t="s">
         <v>201</v>
       </c>
@@ -18542,8 +21083,32 @@
       <c r="BJ61" t="s">
         <v>330</v>
       </c>
+      <c r="BK61" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL61" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BM61" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN61" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BO61" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BP61" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BQ61" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="BR61" s="26" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="62" spans="1:62" ht="42.45">
+    <row r="62" spans="1:70" ht="66.45">
       <c r="A62" s="3" t="s">
         <v>206</v>
       </c>
@@ -18730,8 +21295,32 @@
       <c r="BJ62" t="s">
         <v>296</v>
       </c>
+      <c r="BK62" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BL62" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BM62" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BN62" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO62" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BP62" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ62" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="BR62" s="24" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="63" spans="1:62" ht="15">
+    <row r="63" spans="1:70" ht="15">
       <c r="A63">
         <v>4.72</v>
       </c>
@@ -18918,8 +21507,32 @@
       <c r="BJ63">
         <v>83</v>
       </c>
+      <c r="BK63" s="25">
+        <v>324</v>
+      </c>
+      <c r="BL63" s="25">
+        <v>333</v>
+      </c>
+      <c r="BM63" s="25">
+        <v>79.5</v>
+      </c>
+      <c r="BN63" s="25">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="BO63" s="25">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="BP63" s="25">
+        <v>68.5</v>
+      </c>
+      <c r="BQ63" s="25">
+        <v>110.7</v>
+      </c>
+      <c r="BR63" s="25">
+        <v>73.900000000000006</v>
+      </c>
     </row>
-    <row r="64" spans="1:62" ht="15">
+    <row r="64" spans="1:70" ht="15">
       <c r="A64" s="5" t="s">
         <v>211</v>
       </c>
@@ -19106,8 +21719,32 @@
       <c r="BJ64" t="s">
         <v>331</v>
       </c>
+      <c r="BK64" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BL64" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BM64" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BN64" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO64" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BP64" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BQ64" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="BR64" s="26" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="65" spans="1:62" ht="42.45">
+    <row r="65" spans="1:70" ht="66.45">
       <c r="A65" s="3" t="s">
         <v>215</v>
       </c>
@@ -19294,8 +21931,32 @@
       <c r="BJ65" t="s">
         <v>298</v>
       </c>
+      <c r="BK65" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL65" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BM65" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BN65" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BO65" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BP65" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BQ65" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BR65" s="24" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="66" spans="1:62" ht="15">
+    <row r="66" spans="1:70" ht="15">
       <c r="A66">
         <v>63.7</v>
       </c>
@@ -19482,8 +22143,32 @@
       <c r="BJ66">
         <v>25.8</v>
       </c>
+      <c r="BK66" s="25">
+        <v>15</v>
+      </c>
+      <c r="BL66" s="25">
+        <v>13</v>
+      </c>
+      <c r="BM66" s="25">
+        <v>15</v>
+      </c>
+      <c r="BN66" s="25">
+        <v>13.8</v>
+      </c>
+      <c r="BO66" s="25">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="BP66" s="25">
+        <v>22.8</v>
+      </c>
+      <c r="BQ66" s="25">
+        <v>36.1</v>
+      </c>
+      <c r="BR66" s="25">
+        <v>12.2</v>
+      </c>
     </row>
-    <row r="67" spans="1:62" ht="15">
+    <row r="67" spans="1:70" ht="15">
       <c r="A67" s="5" t="s">
         <v>219</v>
       </c>
@@ -19670,8 +22355,32 @@
       <c r="BJ67" t="s">
         <v>299</v>
       </c>
+      <c r="BK67" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BL67" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BM67" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN67" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BO67" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BP67" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BQ67" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR67" s="26" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="68" spans="1:62" ht="42.45">
+    <row r="68" spans="1:70" ht="66.45">
       <c r="A68" s="3" t="s">
         <v>222</v>
       </c>
@@ -19858,8 +22567,32 @@
       <c r="BJ68" t="s">
         <v>300</v>
       </c>
+      <c r="BK68" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BL68" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="BM68" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN68" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BO68" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BP68" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="BQ68" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BR68" s="24" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="69" spans="1:62" ht="15">
+    <row r="69" spans="1:70" ht="15">
       <c r="A69">
         <v>32.200000000000003</v>
       </c>
@@ -20046,8 +22779,32 @@
       <c r="BJ69">
         <v>109.4</v>
       </c>
+      <c r="BK69" s="25">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="BL69" s="25">
+        <v>81.7</v>
+      </c>
+      <c r="BM69" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="BN69" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="BO69" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="BP69" s="25">
+        <v>2.9</v>
+      </c>
+      <c r="BQ69" s="25">
+        <v>326</v>
+      </c>
+      <c r="BR69" s="25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="1:62" ht="15">
+    <row r="70" spans="1:70" ht="15">
       <c r="A70" s="5" t="s">
         <v>226</v>
       </c>
@@ -20234,8 +22991,32 @@
       <c r="BJ70" t="s">
         <v>301</v>
       </c>
+      <c r="BK70" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BL70" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM70" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BN70" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BO70" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BP70" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ70" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BR70" s="26" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="71" spans="1:62" ht="28.3">
+    <row r="71" spans="1:70" ht="39.9">
       <c r="A71" s="3" t="s">
         <v>231</v>
       </c>
@@ -20422,8 +23203,32 @@
       <c r="BJ71" t="s">
         <v>302</v>
       </c>
+      <c r="BK71" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL71" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="BM71" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="BN71" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO71" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="BP71" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="BQ71" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="BR71" s="24" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="72" spans="1:62" ht="15">
+    <row r="72" spans="1:70" ht="15">
       <c r="A72">
         <v>324</v>
       </c>
@@ -20610,8 +23415,32 @@
       <c r="BJ72">
         <v>35</v>
       </c>
+      <c r="BK72" s="25">
+        <v>14.5</v>
+      </c>
+      <c r="BL72" s="25">
+        <v>12.1</v>
+      </c>
+      <c r="BM72" s="25">
+        <v>42.5</v>
+      </c>
+      <c r="BN72" s="25">
+        <v>28.4</v>
+      </c>
+      <c r="BO72" s="25">
+        <v>33.4</v>
+      </c>
+      <c r="BP72" s="25">
+        <v>33.5</v>
+      </c>
+      <c r="BQ72" s="25">
+        <v>66</v>
+      </c>
+      <c r="BR72" s="25">
+        <v>31.6</v>
+      </c>
     </row>
-    <row r="73" spans="1:62" ht="15">
+    <row r="73" spans="1:70" ht="15">
       <c r="A73" s="5" t="s">
         <v>235</v>
       </c>
@@ -20798,8 +23627,32 @@
       <c r="BJ73" t="s">
         <v>303</v>
       </c>
+      <c r="BK73" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BL73" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BM73" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BN73" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BO73" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="BP73" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BQ73" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BR73" s="26" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="74" spans="1:62" ht="15">
+    <row r="74" spans="1:70" ht="39.9">
       <c r="A74" s="3" t="s">
         <v>246</v>
       </c>
@@ -20869,8 +23722,17 @@
       <c r="BJ74" t="s">
         <v>304</v>
       </c>
+      <c r="BK74" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="BL74" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="BQ74" s="24" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="75" spans="1:62" ht="15">
+    <row r="75" spans="1:70" ht="15">
       <c r="A75">
         <v>7.41</v>
       </c>
@@ -20937,8 +23799,17 @@
       <c r="BJ75">
         <v>320</v>
       </c>
+      <c r="BK75" s="25">
+        <v>15.1</v>
+      </c>
+      <c r="BL75" s="25">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="BQ75" s="25">
+        <v>53.7</v>
+      </c>
     </row>
-    <row r="76" spans="1:62" ht="15">
+    <row r="76" spans="1:70" ht="15">
       <c r="A76" s="5" t="s">
         <v>250</v>
       </c>
@@ -21005,132 +23876,204 @@
       <c r="BJ76" t="s">
         <v>305</v>
       </c>
+      <c r="BK76" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BL76" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BQ76" s="26" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="77" spans="1:62">
+    <row r="77" spans="1:70" ht="39.9">
       <c r="Y77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BJ77" t="s">
         <v>306</v>
       </c>
+      <c r="BQ77" s="24" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="78" spans="1:62">
+    <row r="78" spans="1:70">
       <c r="Y78">
         <v>14.5</v>
       </c>
       <c r="BJ78">
         <v>12</v>
       </c>
+      <c r="BQ78" s="25">
+        <v>21.3</v>
+      </c>
     </row>
-    <row r="79" spans="1:62">
+    <row r="79" spans="1:70">
       <c r="Y79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="BJ79" t="s">
         <v>332</v>
       </c>
+      <c r="BQ79" s="26" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:70" ht="39.9">
       <c r="BJ80" t="s">
         <v>308</v>
       </c>
+      <c r="BQ80" s="24" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="81" spans="62:62">
+    <row r="81" spans="62:69">
       <c r="BJ81">
         <v>68.099999999999994</v>
       </c>
+      <c r="BQ81" s="25">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="82" spans="62:62">
+    <row r="82" spans="62:69">
       <c r="BJ82" t="s">
         <v>333</v>
       </c>
+      <c r="BQ82" s="26" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="83" spans="62:62">
+    <row r="83" spans="62:69" ht="53.15">
       <c r="BJ83" t="s">
         <v>310</v>
       </c>
+      <c r="BQ83" s="24" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="84" spans="62:62">
+    <row r="84" spans="62:69">
       <c r="BJ84">
         <v>20.6</v>
       </c>
+      <c r="BQ84" s="25">
+        <v>21.4</v>
+      </c>
     </row>
-    <row r="85" spans="62:62">
+    <row r="85" spans="62:69">
       <c r="BJ85" t="s">
         <v>334</v>
       </c>
+      <c r="BQ85" s="26" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="86" spans="62:62">
+    <row r="86" spans="62:69" ht="53.15">
       <c r="BJ86" t="s">
         <v>291</v>
       </c>
+      <c r="BQ86" s="24" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="87" spans="62:62">
+    <row r="87" spans="62:69">
       <c r="BJ87">
         <v>6.2</v>
       </c>
+      <c r="BQ87" s="25">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="88" spans="62:62">
+    <row r="88" spans="62:69">
       <c r="BJ88" t="s">
         <v>292</v>
       </c>
+      <c r="BQ88" s="26" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="89" spans="62:62">
+    <row r="89" spans="62:69" ht="53.15">
       <c r="BJ89" t="s">
         <v>289</v>
       </c>
+      <c r="BQ89" s="24" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="90" spans="62:62">
+    <row r="90" spans="62:69">
       <c r="BJ90">
         <v>4.5999999999999996</v>
       </c>
+      <c r="BQ90" s="25">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="91" spans="62:62">
+    <row r="91" spans="62:69">
       <c r="BJ91" t="s">
         <v>290</v>
       </c>
+      <c r="BQ91" s="26" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="92" spans="62:62">
+    <row r="92" spans="62:69" ht="53.15">
       <c r="BJ92" t="s">
         <v>287</v>
       </c>
+      <c r="BQ92" s="24" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="93" spans="62:62">
+    <row r="93" spans="62:69">
       <c r="BJ93">
         <v>0.5</v>
       </c>
+      <c r="BQ93" s="25">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="94" spans="62:62">
+    <row r="94" spans="62:69">
       <c r="BJ94" t="s">
         <v>288</v>
       </c>
+      <c r="BQ94" s="26" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="95" spans="62:62">
+    <row r="95" spans="62:69" ht="39.9">
       <c r="BJ95" t="s">
         <v>269</v>
       </c>
+      <c r="BQ95" s="24" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="96" spans="62:62">
+    <row r="96" spans="62:69">
       <c r="BJ96">
         <v>1.97</v>
       </c>
+      <c r="BQ96" s="25">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="97" spans="62:62">
+    <row r="97" spans="62:69">
       <c r="BJ97" t="s">
         <v>270</v>
       </c>
+      <c r="BQ97" s="26" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="98" spans="62:62">
+    <row r="98" spans="62:69">
       <c r="BJ98" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="62:62">
+    <row r="99" spans="62:69">
       <c r="BJ99">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="62:62">
+    <row r="100" spans="62:69">
       <c r="BJ100" t="s">
         <v>336</v>
       </c>
@@ -21153,8 +24096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\felixdu\work\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D0FF7-EE34-4B5D-804E-4B806CB3E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A139BA-4FE0-4A96-81CF-74AACB32F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="419">
   <si>
     <r>
       <rPr>
@@ -7561,6 +7561,10 @@
       </rPr>
       <t>0.2～1.5</t>
     </r>
+  </si>
+  <si>
+    <t>天津竺晓凡/北京程亦非</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8150,7 +8154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
@@ -24096,14 +24100,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="10.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" customWidth="1"/>
+    <col min="2" max="2" width="23.07421875" bestFit="1" customWidth="1"/>
     <col min="3" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24124,8 +24128,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="18">
+        <v>45231</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="20"/>

--- a/杜子期血常规.xlsx
+++ b/杜子期血常规.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\felixdu\work\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A139BA-4FE0-4A96-81CF-74AACB32F6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4CD01-FEA1-41B2-9C58-62E1660A83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="420">
   <si>
     <r>
       <rPr>
@@ -7564,6 +7564,10 @@
   </si>
   <si>
     <t>天津竺晓凡/北京程亦非</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>廊坊杨淑莲</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7856,9 +7860,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7896,7 +7900,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8002,7 +8006,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8144,7 +8148,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24101,7 +24105,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.15"/>
@@ -24136,8 +24140,12 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="18">
+        <v>45474</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="20"/>
